--- a/Output/FedAcqTrends/Platform/Aircraft/Fed_Aircraft_Contracts.xlsx
+++ b/Output/FedAcqTrends/Platform/Aircraft/Fed_Aircraft_Contracts.xlsx
@@ -236,10 +236,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="166" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="168" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="169" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="170" formatCode="0.00,,,&quot;B&quot;"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -275,11 +276,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="169" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="170" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -590,82 +592,82 @@
         <v>1</v>
       </c>
       <c r="O1" t="s">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="P1" t="s">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="Q1" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="R1" t="s">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="S1" t="s">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="T1" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="U1" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="V1" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="W1" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="X1" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="Y1" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="Z1" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="AA1" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="AB1" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="AC1" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="AD1" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="AE1" t="s">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="AF1" t="s">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="AG1" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="AH1" t="s">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="AI1" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="AJ1" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="AK1" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="AL1" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="AM1" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="AN1" t="s">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="AO1" t="s">
         <v>28</v>
@@ -744,81 +746,85 @@
       <c r="N2" t="s">
         <v>50</v>
       </c>
-      <c r="O2" s="1"/>
-      <c r="P2" s="1"/>
-      <c r="Q2" s="1" t="n">
-        <v>77000</v>
-      </c>
-      <c r="R2" s="1" t="n">
-        <v>31600000</v>
-      </c>
-      <c r="S2" s="1" t="n">
-        <v>67075991.15</v>
-      </c>
-      <c r="T2" s="1" t="n">
-        <v>45496000</v>
-      </c>
-      <c r="U2" s="1" t="n">
-        <v>155603000</v>
-      </c>
-      <c r="V2" s="1" t="n">
-        <v>54835000</v>
-      </c>
-      <c r="W2" s="1" t="n">
-        <v>682945000</v>
-      </c>
-      <c r="X2" s="1" t="n">
-        <v>1252569000</v>
-      </c>
-      <c r="Y2" s="1" t="n">
-        <v>1879598021</v>
-      </c>
-      <c r="Z2" s="1" t="n">
-        <v>835811000</v>
-      </c>
-      <c r="AA2" s="1" t="n">
-        <v>-78000000</v>
-      </c>
-      <c r="AB2" s="1" t="n">
-        <v>678340000</v>
-      </c>
-      <c r="AC2" s="1" t="n">
-        <v>811960000</v>
-      </c>
-      <c r="AD2" s="1" t="n">
-        <v>764502000</v>
-      </c>
-      <c r="AE2" s="1" t="n">
-        <v>835335000</v>
-      </c>
-      <c r="AF2" s="1" t="n">
-        <v>1220882000</v>
-      </c>
-      <c r="AG2" s="1" t="n">
-        <v>4026502096</v>
-      </c>
-      <c r="AH2" s="1" t="n">
-        <v>4207937115</v>
-      </c>
-      <c r="AI2" s="1" t="n">
-        <v>4630223978</v>
-      </c>
-      <c r="AJ2" s="1" t="n">
+      <c r="O2" s="4" t="n">
         <v>24580435226.64</v>
       </c>
-      <c r="AK2" s="1" t="n">
+      <c r="P2" s="4" t="n">
         <v>24106302588.46</v>
       </c>
-      <c r="AL2" s="1" t="n">
+      <c r="Q2" s="4" t="n">
         <v>26106954283.46</v>
       </c>
-      <c r="AM2" s="1" t="n">
+      <c r="R2" s="4" t="n">
         <v>32922914808.31</v>
       </c>
-      <c r="AN2" s="1" t="n">
+      <c r="S2" s="4" t="n">
         <v>31290054553.94</v>
       </c>
-      <c r="AO2" s="1" t="n">
+      <c r="T2" s="4" t="n">
+        <v>29596095280.92</v>
+      </c>
+      <c r="U2" s="4" t="n">
+        <v>34712294227.77</v>
+      </c>
+      <c r="V2" s="4" t="n">
+        <v>38842437992.72</v>
+      </c>
+      <c r="W2" s="4" t="n">
+        <v>43480407282.98</v>
+      </c>
+      <c r="X2" s="4" t="n">
+        <v>40718477015.63</v>
+      </c>
+      <c r="Y2" s="4" t="n">
+        <v>37073459260.8586</v>
+      </c>
+      <c r="Z2" s="4" t="n">
+        <v>44860435750.1891</v>
+      </c>
+      <c r="AA2" s="4" t="n">
+        <v>49417426796.5723</v>
+      </c>
+      <c r="AB2" s="4" t="n">
+        <v>50005122566.4256</v>
+      </c>
+      <c r="AC2" s="4" t="n">
+        <v>36049980655.0231</v>
+      </c>
+      <c r="AD2" s="4" t="n">
+        <v>39541344351.1707</v>
+      </c>
+      <c r="AE2" s="4" t="n">
+        <v>51518893786.0678</v>
+      </c>
+      <c r="AF2" s="4" t="n">
+        <v>57851065824.5591</v>
+      </c>
+      <c r="AG2" s="4" t="n">
+        <v>49014898965.83</v>
+      </c>
+      <c r="AH2" s="4" t="n">
+        <v>53003631595.12</v>
+      </c>
+      <c r="AI2" s="4" t="n">
+        <v>63030431796.26</v>
+      </c>
+      <c r="AJ2" s="4" t="n">
+        <v>35766995695.49</v>
+      </c>
+      <c r="AK2" s="4" t="n">
+        <v>38134159314.82</v>
+      </c>
+      <c r="AL2" s="4" t="n">
+        <v>55594750528.27</v>
+      </c>
+      <c r="AM2" s="4" t="n">
+        <v>32270134555.06</v>
+      </c>
+      <c r="AN2" s="4" t="n">
+        <v>24073744726.32</v>
+      </c>
+      <c r="AO2" s="4" t="n">
         <v>29596095280.92</v>
       </c>
       <c r="AP2" s="1" t="n">
@@ -896,71 +902,85 @@
       <c r="N3" t="s">
         <v>51</v>
       </c>
-      <c r="O3" s="1" t="n">
-        <v>42392</v>
-      </c>
-      <c r="P3" s="1"/>
-      <c r="Q3" s="1"/>
-      <c r="R3" s="1"/>
-      <c r="S3" s="1"/>
-      <c r="T3" s="1"/>
-      <c r="U3" s="1"/>
-      <c r="V3" s="1" t="n">
-        <v>8000</v>
-      </c>
-      <c r="W3" s="1"/>
-      <c r="X3" s="1" t="n">
-        <v>136000</v>
-      </c>
-      <c r="Y3" s="1" t="n">
-        <v>1244000</v>
-      </c>
-      <c r="Z3" s="1" t="n">
-        <v>377000</v>
-      </c>
-      <c r="AA3" s="1" t="n">
-        <v>1588000</v>
-      </c>
-      <c r="AB3" s="1" t="n">
-        <v>389000</v>
-      </c>
-      <c r="AC3" s="1" t="n">
-        <v>-265000</v>
-      </c>
-      <c r="AD3" s="1" t="n">
-        <v>400000</v>
-      </c>
-      <c r="AE3" s="1" t="n">
-        <v>35000</v>
-      </c>
-      <c r="AF3" s="1" t="n">
-        <v>1129000</v>
-      </c>
-      <c r="AG3" s="1" t="n">
-        <v>26716013</v>
-      </c>
-      <c r="AH3" s="1" t="n">
-        <v>161257555</v>
-      </c>
-      <c r="AI3" s="1" t="n">
-        <v>197627466</v>
-      </c>
-      <c r="AJ3" s="1" t="n">
+      <c r="O3" s="4" t="n">
         <v>575234048</v>
       </c>
-      <c r="AK3" s="1" t="n">
+      <c r="P3" s="4" t="n">
         <v>669069569.94</v>
       </c>
-      <c r="AL3" s="1" t="n">
+      <c r="Q3" s="4" t="n">
         <v>686880414.67</v>
       </c>
-      <c r="AM3" s="1" t="n">
+      <c r="R3" s="4" t="n">
         <v>835897253.19</v>
       </c>
-      <c r="AN3" s="1" t="n">
+      <c r="S3" s="4" t="n">
         <v>600689403.78</v>
       </c>
-      <c r="AO3" s="1" t="n">
+      <c r="T3" s="4" t="n">
+        <v>800013327.8</v>
+      </c>
+      <c r="U3" s="4" t="n">
+        <v>888726395.39</v>
+      </c>
+      <c r="V3" s="4" t="n">
+        <v>970422741.45</v>
+      </c>
+      <c r="W3" s="4" t="n">
+        <v>1183717660.62</v>
+      </c>
+      <c r="X3" s="4" t="n">
+        <v>983363800.21</v>
+      </c>
+      <c r="Y3" s="4" t="n">
+        <v>1025939958.163</v>
+      </c>
+      <c r="Z3" s="4" t="n">
+        <v>1099212948.0185</v>
+      </c>
+      <c r="AA3" s="4" t="n">
+        <v>986640516.3149</v>
+      </c>
+      <c r="AB3" s="4" t="n">
+        <v>1201698960.5381</v>
+      </c>
+      <c r="AC3" s="4" t="n">
+        <v>1182720605.3701</v>
+      </c>
+      <c r="AD3" s="4" t="n">
+        <v>1201505540.9714</v>
+      </c>
+      <c r="AE3" s="4" t="n">
+        <v>1254981007.4817</v>
+      </c>
+      <c r="AF3" s="4" t="n">
+        <v>1308996189.4308</v>
+      </c>
+      <c r="AG3" s="4" t="n">
+        <v>1674425531.59</v>
+      </c>
+      <c r="AH3" s="4" t="n">
+        <v>1746988190.09</v>
+      </c>
+      <c r="AI3" s="4" t="n">
+        <v>1213933708.27</v>
+      </c>
+      <c r="AJ3" s="4" t="n">
+        <v>1121549382.03</v>
+      </c>
+      <c r="AK3" s="4" t="n">
+        <v>1160499837.31</v>
+      </c>
+      <c r="AL3" s="4" t="n">
+        <v>679414620.99</v>
+      </c>
+      <c r="AM3" s="4" t="n">
+        <v>836045048.97</v>
+      </c>
+      <c r="AN3" s="4" t="n">
+        <v>423864529.97</v>
+      </c>
+      <c r="AO3" s="4" t="n">
         <v>800013327.8</v>
       </c>
       <c r="AP3" s="1" t="n">
@@ -1038,79 +1058,85 @@
       <c r="N4" t="s">
         <v>53</v>
       </c>
-      <c r="O4" s="1"/>
-      <c r="P4" s="1" t="n">
-        <v>46000</v>
-      </c>
-      <c r="Q4" s="1" t="n">
-        <v>161000</v>
-      </c>
-      <c r="R4" s="1" t="n">
-        <v>288000</v>
-      </c>
-      <c r="S4" s="1" t="n">
-        <v>2128000</v>
-      </c>
-      <c r="T4" s="1" t="n">
-        <v>158000</v>
-      </c>
-      <c r="U4" s="1" t="n">
-        <v>313000</v>
-      </c>
-      <c r="V4" s="1" t="n">
-        <v>69000</v>
-      </c>
-      <c r="W4" s="1" t="n">
-        <v>4169000</v>
-      </c>
-      <c r="X4" s="1" t="n">
-        <v>5544000</v>
-      </c>
-      <c r="Y4" s="1" t="n">
-        <v>6666000</v>
-      </c>
-      <c r="Z4" s="1" t="n">
-        <v>5853000</v>
-      </c>
-      <c r="AA4" s="1" t="n">
-        <v>9315000</v>
-      </c>
-      <c r="AB4" s="1" t="n">
-        <v>12552000</v>
-      </c>
-      <c r="AC4" s="1" t="n">
-        <v>3296000</v>
-      </c>
-      <c r="AD4" s="1"/>
-      <c r="AE4" s="1"/>
-      <c r="AF4" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG4" s="1" t="n">
-        <v>49844864</v>
-      </c>
-      <c r="AH4" s="1" t="n">
-        <v>64315353</v>
-      </c>
-      <c r="AI4" s="1" t="n">
-        <v>13896467</v>
-      </c>
-      <c r="AJ4" s="1" t="n">
+      <c r="O4" s="4" t="n">
         <v>15949044</v>
       </c>
-      <c r="AK4" s="1" t="n">
+      <c r="P4" s="4" t="n">
         <v>3578204</v>
       </c>
-      <c r="AL4" s="1" t="n">
+      <c r="Q4" s="4" t="n">
         <v>21286774.33</v>
       </c>
-      <c r="AM4" s="1" t="n">
+      <c r="R4" s="4" t="n">
         <v>27665290.5813</v>
       </c>
-      <c r="AN4" s="1" t="n">
+      <c r="S4" s="4" t="n">
         <v>388233.1308</v>
       </c>
-      <c r="AO4" s="1" t="n">
+      <c r="T4" s="4" t="n">
+        <v>5356992.0713</v>
+      </c>
+      <c r="U4" s="4" t="n">
+        <v>5328672.7029</v>
+      </c>
+      <c r="V4" s="4" t="n">
+        <v>2422638.71</v>
+      </c>
+      <c r="W4" s="4" t="n">
+        <v>43287639.7559</v>
+      </c>
+      <c r="X4" s="4" t="n">
+        <v>29153564.3068</v>
+      </c>
+      <c r="Y4" s="4" t="n">
+        <v>165479102.4641</v>
+      </c>
+      <c r="Z4" s="4" t="n">
+        <v>1447423460.9816</v>
+      </c>
+      <c r="AA4" s="4" t="n">
+        <v>3501329111.7152</v>
+      </c>
+      <c r="AB4" s="4" t="n">
+        <v>4739884418.6757</v>
+      </c>
+      <c r="AC4" s="4" t="n">
+        <v>4576105085.1177</v>
+      </c>
+      <c r="AD4" s="4" t="n">
+        <v>5531679587.3385</v>
+      </c>
+      <c r="AE4" s="4" t="n">
+        <v>5617277929.5183</v>
+      </c>
+      <c r="AF4" s="4" t="n">
+        <v>7232676923.4378</v>
+      </c>
+      <c r="AG4" s="4" t="n">
+        <v>9555499584.5343</v>
+      </c>
+      <c r="AH4" s="4" t="n">
+        <v>8565000933.0606</v>
+      </c>
+      <c r="AI4" s="4" t="n">
+        <v>7022961831.8218</v>
+      </c>
+      <c r="AJ4" s="4" t="n">
+        <v>8293095980.0951</v>
+      </c>
+      <c r="AK4" s="4" t="n">
+        <v>9228689067.6412</v>
+      </c>
+      <c r="AL4" s="4" t="n">
+        <v>9276520909.1715</v>
+      </c>
+      <c r="AM4" s="4" t="n">
+        <v>8912741691.18</v>
+      </c>
+      <c r="AN4" s="4" t="n">
+        <v>3456852755.96</v>
+      </c>
+      <c r="AO4" s="4" t="n">
         <v>5356992.0713</v>
       </c>
       <c r="AP4" s="1" t="n">
@@ -1188,59 +1214,85 @@
       <c r="N5" t="s">
         <v>54</v>
       </c>
-      <c r="O5" s="1"/>
-      <c r="P5" s="1"/>
-      <c r="Q5" s="1"/>
-      <c r="R5" s="1"/>
-      <c r="S5" s="1" t="n">
-        <v>60000</v>
-      </c>
-      <c r="T5" s="1"/>
-      <c r="U5" s="1"/>
-      <c r="V5" s="1" t="n">
-        <v>41000</v>
-      </c>
-      <c r="W5" s="1" t="n">
-        <v>35000</v>
-      </c>
-      <c r="X5" s="1"/>
-      <c r="Y5" s="1"/>
-      <c r="Z5" s="1"/>
-      <c r="AA5" s="1"/>
-      <c r="AB5" s="1"/>
-      <c r="AC5" s="1"/>
-      <c r="AD5" s="1"/>
-      <c r="AE5" s="1" t="n">
-        <v>31000</v>
-      </c>
-      <c r="AF5" s="1" t="n">
-        <v>79000</v>
-      </c>
-      <c r="AG5" s="1" t="n">
-        <v>2955037</v>
-      </c>
-      <c r="AH5" s="1" t="n">
-        <v>26960887</v>
-      </c>
-      <c r="AI5" s="1" t="n">
-        <v>31968679</v>
-      </c>
-      <c r="AJ5" s="1" t="n">
+      <c r="O5" s="4" t="n">
         <v>123574155</v>
       </c>
-      <c r="AK5" s="1" t="n">
+      <c r="P5" s="4" t="n">
         <v>77356117.09</v>
       </c>
-      <c r="AL5" s="1" t="n">
+      <c r="Q5" s="4" t="n">
         <v>143038832.75</v>
       </c>
-      <c r="AM5" s="1" t="n">
+      <c r="R5" s="4" t="n">
         <v>201534412.0035</v>
       </c>
-      <c r="AN5" s="1" t="n">
+      <c r="S5" s="4" t="n">
         <v>241215691.4556</v>
       </c>
-      <c r="AO5" s="1" t="n">
+      <c r="T5" s="4" t="n">
+        <v>249473447.2923</v>
+      </c>
+      <c r="U5" s="4" t="n">
+        <v>153778002.372</v>
+      </c>
+      <c r="V5" s="4" t="n">
+        <v>211961668.518</v>
+      </c>
+      <c r="W5" s="4" t="n">
+        <v>260637124.7695</v>
+      </c>
+      <c r="X5" s="4" t="n">
+        <v>189092483.019</v>
+      </c>
+      <c r="Y5" s="4" t="n">
+        <v>217824648.2669</v>
+      </c>
+      <c r="Z5" s="4" t="n">
+        <v>268720229.82</v>
+      </c>
+      <c r="AA5" s="4" t="n">
+        <v>226391384.409</v>
+      </c>
+      <c r="AB5" s="4" t="n">
+        <v>165455433.8876</v>
+      </c>
+      <c r="AC5" s="4" t="n">
+        <v>135288401.9449</v>
+      </c>
+      <c r="AD5" s="4" t="n">
+        <v>116552455.5742</v>
+      </c>
+      <c r="AE5" s="4" t="n">
+        <v>161228231.9326</v>
+      </c>
+      <c r="AF5" s="4" t="n">
+        <v>112313980.1374</v>
+      </c>
+      <c r="AG5" s="4" t="n">
+        <v>142102180.2154</v>
+      </c>
+      <c r="AH5" s="4" t="n">
+        <v>205031950.6491</v>
+      </c>
+      <c r="AI5" s="4" t="n">
+        <v>168686383.0158</v>
+      </c>
+      <c r="AJ5" s="4" t="n">
+        <v>167267132.2923</v>
+      </c>
+      <c r="AK5" s="4" t="n">
+        <v>123998174.2661</v>
+      </c>
+      <c r="AL5" s="4" t="n">
+        <v>84002534.7091</v>
+      </c>
+      <c r="AM5" s="4" t="n">
+        <v>145794997.99</v>
+      </c>
+      <c r="AN5" s="4" t="n">
+        <v>25074693.44</v>
+      </c>
+      <c r="AO5" s="4" t="n">
         <v>249473447.2923</v>
       </c>
       <c r="AP5" s="1" t="n">
@@ -1318,49 +1370,85 @@
       <c r="N6" t="s">
         <v>55</v>
       </c>
-      <c r="O6" s="1"/>
-      <c r="P6" s="1"/>
-      <c r="Q6" s="1"/>
-      <c r="R6" s="1"/>
-      <c r="S6" s="1"/>
-      <c r="T6" s="1"/>
-      <c r="U6" s="1"/>
-      <c r="V6" s="1"/>
-      <c r="W6" s="1"/>
-      <c r="X6" s="1"/>
-      <c r="Y6" s="1"/>
-      <c r="Z6" s="1"/>
-      <c r="AA6" s="1"/>
-      <c r="AB6" s="1"/>
-      <c r="AC6" s="1"/>
-      <c r="AD6" s="1"/>
-      <c r="AE6" s="1"/>
-      <c r="AF6" s="1"/>
-      <c r="AG6" s="1" t="n">
-        <v>58753102</v>
-      </c>
-      <c r="AH6" s="1" t="n">
-        <v>334892870</v>
-      </c>
-      <c r="AI6" s="1" t="n">
-        <v>301858328.67</v>
-      </c>
-      <c r="AJ6" s="1" t="n">
+      <c r="O6" s="4" t="n">
         <v>1086185382</v>
       </c>
-      <c r="AK6" s="1" t="n">
+      <c r="P6" s="4" t="n">
         <v>899695329.2</v>
       </c>
-      <c r="AL6" s="1" t="n">
+      <c r="Q6" s="4" t="n">
         <v>959393300.4375</v>
       </c>
-      <c r="AM6" s="1" t="n">
+      <c r="R6" s="4" t="n">
         <v>1638044203.8125</v>
       </c>
-      <c r="AN6" s="1" t="n">
+      <c r="S6" s="4" t="n">
         <v>1677848702.1094</v>
       </c>
-      <c r="AO6" s="1" t="n">
+      <c r="T6" s="4" t="n">
+        <v>1842600462.594</v>
+      </c>
+      <c r="U6" s="4" t="n">
+        <v>2536046234.8964</v>
+      </c>
+      <c r="V6" s="4" t="n">
+        <v>2578596351.6838</v>
+      </c>
+      <c r="W6" s="4" t="n">
+        <v>2374962197.9287</v>
+      </c>
+      <c r="X6" s="4" t="n">
+        <v>2811345525.9451</v>
+      </c>
+      <c r="Y6" s="4" t="n">
+        <v>2775748753.4298</v>
+      </c>
+      <c r="Z6" s="4" t="n">
+        <v>2450371961.4397</v>
+      </c>
+      <c r="AA6" s="4" t="n">
+        <v>1984346615.3058</v>
+      </c>
+      <c r="AB6" s="4" t="n">
+        <v>1641988449.7969</v>
+      </c>
+      <c r="AC6" s="4" t="n">
+        <v>1629413060.6036</v>
+      </c>
+      <c r="AD6" s="4" t="n">
+        <v>1674497008.3088</v>
+      </c>
+      <c r="AE6" s="4" t="n">
+        <v>2049671519.3857</v>
+      </c>
+      <c r="AF6" s="4" t="n">
+        <v>2022386524.3925</v>
+      </c>
+      <c r="AG6" s="4" t="n">
+        <v>1879168550.9256</v>
+      </c>
+      <c r="AH6" s="4" t="n">
+        <v>2237301676.2203</v>
+      </c>
+      <c r="AI6" s="4" t="n">
+        <v>2488259003.2948</v>
+      </c>
+      <c r="AJ6" s="4" t="n">
+        <v>2372847066.4693</v>
+      </c>
+      <c r="AK6" s="4" t="n">
+        <v>2543763097.8861</v>
+      </c>
+      <c r="AL6" s="4" t="n">
+        <v>2900505982.4097</v>
+      </c>
+      <c r="AM6" s="4" t="n">
+        <v>3229627715.17</v>
+      </c>
+      <c r="AN6" s="4" t="n">
+        <v>1426643359.75</v>
+      </c>
+      <c r="AO6" s="4" t="n">
         <v>1842600462.594</v>
       </c>
       <c r="AP6" s="1" t="n">
@@ -1438,65 +1526,85 @@
       <c r="N7" t="s">
         <v>56</v>
       </c>
-      <c r="O7" s="1"/>
-      <c r="P7" s="1"/>
-      <c r="Q7" s="1"/>
-      <c r="R7" s="1"/>
-      <c r="S7" s="1"/>
-      <c r="T7" s="1"/>
-      <c r="U7" s="1"/>
-      <c r="V7" s="1"/>
-      <c r="W7" s="1"/>
-      <c r="X7" s="1"/>
-      <c r="Y7" s="1" t="n">
-        <v>129000</v>
-      </c>
-      <c r="Z7" s="1" t="n">
-        <v>11436000</v>
-      </c>
-      <c r="AA7" s="1" t="n">
-        <v>742000</v>
-      </c>
-      <c r="AB7" s="1" t="n">
-        <v>1956000</v>
-      </c>
-      <c r="AC7" s="1" t="n">
-        <v>6012000</v>
-      </c>
-      <c r="AD7" s="1" t="n">
-        <v>1053000</v>
-      </c>
-      <c r="AE7" s="1" t="n">
-        <v>1450000</v>
-      </c>
-      <c r="AF7" s="1" t="n">
-        <v>11707768.51</v>
-      </c>
-      <c r="AG7" s="1" t="n">
-        <v>1062604105</v>
-      </c>
-      <c r="AH7" s="1" t="n">
-        <v>1796704708</v>
-      </c>
-      <c r="AI7" s="1" t="n">
-        <v>3255293201.67</v>
-      </c>
-      <c r="AJ7" s="1" t="n">
+      <c r="O7" s="4" t="n">
         <v>9329208039.4441</v>
       </c>
-      <c r="AK7" s="1" t="n">
+      <c r="P7" s="4" t="n">
         <v>10756381455.0968</v>
       </c>
-      <c r="AL7" s="1" t="n">
+      <c r="Q7" s="4" t="n">
         <v>11435695602.1251</v>
       </c>
-      <c r="AM7" s="1" t="n">
+      <c r="R7" s="4" t="n">
         <v>14112674498.8887</v>
       </c>
-      <c r="AN7" s="1" t="n">
+      <c r="S7" s="4" t="n">
         <v>14505525993.2919</v>
       </c>
-      <c r="AO7" s="1" t="n">
+      <c r="T7" s="4" t="n">
+        <v>15396716990.9833</v>
+      </c>
+      <c r="U7" s="4" t="n">
+        <v>16638673681.4488</v>
+      </c>
+      <c r="V7" s="4" t="n">
+        <v>18878064792.8399</v>
+      </c>
+      <c r="W7" s="4" t="n">
+        <v>20734378726.0514</v>
+      </c>
+      <c r="X7" s="4" t="n">
+        <v>22540311719.5269</v>
+      </c>
+      <c r="Y7" s="4" t="n">
+        <v>24388475720.6835</v>
+      </c>
+      <c r="Z7" s="4" t="n">
+        <v>22133770192.2392</v>
+      </c>
+      <c r="AA7" s="4" t="n">
+        <v>23669157334.0961</v>
+      </c>
+      <c r="AB7" s="4" t="n">
+        <v>17129152511.447</v>
+      </c>
+      <c r="AC7" s="4" t="n">
+        <v>15558290008.6225</v>
+      </c>
+      <c r="AD7" s="4" t="n">
+        <v>14931030707.3871</v>
+      </c>
+      <c r="AE7" s="4" t="n">
+        <v>16019493639.0837</v>
+      </c>
+      <c r="AF7" s="4" t="n">
+        <v>19085554036.8664</v>
+      </c>
+      <c r="AG7" s="4" t="n">
+        <v>23384478547.1892</v>
+      </c>
+      <c r="AH7" s="4" t="n">
+        <v>25873883211.0788</v>
+      </c>
+      <c r="AI7" s="4" t="n">
+        <v>33201587488.55</v>
+      </c>
+      <c r="AJ7" s="4" t="n">
+        <v>27032069210.2557</v>
+      </c>
+      <c r="AK7" s="4" t="n">
+        <v>26151121890.1863</v>
+      </c>
+      <c r="AL7" s="4" t="n">
+        <v>30777027189.8927</v>
+      </c>
+      <c r="AM7" s="4" t="n">
+        <v>28462941725.96</v>
+      </c>
+      <c r="AN7" s="4" t="n">
+        <v>12888747423.91</v>
+      </c>
+      <c r="AO7" s="4" t="n">
         <v>15396716990.9833</v>
       </c>
       <c r="AP7" s="1" t="n">
@@ -1574,69 +1682,67 @@
       <c r="N8" t="s">
         <v>57</v>
       </c>
-      <c r="O8" s="1"/>
-      <c r="P8" s="1" t="n">
-        <v>12000</v>
-      </c>
-      <c r="Q8" s="1" t="n">
-        <v>4252000</v>
-      </c>
-      <c r="R8" s="1" t="n">
-        <v>3167000</v>
-      </c>
-      <c r="S8" s="1" t="n">
-        <v>2469000</v>
-      </c>
-      <c r="T8" s="1" t="n">
-        <v>13744000</v>
-      </c>
-      <c r="U8" s="1" t="n">
-        <v>5298000</v>
-      </c>
-      <c r="V8" s="1" t="n">
-        <v>7676000</v>
-      </c>
-      <c r="W8" s="1" t="n">
-        <v>13590000</v>
-      </c>
-      <c r="X8" s="1" t="n">
-        <v>3340000</v>
-      </c>
-      <c r="Y8" s="1"/>
-      <c r="Z8" s="1"/>
-      <c r="AA8" s="1"/>
-      <c r="AB8" s="1"/>
-      <c r="AC8" s="1"/>
-      <c r="AD8" s="1"/>
-      <c r="AE8" s="1"/>
-      <c r="AF8" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG8" s="1" t="n">
-        <v>149346114</v>
-      </c>
-      <c r="AH8" s="1" t="n">
-        <v>81267222</v>
-      </c>
-      <c r="AI8" s="1" t="n">
-        <v>55806113</v>
-      </c>
-      <c r="AJ8" s="1" t="n">
+      <c r="O8" s="4" t="n">
         <v>102867217.9786</v>
       </c>
-      <c r="AK8" s="1" t="n">
+      <c r="P8" s="4" t="n">
         <v>143679931.0937</v>
       </c>
-      <c r="AL8" s="1" t="n">
+      <c r="Q8" s="4" t="n">
         <v>85519444.22</v>
       </c>
-      <c r="AM8" s="1" t="n">
+      <c r="R8" s="4" t="n">
         <v>16797444</v>
       </c>
-      <c r="AN8" s="1" t="n">
+      <c r="S8" s="4" t="n">
         <v>54540079.0787</v>
       </c>
-      <c r="AO8" s="1" t="n">
+      <c r="T8" s="4" t="n">
+        <v>5541556.6483</v>
+      </c>
+      <c r="U8" s="4" t="n">
+        <v>1754920.6797</v>
+      </c>
+      <c r="V8" s="4" t="n">
+        <v>2179498.8436</v>
+      </c>
+      <c r="W8" s="4" t="n">
+        <v>-12287.3602</v>
+      </c>
+      <c r="X8" s="4" t="n">
+        <v>-1643.61</v>
+      </c>
+      <c r="Y8" s="4" t="n">
+        <v>25506.8008</v>
+      </c>
+      <c r="Z8" s="4"/>
+      <c r="AA8" s="4"/>
+      <c r="AB8" s="4" t="n">
+        <v>23174.96</v>
+      </c>
+      <c r="AC8" s="4" t="n">
+        <v>46522.8</v>
+      </c>
+      <c r="AD8" s="4"/>
+      <c r="AE8" s="4"/>
+      <c r="AF8" s="4" t="n">
+        <v>8223.7002</v>
+      </c>
+      <c r="AG8" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH8" s="4"/>
+      <c r="AI8" s="4" t="n">
+        <v>1986.54</v>
+      </c>
+      <c r="AJ8" s="4"/>
+      <c r="AK8" s="4" t="n">
+        <v>850</v>
+      </c>
+      <c r="AL8" s="4"/>
+      <c r="AM8" s="4"/>
+      <c r="AN8" s="4"/>
+      <c r="AO8" s="4" t="n">
         <v>5541556.6483</v>
       </c>
       <c r="AP8" s="1" t="n">
@@ -1692,63 +1798,51 @@
       </c>
       <c r="M9"/>
       <c r="N9"/>
-      <c r="O9" s="1"/>
-      <c r="P9" s="1"/>
-      <c r="Q9" s="1"/>
-      <c r="R9" s="1"/>
-      <c r="S9" s="1"/>
-      <c r="T9" s="1"/>
-      <c r="U9" s="1"/>
-      <c r="V9" s="1"/>
-      <c r="W9" s="1"/>
-      <c r="X9" s="1" t="n">
-        <v>301670</v>
-      </c>
-      <c r="Y9" s="1" t="n">
-        <v>82809971</v>
-      </c>
-      <c r="Z9" s="1" t="n">
-        <v>30980247148</v>
-      </c>
-      <c r="AA9" s="1" t="n">
-        <v>30513099255</v>
-      </c>
-      <c r="AB9" s="1" t="n">
-        <v>30337971567</v>
-      </c>
-      <c r="AC9" s="1" t="n">
-        <v>29918044865</v>
-      </c>
-      <c r="AD9" s="1" t="n">
-        <v>30546960405</v>
-      </c>
-      <c r="AE9" s="1" t="n">
-        <v>26815505318</v>
-      </c>
-      <c r="AF9" s="1" t="n">
-        <v>28856006190</v>
-      </c>
-      <c r="AG9" s="1" t="n">
-        <v>24930833919</v>
-      </c>
-      <c r="AH9" s="1" t="n">
-        <v>26529770069</v>
-      </c>
-      <c r="AI9" s="1" t="n">
-        <v>27539206570</v>
-      </c>
-      <c r="AJ9" s="1"/>
-      <c r="AK9" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL9" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM9" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN9" s="1"/>
-      <c r="AO9" s="1"/>
+      <c r="O9" s="4"/>
+      <c r="P9" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="R9" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="S9" s="4"/>
+      <c r="T9" s="4"/>
+      <c r="U9" s="4"/>
+      <c r="V9" s="4"/>
+      <c r="W9" s="4"/>
+      <c r="X9" s="4"/>
+      <c r="Y9" s="4"/>
+      <c r="Z9" s="4"/>
+      <c r="AA9" s="4"/>
+      <c r="AB9" s="4"/>
+      <c r="AC9" s="4"/>
+      <c r="AD9" s="4"/>
+      <c r="AE9" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF9" s="4"/>
+      <c r="AG9" s="4"/>
+      <c r="AH9" s="4"/>
+      <c r="AI9" s="4"/>
+      <c r="AJ9" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK9" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL9" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM9" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN9" s="4" t="n">
+        <v>-8156.26</v>
+      </c>
+      <c r="AO9" s="4"/>
       <c r="AP9" s="1"/>
       <c r="AQ9" s="1"/>
       <c r="AR9" s="1"/>
@@ -1796,85 +1890,85 @@
       <c r="N10" t="s">
         <v>59</v>
       </c>
-      <c r="O10" s="1" t="str">
+      <c r="O10" s="4" t="str">
         <f>Sum(O2:O9)</f>
       </c>
-      <c r="P10" s="1" t="str">
+      <c r="P10" s="4" t="str">
         <f>Sum(P2:P9)</f>
       </c>
-      <c r="Q10" s="1" t="str">
+      <c r="Q10" s="4" t="str">
         <f>Sum(Q2:Q9)</f>
       </c>
-      <c r="R10" s="1" t="str">
+      <c r="R10" s="4" t="str">
         <f>Sum(R2:R9)</f>
       </c>
-      <c r="S10" s="1" t="str">
+      <c r="S10" s="4" t="str">
         <f>Sum(S2:S9)</f>
       </c>
-      <c r="T10" s="1" t="str">
+      <c r="T10" s="4" t="str">
         <f>Sum(T2:T9)</f>
       </c>
-      <c r="U10" s="1" t="str">
+      <c r="U10" s="4" t="str">
         <f>Sum(U2:U9)</f>
       </c>
-      <c r="V10" s="1" t="str">
+      <c r="V10" s="4" t="str">
         <f>Sum(V2:V9)</f>
       </c>
-      <c r="W10" s="1" t="str">
+      <c r="W10" s="4" t="str">
         <f>Sum(W2:W9)</f>
       </c>
-      <c r="X10" s="1" t="str">
+      <c r="X10" s="4" t="str">
         <f>Sum(X2:X9)</f>
       </c>
-      <c r="Y10" s="1" t="str">
+      <c r="Y10" s="4" t="str">
         <f>Sum(Y2:Y9)</f>
       </c>
-      <c r="Z10" s="1" t="str">
+      <c r="Z10" s="4" t="str">
         <f>Sum(Z2:Z9)</f>
       </c>
-      <c r="AA10" s="1" t="str">
+      <c r="AA10" s="4" t="str">
         <f>Sum(AA2:AA9)</f>
       </c>
-      <c r="AB10" s="1" t="str">
+      <c r="AB10" s="4" t="str">
         <f>Sum(AB2:AB9)</f>
       </c>
-      <c r="AC10" s="1" t="str">
+      <c r="AC10" s="4" t="str">
         <f>Sum(AC2:AC9)</f>
       </c>
-      <c r="AD10" s="1" t="str">
+      <c r="AD10" s="4" t="str">
         <f>Sum(AD2:AD9)</f>
       </c>
-      <c r="AE10" s="1" t="str">
+      <c r="AE10" s="4" t="str">
         <f>Sum(AE2:AE9)</f>
       </c>
-      <c r="AF10" s="1" t="str">
+      <c r="AF10" s="4" t="str">
         <f>Sum(AF2:AF9)</f>
       </c>
-      <c r="AG10" s="1" t="str">
+      <c r="AG10" s="4" t="str">
         <f>Sum(AG2:AG9)</f>
       </c>
-      <c r="AH10" s="1" t="str">
+      <c r="AH10" s="4" t="str">
         <f>Sum(AH2:AH9)</f>
       </c>
-      <c r="AI10" s="1" t="str">
+      <c r="AI10" s="4" t="str">
         <f>Sum(AI2:AI9)</f>
       </c>
-      <c r="AJ10" s="1" t="str">
+      <c r="AJ10" s="4" t="str">
         <f>Sum(AJ2:AJ9)</f>
       </c>
-      <c r="AK10" s="1" t="str">
+      <c r="AK10" s="4" t="str">
         <f>Sum(AK2:AK9)</f>
       </c>
-      <c r="AL10" s="1" t="str">
+      <c r="AL10" s="4" t="str">
         <f>Sum(AL2:AL9)</f>
       </c>
-      <c r="AM10" s="1" t="str">
+      <c r="AM10" s="4" t="str">
         <f>Sum(AM2:AM9)</f>
       </c>
-      <c r="AN10" s="1" t="str">
+      <c r="AN10" s="4" t="str">
         <f>Sum(AN2:AN9)</f>
       </c>
-      <c r="AO10" s="1" t="str">
+      <c r="AO10" s="4" t="str">
         <f>Sum(AO2:AO9)</f>
       </c>
       <c r="AP10" s="1" t="str">
@@ -1953,82 +2047,82 @@
         <v>1</v>
       </c>
       <c r="O13" t="s">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="P13" t="s">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="Q13" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="R13" t="s">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="S13" t="s">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="T13" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="U13" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="V13" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="W13" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="X13" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="Y13" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="Z13" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="AA13" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="AB13" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="AC13" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="AD13" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="AE13" t="s">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="AF13" t="s">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="AG13" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="AH13" t="s">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="AI13" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="AJ13" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="AK13" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="AL13" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="AM13" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="AN13" t="s">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="AO13" t="s">
         <v>28</v>
@@ -2107,81 +2201,85 @@
       <c r="N14" t="s">
         <v>50</v>
       </c>
-      <c r="O14" s="1"/>
-      <c r="P14" s="1"/>
-      <c r="Q14" s="1" t="n">
-        <v>221474.787957306</v>
-      </c>
-      <c r="R14" s="1" t="n">
-        <v>84983740.8891782</v>
-      </c>
-      <c r="S14" s="1" t="n">
-        <v>172851303.538425</v>
-      </c>
-      <c r="T14" s="1" t="n">
-        <v>113179065.030321</v>
-      </c>
-      <c r="U14" s="1" t="n">
-        <v>374570266.839315</v>
-      </c>
-      <c r="V14" s="1" t="n">
-        <v>129097559.419997</v>
-      </c>
-      <c r="W14" s="1" t="n">
-        <v>1572667347.53832</v>
-      </c>
-      <c r="X14" s="1" t="n">
-        <v>2793734656.55042</v>
-      </c>
-      <c r="Y14" s="1" t="n">
-        <v>4029549183.05564</v>
-      </c>
-      <c r="Z14" s="1" t="n">
-        <v>1728692794.23272</v>
-      </c>
-      <c r="AA14" s="1" t="n">
-        <v>-155757565.84089</v>
-      </c>
-      <c r="AB14" s="1" t="n">
-        <v>1321496390.24438</v>
-      </c>
-      <c r="AC14" s="1" t="n">
-        <v>1545547437.74299</v>
-      </c>
-      <c r="AD14" s="1" t="n">
-        <v>1424122679.48199</v>
-      </c>
-      <c r="AE14" s="1" t="n">
-        <v>1523749903.28296</v>
-      </c>
-      <c r="AF14" s="1" t="n">
-        <v>2185876586.94357</v>
-      </c>
-      <c r="AG14" s="1" t="n">
-        <v>7083370961.90782</v>
-      </c>
-      <c r="AH14" s="1" t="n">
-        <v>7310886479.3772</v>
-      </c>
-      <c r="AI14" s="1" t="n">
-        <v>7946175182.21929</v>
-      </c>
-      <c r="AJ14" s="1" t="n">
+      <c r="O14" s="4" t="n">
         <v>41323973651.4872</v>
       </c>
-      <c r="AK14" s="1" t="n">
+      <c r="P14" s="4" t="n">
         <v>39567787485.6994</v>
       </c>
-      <c r="AL14" s="1" t="n">
+      <c r="Q14" s="4" t="n">
         <v>42187925739.664</v>
       </c>
-      <c r="AM14" s="1" t="n">
+      <c r="R14" s="4" t="n">
         <v>52200288454.4857</v>
       </c>
-      <c r="AN14" s="1" t="n">
+      <c r="S14" s="4" t="n">
         <v>48428768347.4716</v>
       </c>
-      <c r="AO14" s="1" t="n">
+      <c r="T14" s="4" t="n">
+        <v>44454230994.1471</v>
+      </c>
+      <c r="U14" s="4" t="n">
+        <v>50498507385.1404</v>
+      </c>
+      <c r="V14" s="4" t="n">
+        <v>54992999384.2077</v>
+      </c>
+      <c r="W14" s="4" t="n">
+        <v>60307389102.2068</v>
+      </c>
+      <c r="X14" s="4" t="n">
+        <v>55904898059.2689</v>
+      </c>
+      <c r="Y14" s="4" t="n">
+        <v>50463393959.7935</v>
+      </c>
+      <c r="Z14" s="4" t="n">
+        <v>59861318272.0798</v>
+      </c>
+      <c r="AA14" s="4" t="n">
+        <v>64766859473.5786</v>
+      </c>
+      <c r="AB14" s="4" t="n">
+        <v>64369137504.9676</v>
+      </c>
+      <c r="AC14" s="4" t="n">
+        <v>45573955454.0491</v>
+      </c>
+      <c r="AD14" s="4" t="n">
+        <v>49475316778.0572</v>
+      </c>
+      <c r="AE14" s="4" t="n">
+        <v>63950695212.071</v>
+      </c>
+      <c r="AF14" s="4" t="n">
+        <v>70618796065.6052</v>
+      </c>
+      <c r="AG14" s="4" t="n">
+        <v>58533053362.5243</v>
+      </c>
+      <c r="AH14" s="4" t="n">
+        <v>62147279910.4369</v>
+      </c>
+      <c r="AI14" s="4" t="n">
+        <v>72950837282.9099</v>
+      </c>
+      <c r="AJ14" s="4" t="n">
+        <v>40019039088.3782</v>
+      </c>
+      <c r="AK14" s="4" t="n">
+        <v>39878667245.9308</v>
+      </c>
+      <c r="AL14" s="4" t="n">
+        <v>55594750528.27</v>
+      </c>
+      <c r="AM14" s="4" t="n">
+        <v>31430745444.391</v>
+      </c>
+      <c r="AN14" s="4" t="n">
+        <v>22944113201.5268</v>
+      </c>
+      <c r="AO14" s="4" t="n">
         <v>44454230994.1471</v>
       </c>
       <c r="AP14" s="1" t="n">
@@ -2259,71 +2357,85 @@
       <c r="N15" t="s">
         <v>51</v>
       </c>
-      <c r="O15" s="1" t="n">
-        <v>145563.753356298</v>
-      </c>
-      <c r="P15" s="1"/>
-      <c r="Q15" s="1"/>
-      <c r="R15" s="1"/>
-      <c r="S15" s="1"/>
-      <c r="T15" s="1"/>
-      <c r="U15" s="1"/>
-      <c r="V15" s="1" t="n">
-        <v>18834.3298141694</v>
-      </c>
-      <c r="W15" s="1"/>
-      <c r="X15" s="1" t="n">
-        <v>303334.91671186</v>
-      </c>
-      <c r="Y15" s="1" t="n">
-        <v>2666931.50754345</v>
-      </c>
-      <c r="Z15" s="1" t="n">
-        <v>779742.290333265</v>
-      </c>
-      <c r="AA15" s="1" t="n">
-        <v>3171064.28917093</v>
-      </c>
-      <c r="AB15" s="1" t="n">
-        <v>757823.651568628</v>
-      </c>
-      <c r="AC15" s="1" t="n">
-        <v>-504421.487514031</v>
-      </c>
-      <c r="AD15" s="1" t="n">
-        <v>745124.370888234</v>
-      </c>
-      <c r="AE15" s="1" t="n">
-        <v>63844.1423080606</v>
-      </c>
-      <c r="AF15" s="1" t="n">
-        <v>2021370.34263695</v>
-      </c>
-      <c r="AG15" s="1" t="n">
-        <v>46998468.1965385</v>
-      </c>
-      <c r="AH15" s="1" t="n">
-        <v>280169509.744901</v>
-      </c>
-      <c r="AI15" s="1" t="n">
-        <v>339159071.594719</v>
-      </c>
-      <c r="AJ15" s="1" t="n">
+      <c r="O15" s="4" t="n">
         <v>967068175.311544</v>
       </c>
-      <c r="AK15" s="1" t="n">
+      <c r="P15" s="4" t="n">
         <v>1098202532.69398</v>
       </c>
-      <c r="AL15" s="1" t="n">
+      <c r="Q15" s="4" t="n">
         <v>1109974745.10026</v>
       </c>
-      <c r="AM15" s="1" t="n">
+      <c r="R15" s="4" t="n">
         <v>1325340662.84486</v>
       </c>
-      <c r="AN15" s="1" t="n">
+      <c r="S15" s="4" t="n">
         <v>929709084.856146</v>
       </c>
-      <c r="AO15" s="1" t="n">
+      <c r="T15" s="4" t="n">
+        <v>1201644234.98612</v>
+      </c>
+      <c r="U15" s="4" t="n">
+        <v>1292895138.14582</v>
+      </c>
+      <c r="V15" s="4" t="n">
+        <v>1373921411.24054</v>
+      </c>
+      <c r="W15" s="4" t="n">
+        <v>1641818143.09058</v>
+      </c>
+      <c r="X15" s="4" t="n">
+        <v>1350120560.37393</v>
+      </c>
+      <c r="Y15" s="4" t="n">
+        <v>1396481831.4792</v>
+      </c>
+      <c r="Z15" s="4" t="n">
+        <v>1466778800.2895</v>
+      </c>
+      <c r="AA15" s="4" t="n">
+        <v>1293098645.83112</v>
+      </c>
+      <c r="AB15" s="4" t="n">
+        <v>1546888031.87515</v>
+      </c>
+      <c r="AC15" s="4" t="n">
+        <v>1495181279.00056</v>
+      </c>
+      <c r="AD15" s="4" t="n">
+        <v>1503359792.78335</v>
+      </c>
+      <c r="AE15" s="4" t="n">
+        <v>1557815046.25598</v>
+      </c>
+      <c r="AF15" s="4" t="n">
+        <v>1597891648.74513</v>
+      </c>
+      <c r="AG15" s="4" t="n">
+        <v>1999580557.34148</v>
+      </c>
+      <c r="AH15" s="4" t="n">
+        <v>2048360853.44286</v>
+      </c>
+      <c r="AI15" s="4" t="n">
+        <v>1404995617.20437</v>
+      </c>
+      <c r="AJ15" s="4" t="n">
+        <v>1254881146.32632</v>
+      </c>
+      <c r="AK15" s="4" t="n">
+        <v>1213588753.03846</v>
+      </c>
+      <c r="AL15" s="4" t="n">
+        <v>679414620.99</v>
+      </c>
+      <c r="AM15" s="4" t="n">
+        <v>814298405.523666</v>
+      </c>
+      <c r="AN15" s="4" t="n">
+        <v>403975196.55972</v>
+      </c>
+      <c r="AO15" s="4" t="n">
         <v>1201644234.98612</v>
       </c>
       <c r="AP15" s="1" t="n">
@@ -2401,79 +2513,85 @@
       <c r="N16" t="s">
         <v>53</v>
       </c>
-      <c r="O16" s="1"/>
-      <c r="P16" s="1" t="n">
-        <v>145283.829030862</v>
-      </c>
-      <c r="Q16" s="1" t="n">
-        <v>463083.647547093</v>
-      </c>
-      <c r="R16" s="1" t="n">
-        <v>774535.360002637</v>
-      </c>
-      <c r="S16" s="1" t="n">
-        <v>5483744.14784578</v>
-      </c>
-      <c r="T16" s="1" t="n">
-        <v>393051.966651809</v>
-      </c>
-      <c r="U16" s="1" t="n">
-        <v>753459.081898843</v>
-      </c>
-      <c r="V16" s="1" t="n">
-        <v>162446.094647211</v>
-      </c>
-      <c r="W16" s="1" t="n">
-        <v>9600260.88760775</v>
-      </c>
-      <c r="X16" s="1" t="n">
-        <v>12365358.663607</v>
-      </c>
-      <c r="Y16" s="1" t="n">
-        <v>14290808.2228976</v>
-      </c>
-      <c r="Z16" s="1" t="n">
-        <v>12105654.1785692</v>
-      </c>
-      <c r="AA16" s="1" t="n">
-        <v>18601047.7667678</v>
-      </c>
-      <c r="AB16" s="1" t="n">
-        <v>24452962.6593558</v>
-      </c>
-      <c r="AC16" s="1" t="n">
-        <v>6273861.21828772</v>
-      </c>
-      <c r="AD16" s="1"/>
-      <c r="AE16" s="1"/>
-      <c r="AF16" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG16" s="1" t="n">
-        <v>87686446.9060106</v>
-      </c>
-      <c r="AH16" s="1" t="n">
-        <v>111741747.039885</v>
-      </c>
-      <c r="AI16" s="1" t="n">
-        <v>23848470.7695774</v>
-      </c>
-      <c r="AJ16" s="1" t="n">
+      <c r="O16" s="4" t="n">
         <v>26813108.3906972</v>
       </c>
-      <c r="AK16" s="1" t="n">
+      <c r="P16" s="4" t="n">
         <v>5873219.87405304</v>
       </c>
-      <c r="AL16" s="1" t="n">
+      <c r="Q16" s="4" t="n">
         <v>34398683.3898882</v>
       </c>
-      <c r="AM16" s="1" t="n">
+      <c r="R16" s="4" t="n">
         <v>43864164.4255786</v>
       </c>
-      <c r="AN16" s="1" t="n">
+      <c r="S16" s="4" t="n">
         <v>600882.696574249</v>
       </c>
-      <c r="AO16" s="1" t="n">
+      <c r="T16" s="4" t="n">
+        <v>8046364.24876323</v>
+      </c>
+      <c r="U16" s="4" t="n">
+        <v>7752009.01659559</v>
+      </c>
+      <c r="V16" s="4" t="n">
+        <v>3429964.13129778</v>
+      </c>
+      <c r="W16" s="4" t="n">
+        <v>60040020.2575172</v>
+      </c>
+      <c r="X16" s="4" t="n">
+        <v>40026719.0742517</v>
+      </c>
+      <c r="Y16" s="4" t="n">
+        <v>225245696.146174</v>
+      </c>
+      <c r="Z16" s="4" t="n">
+        <v>1931427437.63762</v>
+      </c>
+      <c r="AA16" s="4" t="n">
+        <v>4588868851.52299</v>
+      </c>
+      <c r="AB16" s="4" t="n">
+        <v>6101420339.44821</v>
+      </c>
+      <c r="AC16" s="4" t="n">
+        <v>5785057453.92523</v>
+      </c>
+      <c r="AD16" s="4" t="n">
+        <v>6921403517.99096</v>
+      </c>
+      <c r="AE16" s="4" t="n">
+        <v>6972758970.40445</v>
+      </c>
+      <c r="AF16" s="4" t="n">
+        <v>8828928722.13656</v>
+      </c>
+      <c r="AG16" s="4" t="n">
+        <v>11411072528.7232</v>
+      </c>
+      <c r="AH16" s="4" t="n">
+        <v>10042547923.6234</v>
+      </c>
+      <c r="AI16" s="4" t="n">
+        <v>8128310900.5723</v>
+      </c>
+      <c r="AJ16" s="4" t="n">
+        <v>9278993824.8279</v>
+      </c>
+      <c r="AK16" s="4" t="n">
+        <v>9650870166.20285</v>
+      </c>
+      <c r="AL16" s="4" t="n">
+        <v>9276520909.1715</v>
+      </c>
+      <c r="AM16" s="4" t="n">
+        <v>8680909428.16241</v>
+      </c>
+      <c r="AN16" s="4" t="n">
+        <v>3294644096.93774</v>
+      </c>
+      <c r="AO16" s="4" t="n">
         <v>8046364.24876323</v>
       </c>
       <c r="AP16" s="1" t="n">
@@ -2551,59 +2669,85 @@
       <c r="N17" t="s">
         <v>54</v>
       </c>
-      <c r="O17" s="1"/>
-      <c r="P17" s="1"/>
-      <c r="Q17" s="1"/>
-      <c r="R17" s="1"/>
-      <c r="S17" s="1" t="n">
-        <v>154616.846273847</v>
-      </c>
-      <c r="T17" s="1"/>
-      <c r="U17" s="1"/>
-      <c r="V17" s="1" t="n">
-        <v>96525.9402976182</v>
-      </c>
-      <c r="W17" s="1" t="n">
-        <v>80597.0571039269</v>
-      </c>
-      <c r="X17" s="1"/>
-      <c r="Y17" s="1"/>
-      <c r="Z17" s="1"/>
-      <c r="AA17" s="1"/>
-      <c r="AB17" s="1"/>
-      <c r="AC17" s="1"/>
-      <c r="AD17" s="1"/>
-      <c r="AE17" s="1" t="n">
-        <v>56547.6689014251</v>
-      </c>
-      <c r="AF17" s="1" t="n">
-        <v>141442.211752276</v>
-      </c>
-      <c r="AG17" s="1" t="n">
-        <v>5198463.27609193</v>
-      </c>
-      <c r="AH17" s="1" t="n">
-        <v>46841951.0210091</v>
-      </c>
-      <c r="AI17" s="1" t="n">
-        <v>54863161.0231221</v>
-      </c>
-      <c r="AJ17" s="1" t="n">
+      <c r="O17" s="4" t="n">
         <v>207749581.247868</v>
       </c>
-      <c r="AK17" s="1" t="n">
+      <c r="P17" s="4" t="n">
         <v>126971375.660125</v>
       </c>
-      <c r="AL17" s="1" t="n">
+      <c r="Q17" s="4" t="n">
         <v>231145754.821671</v>
       </c>
-      <c r="AM17" s="1" t="n">
+      <c r="R17" s="4" t="n">
         <v>319538974.642443</v>
       </c>
-      <c r="AN17" s="1" t="n">
+      <c r="S17" s="4" t="n">
         <v>373338398.088778</v>
       </c>
-      <c r="AO17" s="1" t="n">
+      <c r="T17" s="4" t="n">
+        <v>374716669.465099</v>
+      </c>
+      <c r="U17" s="4" t="n">
+        <v>223712081.301791</v>
+      </c>
+      <c r="V17" s="4" t="n">
+        <v>300094651.846279</v>
+      </c>
+      <c r="W17" s="4" t="n">
+        <v>361504076.897354</v>
+      </c>
+      <c r="X17" s="4" t="n">
+        <v>259616684.162657</v>
+      </c>
+      <c r="Y17" s="4" t="n">
+        <v>296497042.865685</v>
+      </c>
+      <c r="Z17" s="4" t="n">
+        <v>358577595.923902</v>
+      </c>
+      <c r="AA17" s="4" t="n">
+        <v>296710288.870477</v>
+      </c>
+      <c r="AB17" s="4" t="n">
+        <v>212982651.141541</v>
+      </c>
+      <c r="AC17" s="4" t="n">
+        <v>171029983.696462</v>
+      </c>
+      <c r="AD17" s="4" t="n">
+        <v>145833930.419294</v>
+      </c>
+      <c r="AE17" s="4" t="n">
+        <v>200133519.22341</v>
+      </c>
+      <c r="AF17" s="4" t="n">
+        <v>137101675.580061</v>
+      </c>
+      <c r="AG17" s="4" t="n">
+        <v>169696861.015211</v>
+      </c>
+      <c r="AH17" s="4" t="n">
+        <v>240401980.847396</v>
+      </c>
+      <c r="AI17" s="4" t="n">
+        <v>195236055.481987</v>
+      </c>
+      <c r="AJ17" s="4" t="n">
+        <v>187152143.344557</v>
+      </c>
+      <c r="AK17" s="4" t="n">
+        <v>129670668.490102</v>
+      </c>
+      <c r="AL17" s="4" t="n">
+        <v>84002534.7091</v>
+      </c>
+      <c r="AM17" s="4" t="n">
+        <v>142002676.222825</v>
+      </c>
+      <c r="AN17" s="4" t="n">
+        <v>23898093.6003672</v>
+      </c>
+      <c r="AO17" s="4" t="n">
         <v>374716669.465099</v>
       </c>
       <c r="AP17" s="1" t="n">
@@ -2681,49 +2825,85 @@
       <c r="N18" t="s">
         <v>55</v>
       </c>
-      <c r="O18" s="1"/>
-      <c r="P18" s="1"/>
-      <c r="Q18" s="1"/>
-      <c r="R18" s="1"/>
-      <c r="S18" s="1"/>
-      <c r="T18" s="1"/>
-      <c r="U18" s="1"/>
-      <c r="V18" s="1"/>
-      <c r="W18" s="1"/>
-      <c r="X18" s="1"/>
-      <c r="Y18" s="1"/>
-      <c r="Z18" s="1"/>
-      <c r="AA18" s="1"/>
-      <c r="AB18" s="1"/>
-      <c r="AC18" s="1"/>
-      <c r="AD18" s="1"/>
-      <c r="AE18" s="1"/>
-      <c r="AF18" s="1"/>
-      <c r="AG18" s="1" t="n">
-        <v>103357705.200809</v>
-      </c>
-      <c r="AH18" s="1" t="n">
-        <v>581844188.354233</v>
-      </c>
-      <c r="AI18" s="1" t="n">
-        <v>518035233.548209</v>
-      </c>
-      <c r="AJ18" s="1" t="n">
+      <c r="O18" s="4" t="n">
         <v>1826065962.32081</v>
       </c>
-      <c r="AK18" s="1" t="n">
+      <c r="P18" s="4" t="n">
         <v>1476748806.95738</v>
       </c>
-      <c r="AL18" s="1" t="n">
+      <c r="Q18" s="4" t="n">
         <v>1550346044.75602</v>
       </c>
-      <c r="AM18" s="1" t="n">
+      <c r="R18" s="4" t="n">
         <v>2597169188.6354</v>
       </c>
-      <c r="AN18" s="1" t="n">
+      <c r="S18" s="4" t="n">
         <v>2596868151.07615</v>
       </c>
-      <c r="AO18" s="1" t="n">
+      <c r="T18" s="4" t="n">
+        <v>2767641670.85523</v>
+      </c>
+      <c r="U18" s="4" t="n">
+        <v>3689371514.35873</v>
+      </c>
+      <c r="V18" s="4" t="n">
+        <v>3650768461.20846</v>
+      </c>
+      <c r="W18" s="4" t="n">
+        <v>3294076075.26215</v>
+      </c>
+      <c r="X18" s="4" t="n">
+        <v>3859868947.87378</v>
+      </c>
+      <c r="Y18" s="4" t="n">
+        <v>3778274422.4686</v>
+      </c>
+      <c r="Z18" s="4" t="n">
+        <v>3269751918.71836</v>
+      </c>
+      <c r="AA18" s="4" t="n">
+        <v>2600699929.388</v>
+      </c>
+      <c r="AB18" s="4" t="n">
+        <v>2113651059.77182</v>
+      </c>
+      <c r="AC18" s="4" t="n">
+        <v>2059884551.69524</v>
+      </c>
+      <c r="AD18" s="4" t="n">
+        <v>2095180912.26795</v>
+      </c>
+      <c r="AE18" s="4" t="n">
+        <v>2544268888.33053</v>
+      </c>
+      <c r="AF18" s="4" t="n">
+        <v>2468727230.80017</v>
+      </c>
+      <c r="AG18" s="4" t="n">
+        <v>2244082419.61665</v>
+      </c>
+      <c r="AH18" s="4" t="n">
+        <v>2623258243.47768</v>
+      </c>
+      <c r="AI18" s="4" t="n">
+        <v>2879887896.91054</v>
+      </c>
+      <c r="AJ18" s="4" t="n">
+        <v>2654935301.59013</v>
+      </c>
+      <c r="AK18" s="4" t="n">
+        <v>2660131597.38531</v>
+      </c>
+      <c r="AL18" s="4" t="n">
+        <v>2900505982.4097</v>
+      </c>
+      <c r="AM18" s="4" t="n">
+        <v>3145620803.73296</v>
+      </c>
+      <c r="AN18" s="4" t="n">
+        <v>1359699835.50267</v>
+      </c>
+      <c r="AO18" s="4" t="n">
         <v>2767641670.85523</v>
       </c>
       <c r="AP18" s="1" t="n">
@@ -2801,65 +2981,85 @@
       <c r="N19" t="s">
         <v>56</v>
       </c>
-      <c r="O19" s="1"/>
-      <c r="P19" s="1"/>
-      <c r="Q19" s="1"/>
-      <c r="R19" s="1"/>
-      <c r="S19" s="1"/>
-      <c r="T19" s="1"/>
-      <c r="U19" s="1"/>
-      <c r="V19" s="1"/>
-      <c r="W19" s="1"/>
-      <c r="X19" s="1"/>
-      <c r="Y19" s="1" t="n">
-        <v>276554.794592528</v>
-      </c>
-      <c r="Z19" s="1" t="n">
-        <v>23652872.2340881</v>
-      </c>
-      <c r="AA19" s="1" t="n">
-        <v>1481693.76735821</v>
-      </c>
-      <c r="AB19" s="1" t="n">
-        <v>3810547.71842735</v>
-      </c>
-      <c r="AC19" s="1" t="n">
-        <v>11443705.5959787</v>
-      </c>
-      <c r="AD19" s="1" t="n">
-        <v>1961539.90636328</v>
-      </c>
-      <c r="AE19" s="1" t="n">
-        <v>2644971.60990537</v>
-      </c>
-      <c r="AF19" s="1" t="n">
-        <v>20961679.4017474</v>
-      </c>
-      <c r="AG19" s="1" t="n">
-        <v>1869319543.83889</v>
-      </c>
-      <c r="AH19" s="1" t="n">
-        <v>3121601820.12382</v>
-      </c>
-      <c r="AI19" s="1" t="n">
-        <v>5586582889.48054</v>
-      </c>
-      <c r="AJ19" s="1" t="n">
+      <c r="O19" s="4" t="n">
         <v>15684016318.5316</v>
       </c>
-      <c r="AK19" s="1" t="n">
+      <c r="P19" s="4" t="n">
         <v>17655391737.0195</v>
       </c>
-      <c r="AL19" s="1" t="n">
+      <c r="Q19" s="4" t="n">
         <v>18479684439.8471</v>
       </c>
-      <c r="AM19" s="1" t="n">
+      <c r="R19" s="4" t="n">
         <v>22376077087.8133</v>
       </c>
-      <c r="AN19" s="1" t="n">
+      <c r="S19" s="4" t="n">
         <v>22450736123.7216</v>
       </c>
-      <c r="AO19" s="1" t="n">
+      <c r="T19" s="4" t="n">
+        <v>23126334983.4507</v>
+      </c>
+      <c r="U19" s="4" t="n">
+        <v>24205492736.0404</v>
+      </c>
+      <c r="V19" s="4" t="n">
+        <v>26727503709.2742</v>
+      </c>
+      <c r="W19" s="4" t="n">
+        <v>28758613908.2458</v>
+      </c>
+      <c r="X19" s="4" t="n">
+        <v>30946978405.4201</v>
+      </c>
+      <c r="Y19" s="4" t="n">
+        <v>33196936107.6344</v>
+      </c>
+      <c r="Z19" s="4" t="n">
+        <v>29535082303.1878</v>
+      </c>
+      <c r="AA19" s="4" t="n">
+        <v>31020979567.106</v>
+      </c>
+      <c r="AB19" s="4" t="n">
+        <v>22049516464.803</v>
+      </c>
+      <c r="AC19" s="4" t="n">
+        <v>19668604612.5615</v>
+      </c>
+      <c r="AD19" s="4" t="n">
+        <v>18682153735.3473</v>
+      </c>
+      <c r="AE19" s="4" t="n">
+        <v>19885088360.3754</v>
+      </c>
+      <c r="AF19" s="4" t="n">
+        <v>23297735817.2783</v>
+      </c>
+      <c r="AG19" s="4" t="n">
+        <v>27925487138.3422</v>
+      </c>
+      <c r="AH19" s="4" t="n">
+        <v>30337382815.0468</v>
+      </c>
+      <c r="AI19" s="4" t="n">
+        <v>38427209482.5666</v>
+      </c>
+      <c r="AJ19" s="4" t="n">
+        <v>30245689170.404</v>
+      </c>
+      <c r="AK19" s="4" t="n">
+        <v>27347446664.7342</v>
+      </c>
+      <c r="AL19" s="4" t="n">
+        <v>30777027189.8927</v>
+      </c>
+      <c r="AM19" s="4" t="n">
+        <v>27722582763.3529</v>
+      </c>
+      <c r="AN19" s="4" t="n">
+        <v>12283958448.59</v>
+      </c>
+      <c r="AO19" s="4" t="n">
         <v>23126334983.4507</v>
       </c>
       <c r="AP19" s="1" t="n">
@@ -2937,69 +3137,67 @@
       <c r="N20" t="s">
         <v>57</v>
       </c>
-      <c r="O20" s="1"/>
-      <c r="P20" s="1" t="n">
-        <v>37900.1293123987</v>
-      </c>
-      <c r="Q20" s="1" t="n">
-        <v>12230010.3687593</v>
-      </c>
-      <c r="R20" s="1" t="n">
-        <v>8517199.60114011</v>
-      </c>
-      <c r="S20" s="1" t="n">
-        <v>6362483.22416881</v>
-      </c>
-      <c r="T20" s="1" t="n">
-        <v>34190545.7573574</v>
-      </c>
-      <c r="U20" s="1" t="n">
-        <v>12753438.3894571</v>
-      </c>
-      <c r="V20" s="1" t="n">
-        <v>18071539.4566956</v>
-      </c>
-      <c r="W20" s="1" t="n">
-        <v>31294685.8869247</v>
-      </c>
-      <c r="X20" s="1" t="n">
-        <v>7449548.68983538</v>
-      </c>
-      <c r="Y20" s="1"/>
-      <c r="Z20" s="1"/>
-      <c r="AA20" s="1"/>
-      <c r="AB20" s="1"/>
-      <c r="AC20" s="1"/>
-      <c r="AD20" s="1"/>
-      <c r="AE20" s="1"/>
-      <c r="AF20" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG20" s="1" t="n">
-        <v>262727772.632302</v>
-      </c>
-      <c r="AH20" s="1" t="n">
-        <v>141193990.855623</v>
-      </c>
-      <c r="AI20" s="1" t="n">
-        <v>95771857.3105116</v>
-      </c>
-      <c r="AJ20" s="1" t="n">
+      <c r="O20" s="4" t="n">
         <v>172937629.710576</v>
       </c>
-      <c r="AK20" s="1" t="n">
+      <c r="P20" s="4" t="n">
         <v>235834465.22392</v>
       </c>
-      <c r="AL20" s="1" t="n">
+      <c r="Q20" s="4" t="n">
         <v>138196433.137222</v>
       </c>
-      <c r="AM20" s="1" t="n">
+      <c r="R20" s="4" t="n">
         <v>26632861.2519069</v>
       </c>
-      <c r="AN20" s="1" t="n">
+      <c r="S20" s="4" t="n">
         <v>84413686.489484</v>
       </c>
-      <c r="AO20" s="1" t="n">
+      <c r="T20" s="4" t="n">
+        <v>8323585.83023936</v>
+      </c>
+      <c r="U20" s="4" t="n">
+        <v>2553011.17012511</v>
+      </c>
+      <c r="V20" s="4" t="n">
+        <v>3085727.48668454</v>
+      </c>
+      <c r="W20" s="4" t="n">
+        <v>-17042.5867402221</v>
+      </c>
+      <c r="X20" s="4" t="n">
+        <v>-2256.61312096531</v>
+      </c>
+      <c r="Y20" s="4" t="n">
+        <v>34719.170077105</v>
+      </c>
+      <c r="Z20" s="4"/>
+      <c r="AA20" s="4"/>
+      <c r="AB20" s="4" t="n">
+        <v>29831.9874115</v>
+      </c>
+      <c r="AC20" s="4" t="n">
+        <v>58813.5687252362</v>
+      </c>
+      <c r="AD20" s="4"/>
+      <c r="AE20" s="4"/>
+      <c r="AF20" s="4" t="n">
+        <v>10038.6708360684</v>
+      </c>
+      <c r="AG20" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH20" s="4"/>
+      <c r="AI20" s="4" t="n">
+        <v>2299.20297491268</v>
+      </c>
+      <c r="AJ20" s="4"/>
+      <c r="AK20" s="4" t="n">
+        <v>888.884605510837</v>
+      </c>
+      <c r="AL20" s="4"/>
+      <c r="AM20" s="4"/>
+      <c r="AN20" s="4"/>
+      <c r="AO20" s="4" t="n">
         <v>8323585.83023936</v>
       </c>
       <c r="AP20" s="1" t="n">
@@ -3055,63 +3253,51 @@
       </c>
       <c r="M21"/>
       <c r="N21"/>
-      <c r="O21" s="1"/>
-      <c r="P21" s="1"/>
-      <c r="Q21" s="1"/>
-      <c r="R21" s="1"/>
-      <c r="S21" s="1"/>
-      <c r="T21" s="1"/>
-      <c r="U21" s="1"/>
-      <c r="V21" s="1"/>
-      <c r="W21" s="1"/>
-      <c r="X21" s="1" t="n">
-        <v>672845.914150491</v>
-      </c>
-      <c r="Y21" s="1" t="n">
-        <v>177530965.272234</v>
-      </c>
-      <c r="Z21" s="1" t="n">
-        <v>64075885586.9287</v>
-      </c>
-      <c r="AA21" s="1" t="n">
-        <v>60931359823.3367</v>
-      </c>
-      <c r="AB21" s="1" t="n">
-        <v>59102396899.9721</v>
-      </c>
-      <c r="AC21" s="1" t="n">
-        <v>56948319601.188</v>
-      </c>
-      <c r="AD21" s="1" t="n">
-        <v>56903211635.8085</v>
-      </c>
-      <c r="AE21" s="1" t="n">
-        <v>48914655359.5699</v>
-      </c>
-      <c r="AF21" s="1" t="n">
-        <v>51664016934.8223</v>
-      </c>
-      <c r="AG21" s="1" t="n">
-        <v>43858004001.3944</v>
-      </c>
-      <c r="AH21" s="1" t="n">
-        <v>46092926770.9453</v>
-      </c>
-      <c r="AI21" s="1" t="n">
-        <v>47261506316.8213</v>
-      </c>
-      <c r="AJ21" s="1"/>
-      <c r="AK21" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL21" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM21" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN21" s="1"/>
-      <c r="AO21" s="1"/>
+      <c r="O21" s="4"/>
+      <c r="P21" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="R21" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="S21" s="4"/>
+      <c r="T21" s="4"/>
+      <c r="U21" s="4"/>
+      <c r="V21" s="4"/>
+      <c r="W21" s="4"/>
+      <c r="X21" s="4"/>
+      <c r="Y21" s="4"/>
+      <c r="Z21" s="4"/>
+      <c r="AA21" s="4"/>
+      <c r="AB21" s="4"/>
+      <c r="AC21" s="4"/>
+      <c r="AD21" s="4"/>
+      <c r="AE21" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF21" s="4"/>
+      <c r="AG21" s="4"/>
+      <c r="AH21" s="4"/>
+      <c r="AI21" s="4"/>
+      <c r="AJ21" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK21" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL21" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM21" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN21" s="4" t="n">
+        <v>-7773.53730666113</v>
+      </c>
+      <c r="AO21" s="4"/>
       <c r="AP21" s="1"/>
       <c r="AQ21" s="1"/>
       <c r="AR21" s="1"/>
@@ -3153,33 +3339,33 @@
       <c r="B22" t="str">
         <f>N22</f>
       </c>
-      <c r="O22" s="1"/>
-      <c r="P22" s="1"/>
-      <c r="Q22" s="1"/>
-      <c r="R22" s="1"/>
-      <c r="S22" s="1"/>
-      <c r="T22" s="1"/>
-      <c r="U22" s="1"/>
-      <c r="V22" s="1"/>
-      <c r="W22" s="1"/>
-      <c r="X22" s="1"/>
-      <c r="Y22" s="1"/>
-      <c r="Z22" s="1"/>
-      <c r="AA22" s="1"/>
-      <c r="AB22" s="1"/>
-      <c r="AC22" s="1"/>
-      <c r="AD22" s="1"/>
-      <c r="AE22" s="1"/>
-      <c r="AF22" s="1"/>
-      <c r="AG22" s="1"/>
-      <c r="AH22" s="1"/>
-      <c r="AI22" s="1"/>
-      <c r="AJ22" s="1"/>
-      <c r="AK22" s="1"/>
-      <c r="AL22" s="1"/>
-      <c r="AM22" s="1"/>
-      <c r="AN22" s="1"/>
-      <c r="AO22" s="1"/>
+      <c r="O22" s="4"/>
+      <c r="P22" s="4"/>
+      <c r="Q22" s="4"/>
+      <c r="R22" s="4"/>
+      <c r="S22" s="4"/>
+      <c r="T22" s="4"/>
+      <c r="U22" s="4"/>
+      <c r="V22" s="4"/>
+      <c r="W22" s="4"/>
+      <c r="X22" s="4"/>
+      <c r="Y22" s="4"/>
+      <c r="Z22" s="4"/>
+      <c r="AA22" s="4"/>
+      <c r="AB22" s="4"/>
+      <c r="AC22" s="4"/>
+      <c r="AD22" s="4"/>
+      <c r="AE22" s="4"/>
+      <c r="AF22" s="4"/>
+      <c r="AG22" s="4"/>
+      <c r="AH22" s="4"/>
+      <c r="AI22" s="4"/>
+      <c r="AJ22" s="4"/>
+      <c r="AK22" s="4"/>
+      <c r="AL22" s="4"/>
+      <c r="AM22" s="4"/>
+      <c r="AN22" s="4"/>
+      <c r="AO22" s="4"/>
       <c r="AP22" s="1"/>
       <c r="AQ22" s="1"/>
       <c r="AR22" s="1"/>

--- a/Output/FedAcqTrends/Platform/Aircraft/Fed_Aircraft_Contracts.xlsx
+++ b/Output/FedAcqTrends/Platform/Aircraft/Fed_Aircraft_Contracts.xlsx
@@ -9,12 +9,13 @@
     <sheet name="FYQ" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="Veh" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="Price" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="PSR" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="77">
   <si>
     <t xml:space="preserve">Vehicle.AwardTask</t>
   </si>
@@ -231,16 +232,32 @@
   <si>
     <t xml:space="preserve">Incentive</t>
   </si>
+  <si>
+    <t xml:space="preserve">SimpleArea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Products (All)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R&amp;D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Services (Non-R&amp;D)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unlabeled</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="166" formatCode="0.00,,,&quot;B&quot;"/>
-    <numFmt numFmtId="168" formatCode="0.00,,,&quot;B&quot;"/>
-    <numFmt numFmtId="169" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="170" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="171" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="172" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="173" formatCode="0.00,,,&quot;B&quot;"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -276,12 +293,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf numFmtId="169" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="170" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="172" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="173" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -746,85 +764,85 @@
       <c r="N2" t="s">
         <v>50</v>
       </c>
-      <c r="O2" s="4" t="n">
+      <c r="O2" s="2" t="n">
         <v>24580435226.64</v>
       </c>
-      <c r="P2" s="4" t="n">
+      <c r="P2" s="2" t="n">
         <v>24106302588.46</v>
       </c>
-      <c r="Q2" s="4" t="n">
+      <c r="Q2" s="2" t="n">
         <v>26106954283.46</v>
       </c>
-      <c r="R2" s="4" t="n">
+      <c r="R2" s="2" t="n">
         <v>32922914808.31</v>
       </c>
-      <c r="S2" s="4" t="n">
+      <c r="S2" s="2" t="n">
         <v>31290054553.94</v>
       </c>
-      <c r="T2" s="4" t="n">
+      <c r="T2" s="2" t="n">
         <v>29596095280.92</v>
       </c>
-      <c r="U2" s="4" t="n">
+      <c r="U2" s="2" t="n">
         <v>34712294227.77</v>
       </c>
-      <c r="V2" s="4" t="n">
+      <c r="V2" s="2" t="n">
         <v>38842437992.72</v>
       </c>
-      <c r="W2" s="4" t="n">
+      <c r="W2" s="2" t="n">
         <v>43480407282.98</v>
       </c>
-      <c r="X2" s="4" t="n">
+      <c r="X2" s="2" t="n">
         <v>40718477015.63</v>
       </c>
-      <c r="Y2" s="4" t="n">
+      <c r="Y2" s="2" t="n">
         <v>37073459260.8586</v>
       </c>
-      <c r="Z2" s="4" t="n">
+      <c r="Z2" s="2" t="n">
         <v>44860435750.1891</v>
       </c>
-      <c r="AA2" s="4" t="n">
+      <c r="AA2" s="2" t="n">
         <v>49417426796.5723</v>
       </c>
-      <c r="AB2" s="4" t="n">
+      <c r="AB2" s="2" t="n">
         <v>50005122566.4256</v>
       </c>
-      <c r="AC2" s="4" t="n">
+      <c r="AC2" s="2" t="n">
         <v>36049980655.0231</v>
       </c>
-      <c r="AD2" s="4" t="n">
+      <c r="AD2" s="2" t="n">
         <v>39541344351.1707</v>
       </c>
-      <c r="AE2" s="4" t="n">
+      <c r="AE2" s="2" t="n">
         <v>51518893786.0678</v>
       </c>
-      <c r="AF2" s="4" t="n">
+      <c r="AF2" s="2" t="n">
         <v>57851065824.5591</v>
       </c>
-      <c r="AG2" s="4" t="n">
+      <c r="AG2" s="2" t="n">
         <v>49014898965.83</v>
       </c>
-      <c r="AH2" s="4" t="n">
+      <c r="AH2" s="2" t="n">
         <v>53003631595.12</v>
       </c>
-      <c r="AI2" s="4" t="n">
+      <c r="AI2" s="2" t="n">
         <v>63030431796.26</v>
       </c>
-      <c r="AJ2" s="4" t="n">
+      <c r="AJ2" s="2" t="n">
         <v>35766995695.49</v>
       </c>
-      <c r="AK2" s="4" t="n">
+      <c r="AK2" s="2" t="n">
         <v>38134159314.82</v>
       </c>
-      <c r="AL2" s="4" t="n">
+      <c r="AL2" s="2" t="n">
         <v>55594750528.27</v>
       </c>
-      <c r="AM2" s="4" t="n">
+      <c r="AM2" s="2" t="n">
         <v>32270134555.06</v>
       </c>
-      <c r="AN2" s="4" t="n">
+      <c r="AN2" s="2" t="n">
         <v>24073744726.32</v>
       </c>
-      <c r="AO2" s="4" t="n">
+      <c r="AO2" s="2" t="n">
         <v>29596095280.92</v>
       </c>
       <c r="AP2" s="1" t="n">
@@ -902,85 +920,85 @@
       <c r="N3" t="s">
         <v>51</v>
       </c>
-      <c r="O3" s="4" t="n">
+      <c r="O3" s="2" t="n">
         <v>575234048</v>
       </c>
-      <c r="P3" s="4" t="n">
+      <c r="P3" s="2" t="n">
         <v>669069569.94</v>
       </c>
-      <c r="Q3" s="4" t="n">
+      <c r="Q3" s="2" t="n">
         <v>686880414.67</v>
       </c>
-      <c r="R3" s="4" t="n">
+      <c r="R3" s="2" t="n">
         <v>835897253.19</v>
       </c>
-      <c r="S3" s="4" t="n">
+      <c r="S3" s="2" t="n">
         <v>600689403.78</v>
       </c>
-      <c r="T3" s="4" t="n">
+      <c r="T3" s="2" t="n">
         <v>800013327.8</v>
       </c>
-      <c r="U3" s="4" t="n">
+      <c r="U3" s="2" t="n">
         <v>888726395.39</v>
       </c>
-      <c r="V3" s="4" t="n">
+      <c r="V3" s="2" t="n">
         <v>970422741.45</v>
       </c>
-      <c r="W3" s="4" t="n">
+      <c r="W3" s="2" t="n">
         <v>1183717660.62</v>
       </c>
-      <c r="X3" s="4" t="n">
+      <c r="X3" s="2" t="n">
         <v>983363800.21</v>
       </c>
-      <c r="Y3" s="4" t="n">
+      <c r="Y3" s="2" t="n">
         <v>1025939958.163</v>
       </c>
-      <c r="Z3" s="4" t="n">
+      <c r="Z3" s="2" t="n">
         <v>1099212948.0185</v>
       </c>
-      <c r="AA3" s="4" t="n">
+      <c r="AA3" s="2" t="n">
         <v>986640516.3149</v>
       </c>
-      <c r="AB3" s="4" t="n">
+      <c r="AB3" s="2" t="n">
         <v>1201698960.5381</v>
       </c>
-      <c r="AC3" s="4" t="n">
+      <c r="AC3" s="2" t="n">
         <v>1182720605.3701</v>
       </c>
-      <c r="AD3" s="4" t="n">
+      <c r="AD3" s="2" t="n">
         <v>1201505540.9714</v>
       </c>
-      <c r="AE3" s="4" t="n">
+      <c r="AE3" s="2" t="n">
         <v>1254981007.4817</v>
       </c>
-      <c r="AF3" s="4" t="n">
+      <c r="AF3" s="2" t="n">
         <v>1308996189.4308</v>
       </c>
-      <c r="AG3" s="4" t="n">
+      <c r="AG3" s="2" t="n">
         <v>1674425531.59</v>
       </c>
-      <c r="AH3" s="4" t="n">
+      <c r="AH3" s="2" t="n">
         <v>1746988190.09</v>
       </c>
-      <c r="AI3" s="4" t="n">
+      <c r="AI3" s="2" t="n">
         <v>1213933708.27</v>
       </c>
-      <c r="AJ3" s="4" t="n">
+      <c r="AJ3" s="2" t="n">
         <v>1121549382.03</v>
       </c>
-      <c r="AK3" s="4" t="n">
+      <c r="AK3" s="2" t="n">
         <v>1160499837.31</v>
       </c>
-      <c r="AL3" s="4" t="n">
+      <c r="AL3" s="2" t="n">
         <v>679414620.99</v>
       </c>
-      <c r="AM3" s="4" t="n">
+      <c r="AM3" s="2" t="n">
         <v>836045048.97</v>
       </c>
-      <c r="AN3" s="4" t="n">
+      <c r="AN3" s="2" t="n">
         <v>423864529.97</v>
       </c>
-      <c r="AO3" s="4" t="n">
+      <c r="AO3" s="2" t="n">
         <v>800013327.8</v>
       </c>
       <c r="AP3" s="1" t="n">
@@ -1058,85 +1076,85 @@
       <c r="N4" t="s">
         <v>53</v>
       </c>
-      <c r="O4" s="4" t="n">
+      <c r="O4" s="2" t="n">
         <v>15949044</v>
       </c>
-      <c r="P4" s="4" t="n">
+      <c r="P4" s="2" t="n">
         <v>3578204</v>
       </c>
-      <c r="Q4" s="4" t="n">
+      <c r="Q4" s="2" t="n">
         <v>21286774.33</v>
       </c>
-      <c r="R4" s="4" t="n">
+      <c r="R4" s="2" t="n">
         <v>27665290.5813</v>
       </c>
-      <c r="S4" s="4" t="n">
+      <c r="S4" s="2" t="n">
         <v>388233.1308</v>
       </c>
-      <c r="T4" s="4" t="n">
+      <c r="T4" s="2" t="n">
         <v>5356992.0713</v>
       </c>
-      <c r="U4" s="4" t="n">
+      <c r="U4" s="2" t="n">
         <v>5328672.7029</v>
       </c>
-      <c r="V4" s="4" t="n">
+      <c r="V4" s="2" t="n">
         <v>2422638.71</v>
       </c>
-      <c r="W4" s="4" t="n">
+      <c r="W4" s="2" t="n">
         <v>43287639.7559</v>
       </c>
-      <c r="X4" s="4" t="n">
+      <c r="X4" s="2" t="n">
         <v>29153564.3068</v>
       </c>
-      <c r="Y4" s="4" t="n">
+      <c r="Y4" s="2" t="n">
         <v>165479102.4641</v>
       </c>
-      <c r="Z4" s="4" t="n">
+      <c r="Z4" s="2" t="n">
         <v>1447423460.9816</v>
       </c>
-      <c r="AA4" s="4" t="n">
+      <c r="AA4" s="2" t="n">
         <v>3501329111.7152</v>
       </c>
-      <c r="AB4" s="4" t="n">
+      <c r="AB4" s="2" t="n">
         <v>4739884418.6757</v>
       </c>
-      <c r="AC4" s="4" t="n">
+      <c r="AC4" s="2" t="n">
         <v>4576105085.1177</v>
       </c>
-      <c r="AD4" s="4" t="n">
+      <c r="AD4" s="2" t="n">
         <v>5531679587.3385</v>
       </c>
-      <c r="AE4" s="4" t="n">
+      <c r="AE4" s="2" t="n">
         <v>5617277929.5183</v>
       </c>
-      <c r="AF4" s="4" t="n">
+      <c r="AF4" s="2" t="n">
         <v>7232676923.4378</v>
       </c>
-      <c r="AG4" s="4" t="n">
+      <c r="AG4" s="2" t="n">
         <v>9555499584.5343</v>
       </c>
-      <c r="AH4" s="4" t="n">
+      <c r="AH4" s="2" t="n">
         <v>8565000933.0606</v>
       </c>
-      <c r="AI4" s="4" t="n">
+      <c r="AI4" s="2" t="n">
         <v>7022961831.8218</v>
       </c>
-      <c r="AJ4" s="4" t="n">
+      <c r="AJ4" s="2" t="n">
         <v>8293095980.0951</v>
       </c>
-      <c r="AK4" s="4" t="n">
+      <c r="AK4" s="2" t="n">
         <v>9228689067.6412</v>
       </c>
-      <c r="AL4" s="4" t="n">
+      <c r="AL4" s="2" t="n">
         <v>9276520909.1715</v>
       </c>
-      <c r="AM4" s="4" t="n">
+      <c r="AM4" s="2" t="n">
         <v>8912741691.18</v>
       </c>
-      <c r="AN4" s="4" t="n">
+      <c r="AN4" s="2" t="n">
         <v>3456852755.96</v>
       </c>
-      <c r="AO4" s="4" t="n">
+      <c r="AO4" s="2" t="n">
         <v>5356992.0713</v>
       </c>
       <c r="AP4" s="1" t="n">
@@ -1214,85 +1232,85 @@
       <c r="N5" t="s">
         <v>54</v>
       </c>
-      <c r="O5" s="4" t="n">
+      <c r="O5" s="2" t="n">
         <v>123574155</v>
       </c>
-      <c r="P5" s="4" t="n">
+      <c r="P5" s="2" t="n">
         <v>77356117.09</v>
       </c>
-      <c r="Q5" s="4" t="n">
+      <c r="Q5" s="2" t="n">
         <v>143038832.75</v>
       </c>
-      <c r="R5" s="4" t="n">
+      <c r="R5" s="2" t="n">
         <v>201534412.0035</v>
       </c>
-      <c r="S5" s="4" t="n">
+      <c r="S5" s="2" t="n">
         <v>241215691.4556</v>
       </c>
-      <c r="T5" s="4" t="n">
+      <c r="T5" s="2" t="n">
         <v>249473447.2923</v>
       </c>
-      <c r="U5" s="4" t="n">
+      <c r="U5" s="2" t="n">
         <v>153778002.372</v>
       </c>
-      <c r="V5" s="4" t="n">
+      <c r="V5" s="2" t="n">
         <v>211961668.518</v>
       </c>
-      <c r="W5" s="4" t="n">
+      <c r="W5" s="2" t="n">
         <v>260637124.7695</v>
       </c>
-      <c r="X5" s="4" t="n">
+      <c r="X5" s="2" t="n">
         <v>189092483.019</v>
       </c>
-      <c r="Y5" s="4" t="n">
+      <c r="Y5" s="2" t="n">
         <v>217824648.2669</v>
       </c>
-      <c r="Z5" s="4" t="n">
+      <c r="Z5" s="2" t="n">
         <v>268720229.82</v>
       </c>
-      <c r="AA5" s="4" t="n">
+      <c r="AA5" s="2" t="n">
         <v>226391384.409</v>
       </c>
-      <c r="AB5" s="4" t="n">
+      <c r="AB5" s="2" t="n">
         <v>165455433.8876</v>
       </c>
-      <c r="AC5" s="4" t="n">
+      <c r="AC5" s="2" t="n">
         <v>135288401.9449</v>
       </c>
-      <c r="AD5" s="4" t="n">
+      <c r="AD5" s="2" t="n">
         <v>116552455.5742</v>
       </c>
-      <c r="AE5" s="4" t="n">
+      <c r="AE5" s="2" t="n">
         <v>161228231.9326</v>
       </c>
-      <c r="AF5" s="4" t="n">
+      <c r="AF5" s="2" t="n">
         <v>112313980.1374</v>
       </c>
-      <c r="AG5" s="4" t="n">
+      <c r="AG5" s="2" t="n">
         <v>142102180.2154</v>
       </c>
-      <c r="AH5" s="4" t="n">
+      <c r="AH5" s="2" t="n">
         <v>205031950.6491</v>
       </c>
-      <c r="AI5" s="4" t="n">
+      <c r="AI5" s="2" t="n">
         <v>168686383.0158</v>
       </c>
-      <c r="AJ5" s="4" t="n">
+      <c r="AJ5" s="2" t="n">
         <v>167267132.2923</v>
       </c>
-      <c r="AK5" s="4" t="n">
+      <c r="AK5" s="2" t="n">
         <v>123998174.2661</v>
       </c>
-      <c r="AL5" s="4" t="n">
+      <c r="AL5" s="2" t="n">
         <v>84002534.7091</v>
       </c>
-      <c r="AM5" s="4" t="n">
+      <c r="AM5" s="2" t="n">
         <v>145794997.99</v>
       </c>
-      <c r="AN5" s="4" t="n">
+      <c r="AN5" s="2" t="n">
         <v>25074693.44</v>
       </c>
-      <c r="AO5" s="4" t="n">
+      <c r="AO5" s="2" t="n">
         <v>249473447.2923</v>
       </c>
       <c r="AP5" s="1" t="n">
@@ -1370,85 +1388,85 @@
       <c r="N6" t="s">
         <v>55</v>
       </c>
-      <c r="O6" s="4" t="n">
+      <c r="O6" s="2" t="n">
         <v>1086185382</v>
       </c>
-      <c r="P6" s="4" t="n">
+      <c r="P6" s="2" t="n">
         <v>899695329.2</v>
       </c>
-      <c r="Q6" s="4" t="n">
+      <c r="Q6" s="2" t="n">
         <v>959393300.4375</v>
       </c>
-      <c r="R6" s="4" t="n">
+      <c r="R6" s="2" t="n">
         <v>1638044203.8125</v>
       </c>
-      <c r="S6" s="4" t="n">
+      <c r="S6" s="2" t="n">
         <v>1677848702.1094</v>
       </c>
-      <c r="T6" s="4" t="n">
+      <c r="T6" s="2" t="n">
         <v>1842600462.594</v>
       </c>
-      <c r="U6" s="4" t="n">
+      <c r="U6" s="2" t="n">
         <v>2536046234.8964</v>
       </c>
-      <c r="V6" s="4" t="n">
+      <c r="V6" s="2" t="n">
         <v>2578596351.6838</v>
       </c>
-      <c r="W6" s="4" t="n">
+      <c r="W6" s="2" t="n">
         <v>2374962197.9287</v>
       </c>
-      <c r="X6" s="4" t="n">
+      <c r="X6" s="2" t="n">
         <v>2811345525.9451</v>
       </c>
-      <c r="Y6" s="4" t="n">
+      <c r="Y6" s="2" t="n">
         <v>2775748753.4298</v>
       </c>
-      <c r="Z6" s="4" t="n">
+      <c r="Z6" s="2" t="n">
         <v>2450371961.4397</v>
       </c>
-      <c r="AA6" s="4" t="n">
+      <c r="AA6" s="2" t="n">
         <v>1984346615.3058</v>
       </c>
-      <c r="AB6" s="4" t="n">
+      <c r="AB6" s="2" t="n">
         <v>1641988449.7969</v>
       </c>
-      <c r="AC6" s="4" t="n">
+      <c r="AC6" s="2" t="n">
         <v>1629413060.6036</v>
       </c>
-      <c r="AD6" s="4" t="n">
+      <c r="AD6" s="2" t="n">
         <v>1674497008.3088</v>
       </c>
-      <c r="AE6" s="4" t="n">
+      <c r="AE6" s="2" t="n">
         <v>2049671519.3857</v>
       </c>
-      <c r="AF6" s="4" t="n">
+      <c r="AF6" s="2" t="n">
         <v>2022386524.3925</v>
       </c>
-      <c r="AG6" s="4" t="n">
+      <c r="AG6" s="2" t="n">
         <v>1879168550.9256</v>
       </c>
-      <c r="AH6" s="4" t="n">
+      <c r="AH6" s="2" t="n">
         <v>2237301676.2203</v>
       </c>
-      <c r="AI6" s="4" t="n">
+      <c r="AI6" s="2" t="n">
         <v>2488259003.2948</v>
       </c>
-      <c r="AJ6" s="4" t="n">
+      <c r="AJ6" s="2" t="n">
         <v>2372847066.4693</v>
       </c>
-      <c r="AK6" s="4" t="n">
+      <c r="AK6" s="2" t="n">
         <v>2543763097.8861</v>
       </c>
-      <c r="AL6" s="4" t="n">
+      <c r="AL6" s="2" t="n">
         <v>2900505982.4097</v>
       </c>
-      <c r="AM6" s="4" t="n">
+      <c r="AM6" s="2" t="n">
         <v>3229627715.17</v>
       </c>
-      <c r="AN6" s="4" t="n">
+      <c r="AN6" s="2" t="n">
         <v>1426643359.75</v>
       </c>
-      <c r="AO6" s="4" t="n">
+      <c r="AO6" s="2" t="n">
         <v>1842600462.594</v>
       </c>
       <c r="AP6" s="1" t="n">
@@ -1526,85 +1544,85 @@
       <c r="N7" t="s">
         <v>56</v>
       </c>
-      <c r="O7" s="4" t="n">
+      <c r="O7" s="2" t="n">
         <v>9329208039.4441</v>
       </c>
-      <c r="P7" s="4" t="n">
+      <c r="P7" s="2" t="n">
         <v>10756381455.0968</v>
       </c>
-      <c r="Q7" s="4" t="n">
+      <c r="Q7" s="2" t="n">
         <v>11435695602.1251</v>
       </c>
-      <c r="R7" s="4" t="n">
+      <c r="R7" s="2" t="n">
         <v>14112674498.8887</v>
       </c>
-      <c r="S7" s="4" t="n">
+      <c r="S7" s="2" t="n">
         <v>14505525993.2919</v>
       </c>
-      <c r="T7" s="4" t="n">
+      <c r="T7" s="2" t="n">
         <v>15396716990.9833</v>
       </c>
-      <c r="U7" s="4" t="n">
+      <c r="U7" s="2" t="n">
         <v>16638673681.4488</v>
       </c>
-      <c r="V7" s="4" t="n">
+      <c r="V7" s="2" t="n">
         <v>18878064792.8399</v>
       </c>
-      <c r="W7" s="4" t="n">
+      <c r="W7" s="2" t="n">
         <v>20734378726.0514</v>
       </c>
-      <c r="X7" s="4" t="n">
+      <c r="X7" s="2" t="n">
         <v>22540311719.5269</v>
       </c>
-      <c r="Y7" s="4" t="n">
+      <c r="Y7" s="2" t="n">
         <v>24388475720.6835</v>
       </c>
-      <c r="Z7" s="4" t="n">
+      <c r="Z7" s="2" t="n">
         <v>22133770192.2392</v>
       </c>
-      <c r="AA7" s="4" t="n">
+      <c r="AA7" s="2" t="n">
         <v>23669157334.0961</v>
       </c>
-      <c r="AB7" s="4" t="n">
+      <c r="AB7" s="2" t="n">
         <v>17129152511.447</v>
       </c>
-      <c r="AC7" s="4" t="n">
+      <c r="AC7" s="2" t="n">
         <v>15558290008.6225</v>
       </c>
-      <c r="AD7" s="4" t="n">
+      <c r="AD7" s="2" t="n">
         <v>14931030707.3871</v>
       </c>
-      <c r="AE7" s="4" t="n">
+      <c r="AE7" s="2" t="n">
         <v>16019493639.0837</v>
       </c>
-      <c r="AF7" s="4" t="n">
+      <c r="AF7" s="2" t="n">
         <v>19085554036.8664</v>
       </c>
-      <c r="AG7" s="4" t="n">
+      <c r="AG7" s="2" t="n">
         <v>23384478547.1892</v>
       </c>
-      <c r="AH7" s="4" t="n">
+      <c r="AH7" s="2" t="n">
         <v>25873883211.0788</v>
       </c>
-      <c r="AI7" s="4" t="n">
+      <c r="AI7" s="2" t="n">
         <v>33201587488.55</v>
       </c>
-      <c r="AJ7" s="4" t="n">
+      <c r="AJ7" s="2" t="n">
         <v>27032069210.2557</v>
       </c>
-      <c r="AK7" s="4" t="n">
+      <c r="AK7" s="2" t="n">
         <v>26151121890.1863</v>
       </c>
-      <c r="AL7" s="4" t="n">
+      <c r="AL7" s="2" t="n">
         <v>30777027189.8927</v>
       </c>
-      <c r="AM7" s="4" t="n">
+      <c r="AM7" s="2" t="n">
         <v>28462941725.96</v>
       </c>
-      <c r="AN7" s="4" t="n">
+      <c r="AN7" s="2" t="n">
         <v>12888747423.91</v>
       </c>
-      <c r="AO7" s="4" t="n">
+      <c r="AO7" s="2" t="n">
         <v>15396716990.9833</v>
       </c>
       <c r="AP7" s="1" t="n">
@@ -1682,67 +1700,67 @@
       <c r="N8" t="s">
         <v>57</v>
       </c>
-      <c r="O8" s="4" t="n">
+      <c r="O8" s="2" t="n">
         <v>102867217.9786</v>
       </c>
-      <c r="P8" s="4" t="n">
+      <c r="P8" s="2" t="n">
         <v>143679931.0937</v>
       </c>
-      <c r="Q8" s="4" t="n">
+      <c r="Q8" s="2" t="n">
         <v>85519444.22</v>
       </c>
-      <c r="R8" s="4" t="n">
+      <c r="R8" s="2" t="n">
         <v>16797444</v>
       </c>
-      <c r="S8" s="4" t="n">
+      <c r="S8" s="2" t="n">
         <v>54540079.0787</v>
       </c>
-      <c r="T8" s="4" t="n">
+      <c r="T8" s="2" t="n">
         <v>5541556.6483</v>
       </c>
-      <c r="U8" s="4" t="n">
+      <c r="U8" s="2" t="n">
         <v>1754920.6797</v>
       </c>
-      <c r="V8" s="4" t="n">
+      <c r="V8" s="2" t="n">
         <v>2179498.8436</v>
       </c>
-      <c r="W8" s="4" t="n">
+      <c r="W8" s="2" t="n">
         <v>-12287.3602</v>
       </c>
-      <c r="X8" s="4" t="n">
+      <c r="X8" s="2" t="n">
         <v>-1643.61</v>
       </c>
-      <c r="Y8" s="4" t="n">
+      <c r="Y8" s="2" t="n">
         <v>25506.8008</v>
       </c>
-      <c r="Z8" s="4"/>
-      <c r="AA8" s="4"/>
-      <c r="AB8" s="4" t="n">
+      <c r="Z8" s="2"/>
+      <c r="AA8" s="2"/>
+      <c r="AB8" s="2" t="n">
         <v>23174.96</v>
       </c>
-      <c r="AC8" s="4" t="n">
+      <c r="AC8" s="2" t="n">
         <v>46522.8</v>
       </c>
-      <c r="AD8" s="4"/>
-      <c r="AE8" s="4"/>
-      <c r="AF8" s="4" t="n">
+      <c r="AD8" s="2"/>
+      <c r="AE8" s="2"/>
+      <c r="AF8" s="2" t="n">
         <v>8223.7002</v>
       </c>
-      <c r="AG8" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH8" s="4"/>
-      <c r="AI8" s="4" t="n">
+      <c r="AG8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH8" s="2"/>
+      <c r="AI8" s="2" t="n">
         <v>1986.54</v>
       </c>
-      <c r="AJ8" s="4"/>
-      <c r="AK8" s="4" t="n">
+      <c r="AJ8" s="2"/>
+      <c r="AK8" s="2" t="n">
         <v>850</v>
       </c>
-      <c r="AL8" s="4"/>
-      <c r="AM8" s="4"/>
-      <c r="AN8" s="4"/>
-      <c r="AO8" s="4" t="n">
+      <c r="AL8" s="2"/>
+      <c r="AM8" s="2"/>
+      <c r="AN8" s="2"/>
+      <c r="AO8" s="2" t="n">
         <v>5541556.6483</v>
       </c>
       <c r="AP8" s="1" t="n">
@@ -1798,51 +1816,51 @@
       </c>
       <c r="M9"/>
       <c r="N9"/>
-      <c r="O9" s="4"/>
-      <c r="P9" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="R9" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="S9" s="4"/>
-      <c r="T9" s="4"/>
-      <c r="U9" s="4"/>
-      <c r="V9" s="4"/>
-      <c r="W9" s="4"/>
-      <c r="X9" s="4"/>
-      <c r="Y9" s="4"/>
-      <c r="Z9" s="4"/>
-      <c r="AA9" s="4"/>
-      <c r="AB9" s="4"/>
-      <c r="AC9" s="4"/>
-      <c r="AD9" s="4"/>
-      <c r="AE9" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF9" s="4"/>
-      <c r="AG9" s="4"/>
-      <c r="AH9" s="4"/>
-      <c r="AI9" s="4"/>
-      <c r="AJ9" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK9" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL9" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM9" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN9" s="4" t="n">
+      <c r="O9" s="2"/>
+      <c r="P9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S9" s="2"/>
+      <c r="T9" s="2"/>
+      <c r="U9" s="2"/>
+      <c r="V9" s="2"/>
+      <c r="W9" s="2"/>
+      <c r="X9" s="2"/>
+      <c r="Y9" s="2"/>
+      <c r="Z9" s="2"/>
+      <c r="AA9" s="2"/>
+      <c r="AB9" s="2"/>
+      <c r="AC9" s="2"/>
+      <c r="AD9" s="2"/>
+      <c r="AE9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF9" s="2"/>
+      <c r="AG9" s="2"/>
+      <c r="AH9" s="2"/>
+      <c r="AI9" s="2"/>
+      <c r="AJ9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN9" s="2" t="n">
         <v>-8156.26</v>
       </c>
-      <c r="AO9" s="4"/>
+      <c r="AO9" s="2"/>
       <c r="AP9" s="1"/>
       <c r="AQ9" s="1"/>
       <c r="AR9" s="1"/>
@@ -1890,85 +1908,85 @@
       <c r="N10" t="s">
         <v>59</v>
       </c>
-      <c r="O10" s="4" t="str">
+      <c r="O10" s="2" t="str">
         <f>Sum(O2:O9)</f>
       </c>
-      <c r="P10" s="4" t="str">
+      <c r="P10" s="2" t="str">
         <f>Sum(P2:P9)</f>
       </c>
-      <c r="Q10" s="4" t="str">
+      <c r="Q10" s="2" t="str">
         <f>Sum(Q2:Q9)</f>
       </c>
-      <c r="R10" s="4" t="str">
+      <c r="R10" s="2" t="str">
         <f>Sum(R2:R9)</f>
       </c>
-      <c r="S10" s="4" t="str">
+      <c r="S10" s="2" t="str">
         <f>Sum(S2:S9)</f>
       </c>
-      <c r="T10" s="4" t="str">
+      <c r="T10" s="2" t="str">
         <f>Sum(T2:T9)</f>
       </c>
-      <c r="U10" s="4" t="str">
+      <c r="U10" s="2" t="str">
         <f>Sum(U2:U9)</f>
       </c>
-      <c r="V10" s="4" t="str">
+      <c r="V10" s="2" t="str">
         <f>Sum(V2:V9)</f>
       </c>
-      <c r="W10" s="4" t="str">
+      <c r="W10" s="2" t="str">
         <f>Sum(W2:W9)</f>
       </c>
-      <c r="X10" s="4" t="str">
+      <c r="X10" s="2" t="str">
         <f>Sum(X2:X9)</f>
       </c>
-      <c r="Y10" s="4" t="str">
+      <c r="Y10" s="2" t="str">
         <f>Sum(Y2:Y9)</f>
       </c>
-      <c r="Z10" s="4" t="str">
+      <c r="Z10" s="2" t="str">
         <f>Sum(Z2:Z9)</f>
       </c>
-      <c r="AA10" s="4" t="str">
+      <c r="AA10" s="2" t="str">
         <f>Sum(AA2:AA9)</f>
       </c>
-      <c r="AB10" s="4" t="str">
+      <c r="AB10" s="2" t="str">
         <f>Sum(AB2:AB9)</f>
       </c>
-      <c r="AC10" s="4" t="str">
+      <c r="AC10" s="2" t="str">
         <f>Sum(AC2:AC9)</f>
       </c>
-      <c r="AD10" s="4" t="str">
+      <c r="AD10" s="2" t="str">
         <f>Sum(AD2:AD9)</f>
       </c>
-      <c r="AE10" s="4" t="str">
+      <c r="AE10" s="2" t="str">
         <f>Sum(AE2:AE9)</f>
       </c>
-      <c r="AF10" s="4" t="str">
+      <c r="AF10" s="2" t="str">
         <f>Sum(AF2:AF9)</f>
       </c>
-      <c r="AG10" s="4" t="str">
+      <c r="AG10" s="2" t="str">
         <f>Sum(AG2:AG9)</f>
       </c>
-      <c r="AH10" s="4" t="str">
+      <c r="AH10" s="2" t="str">
         <f>Sum(AH2:AH9)</f>
       </c>
-      <c r="AI10" s="4" t="str">
+      <c r="AI10" s="2" t="str">
         <f>Sum(AI2:AI9)</f>
       </c>
-      <c r="AJ10" s="4" t="str">
+      <c r="AJ10" s="2" t="str">
         <f>Sum(AJ2:AJ9)</f>
       </c>
-      <c r="AK10" s="4" t="str">
+      <c r="AK10" s="2" t="str">
         <f>Sum(AK2:AK9)</f>
       </c>
-      <c r="AL10" s="4" t="str">
+      <c r="AL10" s="2" t="str">
         <f>Sum(AL2:AL9)</f>
       </c>
-      <c r="AM10" s="4" t="str">
+      <c r="AM10" s="2" t="str">
         <f>Sum(AM2:AM9)</f>
       </c>
-      <c r="AN10" s="4" t="str">
+      <c r="AN10" s="2" t="str">
         <f>Sum(AN2:AN9)</f>
       </c>
-      <c r="AO10" s="4" t="str">
+      <c r="AO10" s="2" t="str">
         <f>Sum(AO2:AO9)</f>
       </c>
       <c r="AP10" s="1" t="str">
@@ -2201,85 +2219,85 @@
       <c r="N14" t="s">
         <v>50</v>
       </c>
-      <c r="O14" s="4" t="n">
+      <c r="O14" s="2" t="n">
         <v>41323973651.4872</v>
       </c>
-      <c r="P14" s="4" t="n">
+      <c r="P14" s="2" t="n">
         <v>39567787485.6994</v>
       </c>
-      <c r="Q14" s="4" t="n">
+      <c r="Q14" s="2" t="n">
         <v>42187925739.664</v>
       </c>
-      <c r="R14" s="4" t="n">
+      <c r="R14" s="2" t="n">
         <v>52200288454.4857</v>
       </c>
-      <c r="S14" s="4" t="n">
+      <c r="S14" s="2" t="n">
         <v>48428768347.4716</v>
       </c>
-      <c r="T14" s="4" t="n">
+      <c r="T14" s="2" t="n">
         <v>44454230994.1471</v>
       </c>
-      <c r="U14" s="4" t="n">
+      <c r="U14" s="2" t="n">
         <v>50498507385.1404</v>
       </c>
-      <c r="V14" s="4" t="n">
+      <c r="V14" s="2" t="n">
         <v>54992999384.2077</v>
       </c>
-      <c r="W14" s="4" t="n">
+      <c r="W14" s="2" t="n">
         <v>60307389102.2068</v>
       </c>
-      <c r="X14" s="4" t="n">
+      <c r="X14" s="2" t="n">
         <v>55904898059.2689</v>
       </c>
-      <c r="Y14" s="4" t="n">
+      <c r="Y14" s="2" t="n">
         <v>50463393959.7935</v>
       </c>
-      <c r="Z14" s="4" t="n">
+      <c r="Z14" s="2" t="n">
         <v>59861318272.0798</v>
       </c>
-      <c r="AA14" s="4" t="n">
+      <c r="AA14" s="2" t="n">
         <v>64766859473.5786</v>
       </c>
-      <c r="AB14" s="4" t="n">
+      <c r="AB14" s="2" t="n">
         <v>64369137504.9676</v>
       </c>
-      <c r="AC14" s="4" t="n">
+      <c r="AC14" s="2" t="n">
         <v>45573955454.0491</v>
       </c>
-      <c r="AD14" s="4" t="n">
+      <c r="AD14" s="2" t="n">
         <v>49475316778.0572</v>
       </c>
-      <c r="AE14" s="4" t="n">
+      <c r="AE14" s="2" t="n">
         <v>63950695212.071</v>
       </c>
-      <c r="AF14" s="4" t="n">
+      <c r="AF14" s="2" t="n">
         <v>70618796065.6052</v>
       </c>
-      <c r="AG14" s="4" t="n">
+      <c r="AG14" s="2" t="n">
         <v>58533053362.5243</v>
       </c>
-      <c r="AH14" s="4" t="n">
+      <c r="AH14" s="2" t="n">
         <v>62147279910.4369</v>
       </c>
-      <c r="AI14" s="4" t="n">
+      <c r="AI14" s="2" t="n">
         <v>72950837282.9099</v>
       </c>
-      <c r="AJ14" s="4" t="n">
+      <c r="AJ14" s="2" t="n">
         <v>40019039088.3782</v>
       </c>
-      <c r="AK14" s="4" t="n">
+      <c r="AK14" s="2" t="n">
         <v>39878667245.9308</v>
       </c>
-      <c r="AL14" s="4" t="n">
+      <c r="AL14" s="2" t="n">
         <v>55594750528.27</v>
       </c>
-      <c r="AM14" s="4" t="n">
+      <c r="AM14" s="2" t="n">
         <v>31430745444.391</v>
       </c>
-      <c r="AN14" s="4" t="n">
+      <c r="AN14" s="2" t="n">
         <v>22944113201.5268</v>
       </c>
-      <c r="AO14" s="4" t="n">
+      <c r="AO14" s="2" t="n">
         <v>44454230994.1471</v>
       </c>
       <c r="AP14" s="1" t="n">
@@ -2357,85 +2375,85 @@
       <c r="N15" t="s">
         <v>51</v>
       </c>
-      <c r="O15" s="4" t="n">
+      <c r="O15" s="2" t="n">
         <v>967068175.311544</v>
       </c>
-      <c r="P15" s="4" t="n">
+      <c r="P15" s="2" t="n">
         <v>1098202532.69398</v>
       </c>
-      <c r="Q15" s="4" t="n">
+      <c r="Q15" s="2" t="n">
         <v>1109974745.10026</v>
       </c>
-      <c r="R15" s="4" t="n">
+      <c r="R15" s="2" t="n">
         <v>1325340662.84486</v>
       </c>
-      <c r="S15" s="4" t="n">
+      <c r="S15" s="2" t="n">
         <v>929709084.856146</v>
       </c>
-      <c r="T15" s="4" t="n">
+      <c r="T15" s="2" t="n">
         <v>1201644234.98612</v>
       </c>
-      <c r="U15" s="4" t="n">
+      <c r="U15" s="2" t="n">
         <v>1292895138.14582</v>
       </c>
-      <c r="V15" s="4" t="n">
+      <c r="V15" s="2" t="n">
         <v>1373921411.24054</v>
       </c>
-      <c r="W15" s="4" t="n">
+      <c r="W15" s="2" t="n">
         <v>1641818143.09058</v>
       </c>
-      <c r="X15" s="4" t="n">
+      <c r="X15" s="2" t="n">
         <v>1350120560.37393</v>
       </c>
-      <c r="Y15" s="4" t="n">
+      <c r="Y15" s="2" t="n">
         <v>1396481831.4792</v>
       </c>
-      <c r="Z15" s="4" t="n">
+      <c r="Z15" s="2" t="n">
         <v>1466778800.2895</v>
       </c>
-      <c r="AA15" s="4" t="n">
+      <c r="AA15" s="2" t="n">
         <v>1293098645.83112</v>
       </c>
-      <c r="AB15" s="4" t="n">
+      <c r="AB15" s="2" t="n">
         <v>1546888031.87515</v>
       </c>
-      <c r="AC15" s="4" t="n">
+      <c r="AC15" s="2" t="n">
         <v>1495181279.00056</v>
       </c>
-      <c r="AD15" s="4" t="n">
+      <c r="AD15" s="2" t="n">
         <v>1503359792.78335</v>
       </c>
-      <c r="AE15" s="4" t="n">
+      <c r="AE15" s="2" t="n">
         <v>1557815046.25598</v>
       </c>
-      <c r="AF15" s="4" t="n">
+      <c r="AF15" s="2" t="n">
         <v>1597891648.74513</v>
       </c>
-      <c r="AG15" s="4" t="n">
+      <c r="AG15" s="2" t="n">
         <v>1999580557.34148</v>
       </c>
-      <c r="AH15" s="4" t="n">
+      <c r="AH15" s="2" t="n">
         <v>2048360853.44286</v>
       </c>
-      <c r="AI15" s="4" t="n">
+      <c r="AI15" s="2" t="n">
         <v>1404995617.20437</v>
       </c>
-      <c r="AJ15" s="4" t="n">
+      <c r="AJ15" s="2" t="n">
         <v>1254881146.32632</v>
       </c>
-      <c r="AK15" s="4" t="n">
+      <c r="AK15" s="2" t="n">
         <v>1213588753.03846</v>
       </c>
-      <c r="AL15" s="4" t="n">
+      <c r="AL15" s="2" t="n">
         <v>679414620.99</v>
       </c>
-      <c r="AM15" s="4" t="n">
+      <c r="AM15" s="2" t="n">
         <v>814298405.523666</v>
       </c>
-      <c r="AN15" s="4" t="n">
+      <c r="AN15" s="2" t="n">
         <v>403975196.55972</v>
       </c>
-      <c r="AO15" s="4" t="n">
+      <c r="AO15" s="2" t="n">
         <v>1201644234.98612</v>
       </c>
       <c r="AP15" s="1" t="n">
@@ -2513,85 +2531,85 @@
       <c r="N16" t="s">
         <v>53</v>
       </c>
-      <c r="O16" s="4" t="n">
+      <c r="O16" s="2" t="n">
         <v>26813108.3906972</v>
       </c>
-      <c r="P16" s="4" t="n">
+      <c r="P16" s="2" t="n">
         <v>5873219.87405304</v>
       </c>
-      <c r="Q16" s="4" t="n">
+      <c r="Q16" s="2" t="n">
         <v>34398683.3898882</v>
       </c>
-      <c r="R16" s="4" t="n">
+      <c r="R16" s="2" t="n">
         <v>43864164.4255786</v>
       </c>
-      <c r="S16" s="4" t="n">
+      <c r="S16" s="2" t="n">
         <v>600882.696574249</v>
       </c>
-      <c r="T16" s="4" t="n">
+      <c r="T16" s="2" t="n">
         <v>8046364.24876323</v>
       </c>
-      <c r="U16" s="4" t="n">
+      <c r="U16" s="2" t="n">
         <v>7752009.01659559</v>
       </c>
-      <c r="V16" s="4" t="n">
+      <c r="V16" s="2" t="n">
         <v>3429964.13129778</v>
       </c>
-      <c r="W16" s="4" t="n">
+      <c r="W16" s="2" t="n">
         <v>60040020.2575172</v>
       </c>
-      <c r="X16" s="4" t="n">
+      <c r="X16" s="2" t="n">
         <v>40026719.0742517</v>
       </c>
-      <c r="Y16" s="4" t="n">
+      <c r="Y16" s="2" t="n">
         <v>225245696.146174</v>
       </c>
-      <c r="Z16" s="4" t="n">
+      <c r="Z16" s="2" t="n">
         <v>1931427437.63762</v>
       </c>
-      <c r="AA16" s="4" t="n">
+      <c r="AA16" s="2" t="n">
         <v>4588868851.52299</v>
       </c>
-      <c r="AB16" s="4" t="n">
+      <c r="AB16" s="2" t="n">
         <v>6101420339.44821</v>
       </c>
-      <c r="AC16" s="4" t="n">
+      <c r="AC16" s="2" t="n">
         <v>5785057453.92523</v>
       </c>
-      <c r="AD16" s="4" t="n">
+      <c r="AD16" s="2" t="n">
         <v>6921403517.99096</v>
       </c>
-      <c r="AE16" s="4" t="n">
+      <c r="AE16" s="2" t="n">
         <v>6972758970.40445</v>
       </c>
-      <c r="AF16" s="4" t="n">
+      <c r="AF16" s="2" t="n">
         <v>8828928722.13656</v>
       </c>
-      <c r="AG16" s="4" t="n">
+      <c r="AG16" s="2" t="n">
         <v>11411072528.7232</v>
       </c>
-      <c r="AH16" s="4" t="n">
+      <c r="AH16" s="2" t="n">
         <v>10042547923.6234</v>
       </c>
-      <c r="AI16" s="4" t="n">
+      <c r="AI16" s="2" t="n">
         <v>8128310900.5723</v>
       </c>
-      <c r="AJ16" s="4" t="n">
+      <c r="AJ16" s="2" t="n">
         <v>9278993824.8279</v>
       </c>
-      <c r="AK16" s="4" t="n">
+      <c r="AK16" s="2" t="n">
         <v>9650870166.20285</v>
       </c>
-      <c r="AL16" s="4" t="n">
+      <c r="AL16" s="2" t="n">
         <v>9276520909.1715</v>
       </c>
-      <c r="AM16" s="4" t="n">
+      <c r="AM16" s="2" t="n">
         <v>8680909428.16241</v>
       </c>
-      <c r="AN16" s="4" t="n">
+      <c r="AN16" s="2" t="n">
         <v>3294644096.93774</v>
       </c>
-      <c r="AO16" s="4" t="n">
+      <c r="AO16" s="2" t="n">
         <v>8046364.24876323</v>
       </c>
       <c r="AP16" s="1" t="n">
@@ -2669,85 +2687,85 @@
       <c r="N17" t="s">
         <v>54</v>
       </c>
-      <c r="O17" s="4" t="n">
+      <c r="O17" s="2" t="n">
         <v>207749581.247868</v>
       </c>
-      <c r="P17" s="4" t="n">
+      <c r="P17" s="2" t="n">
         <v>126971375.660125</v>
       </c>
-      <c r="Q17" s="4" t="n">
+      <c r="Q17" s="2" t="n">
         <v>231145754.821671</v>
       </c>
-      <c r="R17" s="4" t="n">
+      <c r="R17" s="2" t="n">
         <v>319538974.642443</v>
       </c>
-      <c r="S17" s="4" t="n">
+      <c r="S17" s="2" t="n">
         <v>373338398.088778</v>
       </c>
-      <c r="T17" s="4" t="n">
+      <c r="T17" s="2" t="n">
         <v>374716669.465099</v>
       </c>
-      <c r="U17" s="4" t="n">
+      <c r="U17" s="2" t="n">
         <v>223712081.301791</v>
       </c>
-      <c r="V17" s="4" t="n">
+      <c r="V17" s="2" t="n">
         <v>300094651.846279</v>
       </c>
-      <c r="W17" s="4" t="n">
+      <c r="W17" s="2" t="n">
         <v>361504076.897354</v>
       </c>
-      <c r="X17" s="4" t="n">
+      <c r="X17" s="2" t="n">
         <v>259616684.162657</v>
       </c>
-      <c r="Y17" s="4" t="n">
+      <c r="Y17" s="2" t="n">
         <v>296497042.865685</v>
       </c>
-      <c r="Z17" s="4" t="n">
+      <c r="Z17" s="2" t="n">
         <v>358577595.923902</v>
       </c>
-      <c r="AA17" s="4" t="n">
+      <c r="AA17" s="2" t="n">
         <v>296710288.870477</v>
       </c>
-      <c r="AB17" s="4" t="n">
+      <c r="AB17" s="2" t="n">
         <v>212982651.141541</v>
       </c>
-      <c r="AC17" s="4" t="n">
+      <c r="AC17" s="2" t="n">
         <v>171029983.696462</v>
       </c>
-      <c r="AD17" s="4" t="n">
+      <c r="AD17" s="2" t="n">
         <v>145833930.419294</v>
       </c>
-      <c r="AE17" s="4" t="n">
+      <c r="AE17" s="2" t="n">
         <v>200133519.22341</v>
       </c>
-      <c r="AF17" s="4" t="n">
+      <c r="AF17" s="2" t="n">
         <v>137101675.580061</v>
       </c>
-      <c r="AG17" s="4" t="n">
+      <c r="AG17" s="2" t="n">
         <v>169696861.015211</v>
       </c>
-      <c r="AH17" s="4" t="n">
+      <c r="AH17" s="2" t="n">
         <v>240401980.847396</v>
       </c>
-      <c r="AI17" s="4" t="n">
+      <c r="AI17" s="2" t="n">
         <v>195236055.481987</v>
       </c>
-      <c r="AJ17" s="4" t="n">
+      <c r="AJ17" s="2" t="n">
         <v>187152143.344557</v>
       </c>
-      <c r="AK17" s="4" t="n">
+      <c r="AK17" s="2" t="n">
         <v>129670668.490102</v>
       </c>
-      <c r="AL17" s="4" t="n">
+      <c r="AL17" s="2" t="n">
         <v>84002534.7091</v>
       </c>
-      <c r="AM17" s="4" t="n">
+      <c r="AM17" s="2" t="n">
         <v>142002676.222825</v>
       </c>
-      <c r="AN17" s="4" t="n">
+      <c r="AN17" s="2" t="n">
         <v>23898093.6003672</v>
       </c>
-      <c r="AO17" s="4" t="n">
+      <c r="AO17" s="2" t="n">
         <v>374716669.465099</v>
       </c>
       <c r="AP17" s="1" t="n">
@@ -2825,85 +2843,85 @@
       <c r="N18" t="s">
         <v>55</v>
       </c>
-      <c r="O18" s="4" t="n">
+      <c r="O18" s="2" t="n">
         <v>1826065962.32081</v>
       </c>
-      <c r="P18" s="4" t="n">
+      <c r="P18" s="2" t="n">
         <v>1476748806.95738</v>
       </c>
-      <c r="Q18" s="4" t="n">
+      <c r="Q18" s="2" t="n">
         <v>1550346044.75602</v>
       </c>
-      <c r="R18" s="4" t="n">
+      <c r="R18" s="2" t="n">
         <v>2597169188.6354</v>
       </c>
-      <c r="S18" s="4" t="n">
+      <c r="S18" s="2" t="n">
         <v>2596868151.07615</v>
       </c>
-      <c r="T18" s="4" t="n">
+      <c r="T18" s="2" t="n">
         <v>2767641670.85523</v>
       </c>
-      <c r="U18" s="4" t="n">
+      <c r="U18" s="2" t="n">
         <v>3689371514.35873</v>
       </c>
-      <c r="V18" s="4" t="n">
+      <c r="V18" s="2" t="n">
         <v>3650768461.20846</v>
       </c>
-      <c r="W18" s="4" t="n">
+      <c r="W18" s="2" t="n">
         <v>3294076075.26215</v>
       </c>
-      <c r="X18" s="4" t="n">
+      <c r="X18" s="2" t="n">
         <v>3859868947.87378</v>
       </c>
-      <c r="Y18" s="4" t="n">
+      <c r="Y18" s="2" t="n">
         <v>3778274422.4686</v>
       </c>
-      <c r="Z18" s="4" t="n">
+      <c r="Z18" s="2" t="n">
         <v>3269751918.71836</v>
       </c>
-      <c r="AA18" s="4" t="n">
+      <c r="AA18" s="2" t="n">
         <v>2600699929.388</v>
       </c>
-      <c r="AB18" s="4" t="n">
+      <c r="AB18" s="2" t="n">
         <v>2113651059.77182</v>
       </c>
-      <c r="AC18" s="4" t="n">
+      <c r="AC18" s="2" t="n">
         <v>2059884551.69524</v>
       </c>
-      <c r="AD18" s="4" t="n">
+      <c r="AD18" s="2" t="n">
         <v>2095180912.26795</v>
       </c>
-      <c r="AE18" s="4" t="n">
+      <c r="AE18" s="2" t="n">
         <v>2544268888.33053</v>
       </c>
-      <c r="AF18" s="4" t="n">
+      <c r="AF18" s="2" t="n">
         <v>2468727230.80017</v>
       </c>
-      <c r="AG18" s="4" t="n">
+      <c r="AG18" s="2" t="n">
         <v>2244082419.61665</v>
       </c>
-      <c r="AH18" s="4" t="n">
+      <c r="AH18" s="2" t="n">
         <v>2623258243.47768</v>
       </c>
-      <c r="AI18" s="4" t="n">
+      <c r="AI18" s="2" t="n">
         <v>2879887896.91054</v>
       </c>
-      <c r="AJ18" s="4" t="n">
+      <c r="AJ18" s="2" t="n">
         <v>2654935301.59013</v>
       </c>
-      <c r="AK18" s="4" t="n">
+      <c r="AK18" s="2" t="n">
         <v>2660131597.38531</v>
       </c>
-      <c r="AL18" s="4" t="n">
+      <c r="AL18" s="2" t="n">
         <v>2900505982.4097</v>
       </c>
-      <c r="AM18" s="4" t="n">
+      <c r="AM18" s="2" t="n">
         <v>3145620803.73296</v>
       </c>
-      <c r="AN18" s="4" t="n">
+      <c r="AN18" s="2" t="n">
         <v>1359699835.50267</v>
       </c>
-      <c r="AO18" s="4" t="n">
+      <c r="AO18" s="2" t="n">
         <v>2767641670.85523</v>
       </c>
       <c r="AP18" s="1" t="n">
@@ -2981,85 +2999,85 @@
       <c r="N19" t="s">
         <v>56</v>
       </c>
-      <c r="O19" s="4" t="n">
+      <c r="O19" s="2" t="n">
         <v>15684016318.5316</v>
       </c>
-      <c r="P19" s="4" t="n">
+      <c r="P19" s="2" t="n">
         <v>17655391737.0195</v>
       </c>
-      <c r="Q19" s="4" t="n">
+      <c r="Q19" s="2" t="n">
         <v>18479684439.8471</v>
       </c>
-      <c r="R19" s="4" t="n">
+      <c r="R19" s="2" t="n">
         <v>22376077087.8133</v>
       </c>
-      <c r="S19" s="4" t="n">
+      <c r="S19" s="2" t="n">
         <v>22450736123.7216</v>
       </c>
-      <c r="T19" s="4" t="n">
+      <c r="T19" s="2" t="n">
         <v>23126334983.4507</v>
       </c>
-      <c r="U19" s="4" t="n">
+      <c r="U19" s="2" t="n">
         <v>24205492736.0404</v>
       </c>
-      <c r="V19" s="4" t="n">
+      <c r="V19" s="2" t="n">
         <v>26727503709.2742</v>
       </c>
-      <c r="W19" s="4" t="n">
+      <c r="W19" s="2" t="n">
         <v>28758613908.2458</v>
       </c>
-      <c r="X19" s="4" t="n">
+      <c r="X19" s="2" t="n">
         <v>30946978405.4201</v>
       </c>
-      <c r="Y19" s="4" t="n">
+      <c r="Y19" s="2" t="n">
         <v>33196936107.6344</v>
       </c>
-      <c r="Z19" s="4" t="n">
+      <c r="Z19" s="2" t="n">
         <v>29535082303.1878</v>
       </c>
-      <c r="AA19" s="4" t="n">
+      <c r="AA19" s="2" t="n">
         <v>31020979567.106</v>
       </c>
-      <c r="AB19" s="4" t="n">
+      <c r="AB19" s="2" t="n">
         <v>22049516464.803</v>
       </c>
-      <c r="AC19" s="4" t="n">
+      <c r="AC19" s="2" t="n">
         <v>19668604612.5615</v>
       </c>
-      <c r="AD19" s="4" t="n">
+      <c r="AD19" s="2" t="n">
         <v>18682153735.3473</v>
       </c>
-      <c r="AE19" s="4" t="n">
+      <c r="AE19" s="2" t="n">
         <v>19885088360.3754</v>
       </c>
-      <c r="AF19" s="4" t="n">
+      <c r="AF19" s="2" t="n">
         <v>23297735817.2783</v>
       </c>
-      <c r="AG19" s="4" t="n">
+      <c r="AG19" s="2" t="n">
         <v>27925487138.3422</v>
       </c>
-      <c r="AH19" s="4" t="n">
+      <c r="AH19" s="2" t="n">
         <v>30337382815.0468</v>
       </c>
-      <c r="AI19" s="4" t="n">
+      <c r="AI19" s="2" t="n">
         <v>38427209482.5666</v>
       </c>
-      <c r="AJ19" s="4" t="n">
+      <c r="AJ19" s="2" t="n">
         <v>30245689170.404</v>
       </c>
-      <c r="AK19" s="4" t="n">
+      <c r="AK19" s="2" t="n">
         <v>27347446664.7342</v>
       </c>
-      <c r="AL19" s="4" t="n">
+      <c r="AL19" s="2" t="n">
         <v>30777027189.8927</v>
       </c>
-      <c r="AM19" s="4" t="n">
+      <c r="AM19" s="2" t="n">
         <v>27722582763.3529</v>
       </c>
-      <c r="AN19" s="4" t="n">
+      <c r="AN19" s="2" t="n">
         <v>12283958448.59</v>
       </c>
-      <c r="AO19" s="4" t="n">
+      <c r="AO19" s="2" t="n">
         <v>23126334983.4507</v>
       </c>
       <c r="AP19" s="1" t="n">
@@ -3137,67 +3155,67 @@
       <c r="N20" t="s">
         <v>57</v>
       </c>
-      <c r="O20" s="4" t="n">
+      <c r="O20" s="2" t="n">
         <v>172937629.710576</v>
       </c>
-      <c r="P20" s="4" t="n">
+      <c r="P20" s="2" t="n">
         <v>235834465.22392</v>
       </c>
-      <c r="Q20" s="4" t="n">
+      <c r="Q20" s="2" t="n">
         <v>138196433.137222</v>
       </c>
-      <c r="R20" s="4" t="n">
+      <c r="R20" s="2" t="n">
         <v>26632861.2519069</v>
       </c>
-      <c r="S20" s="4" t="n">
+      <c r="S20" s="2" t="n">
         <v>84413686.489484</v>
       </c>
-      <c r="T20" s="4" t="n">
+      <c r="T20" s="2" t="n">
         <v>8323585.83023936</v>
       </c>
-      <c r="U20" s="4" t="n">
+      <c r="U20" s="2" t="n">
         <v>2553011.17012511</v>
       </c>
-      <c r="V20" s="4" t="n">
+      <c r="V20" s="2" t="n">
         <v>3085727.48668454</v>
       </c>
-      <c r="W20" s="4" t="n">
+      <c r="W20" s="2" t="n">
         <v>-17042.5867402221</v>
       </c>
-      <c r="X20" s="4" t="n">
+      <c r="X20" s="2" t="n">
         <v>-2256.61312096531</v>
       </c>
-      <c r="Y20" s="4" t="n">
+      <c r="Y20" s="2" t="n">
         <v>34719.170077105</v>
       </c>
-      <c r="Z20" s="4"/>
-      <c r="AA20" s="4"/>
-      <c r="AB20" s="4" t="n">
+      <c r="Z20" s="2"/>
+      <c r="AA20" s="2"/>
+      <c r="AB20" s="2" t="n">
         <v>29831.9874115</v>
       </c>
-      <c r="AC20" s="4" t="n">
+      <c r="AC20" s="2" t="n">
         <v>58813.5687252362</v>
       </c>
-      <c r="AD20" s="4"/>
-      <c r="AE20" s="4"/>
-      <c r="AF20" s="4" t="n">
+      <c r="AD20" s="2"/>
+      <c r="AE20" s="2"/>
+      <c r="AF20" s="2" t="n">
         <v>10038.6708360684</v>
       </c>
-      <c r="AG20" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH20" s="4"/>
-      <c r="AI20" s="4" t="n">
+      <c r="AG20" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH20" s="2"/>
+      <c r="AI20" s="2" t="n">
         <v>2299.20297491268</v>
       </c>
-      <c r="AJ20" s="4"/>
-      <c r="AK20" s="4" t="n">
+      <c r="AJ20" s="2"/>
+      <c r="AK20" s="2" t="n">
         <v>888.884605510837</v>
       </c>
-      <c r="AL20" s="4"/>
-      <c r="AM20" s="4"/>
-      <c r="AN20" s="4"/>
-      <c r="AO20" s="4" t="n">
+      <c r="AL20" s="2"/>
+      <c r="AM20" s="2"/>
+      <c r="AN20" s="2"/>
+      <c r="AO20" s="2" t="n">
         <v>8323585.83023936</v>
       </c>
       <c r="AP20" s="1" t="n">
@@ -3253,51 +3271,51 @@
       </c>
       <c r="M21"/>
       <c r="N21"/>
-      <c r="O21" s="4"/>
-      <c r="P21" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q21" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="R21" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="S21" s="4"/>
-      <c r="T21" s="4"/>
-      <c r="U21" s="4"/>
-      <c r="V21" s="4"/>
-      <c r="W21" s="4"/>
-      <c r="X21" s="4"/>
-      <c r="Y21" s="4"/>
-      <c r="Z21" s="4"/>
-      <c r="AA21" s="4"/>
-      <c r="AB21" s="4"/>
-      <c r="AC21" s="4"/>
-      <c r="AD21" s="4"/>
-      <c r="AE21" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF21" s="4"/>
-      <c r="AG21" s="4"/>
-      <c r="AH21" s="4"/>
-      <c r="AI21" s="4"/>
-      <c r="AJ21" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK21" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL21" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM21" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN21" s="4" t="n">
+      <c r="O21" s="2"/>
+      <c r="P21" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R21" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S21" s="2"/>
+      <c r="T21" s="2"/>
+      <c r="U21" s="2"/>
+      <c r="V21" s="2"/>
+      <c r="W21" s="2"/>
+      <c r="X21" s="2"/>
+      <c r="Y21" s="2"/>
+      <c r="Z21" s="2"/>
+      <c r="AA21" s="2"/>
+      <c r="AB21" s="2"/>
+      <c r="AC21" s="2"/>
+      <c r="AD21" s="2"/>
+      <c r="AE21" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF21" s="2"/>
+      <c r="AG21" s="2"/>
+      <c r="AH21" s="2"/>
+      <c r="AI21" s="2"/>
+      <c r="AJ21" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK21" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL21" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM21" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN21" s="2" t="n">
         <v>-7773.53730666113</v>
       </c>
-      <c r="AO21" s="4"/>
+      <c r="AO21" s="2"/>
       <c r="AP21" s="1"/>
       <c r="AQ21" s="1"/>
       <c r="AR21" s="1"/>
@@ -3339,33 +3357,33 @@
       <c r="B22" t="str">
         <f>N22</f>
       </c>
-      <c r="O22" s="4"/>
-      <c r="P22" s="4"/>
-      <c r="Q22" s="4"/>
-      <c r="R22" s="4"/>
-      <c r="S22" s="4"/>
-      <c r="T22" s="4"/>
-      <c r="U22" s="4"/>
-      <c r="V22" s="4"/>
-      <c r="W22" s="4"/>
-      <c r="X22" s="4"/>
-      <c r="Y22" s="4"/>
-      <c r="Z22" s="4"/>
-      <c r="AA22" s="4"/>
-      <c r="AB22" s="4"/>
-      <c r="AC22" s="4"/>
-      <c r="AD22" s="4"/>
-      <c r="AE22" s="4"/>
-      <c r="AF22" s="4"/>
-      <c r="AG22" s="4"/>
-      <c r="AH22" s="4"/>
-      <c r="AI22" s="4"/>
-      <c r="AJ22" s="4"/>
-      <c r="AK22" s="4"/>
-      <c r="AL22" s="4"/>
-      <c r="AM22" s="4"/>
-      <c r="AN22" s="4"/>
-      <c r="AO22" s="4"/>
+      <c r="O22" s="2"/>
+      <c r="P22" s="2"/>
+      <c r="Q22" s="2"/>
+      <c r="R22" s="2"/>
+      <c r="S22" s="2"/>
+      <c r="T22" s="2"/>
+      <c r="U22" s="2"/>
+      <c r="V22" s="2"/>
+      <c r="W22" s="2"/>
+      <c r="X22" s="2"/>
+      <c r="Y22" s="2"/>
+      <c r="Z22" s="2"/>
+      <c r="AA22" s="2"/>
+      <c r="AB22" s="2"/>
+      <c r="AC22" s="2"/>
+      <c r="AD22" s="2"/>
+      <c r="AE22" s="2"/>
+      <c r="AF22" s="2"/>
+      <c r="AG22" s="2"/>
+      <c r="AH22" s="2"/>
+      <c r="AI22" s="2"/>
+      <c r="AJ22" s="2"/>
+      <c r="AK22" s="2"/>
+      <c r="AL22" s="2"/>
+      <c r="AM22" s="2"/>
+      <c r="AN22" s="2"/>
+      <c r="AO22" s="2"/>
       <c r="AP22" s="1"/>
       <c r="AQ22" s="1"/>
       <c r="AR22" s="1"/>
@@ -3510,1788 +3528,83 @@
       <c r="O2" t="s">
         <v>50</v>
       </c>
-      <c r="P2" s="2" t="n">
+      <c r="P2" s="3" t="n">
         <v>24580435226.64</v>
       </c>
-      <c r="Q2" s="2" t="n">
+      <c r="Q2" s="3" t="n">
         <v>24106302588.46</v>
       </c>
-      <c r="R2" s="2" t="n">
+      <c r="R2" s="3" t="n">
         <v>26106954283.46</v>
       </c>
-      <c r="S2" s="2" t="n">
+      <c r="S2" s="3" t="n">
         <v>32922914808.31</v>
       </c>
-      <c r="T2" s="2" t="n">
+      <c r="T2" s="3" t="n">
         <v>31290054553.94</v>
       </c>
-      <c r="U2" s="2" t="n">
+      <c r="U2" s="3" t="n">
         <v>29596095280.92</v>
       </c>
-      <c r="V2" s="2" t="n">
+      <c r="V2" s="3" t="n">
         <v>34712294227.77</v>
       </c>
-      <c r="W2" s="2" t="n">
+      <c r="W2" s="3" t="n">
         <v>38842437992.72</v>
       </c>
-      <c r="X2" s="2" t="n">
+      <c r="X2" s="3" t="n">
         <v>43480407282.98</v>
       </c>
-      <c r="Y2" s="2" t="n">
+      <c r="Y2" s="3" t="n">
         <v>40718477015.63</v>
       </c>
-      <c r="Z2" s="2" t="n">
+      <c r="Z2" s="3" t="n">
         <v>37073459260.8586</v>
       </c>
-      <c r="AA2" s="2" t="n">
+      <c r="AA2" s="3" t="n">
         <v>44860435750.1891</v>
       </c>
-      <c r="AB2" s="2" t="n">
+      <c r="AB2" s="3" t="n">
         <v>49417426796.5723</v>
       </c>
-      <c r="AC2" s="2" t="n">
+      <c r="AC2" s="3" t="n">
         <v>50005122566.4256</v>
       </c>
-      <c r="AD2" s="2" t="n">
+      <c r="AD2" s="3" t="n">
         <v>36049980655.0231</v>
       </c>
-      <c r="AE2" s="2" t="n">
+      <c r="AE2" s="3" t="n">
         <v>39541344351.1707</v>
       </c>
-      <c r="AF2" s="2" t="n">
+      <c r="AF2" s="3" t="n">
         <v>51518893786.0678</v>
       </c>
-      <c r="AG2" s="2" t="n">
+      <c r="AG2" s="3" t="n">
         <v>57851065824.5591</v>
       </c>
-      <c r="AH2" s="2" t="n">
+      <c r="AH2" s="3" t="n">
         <v>49014898965.83</v>
       </c>
-      <c r="AI2" s="2" t="n">
+      <c r="AI2" s="3" t="n">
         <v>53003631595.12</v>
       </c>
-      <c r="AJ2" s="2" t="n">
+      <c r="AJ2" s="3" t="n">
         <v>63030431796.26</v>
       </c>
-      <c r="AK2" s="2" t="n">
+      <c r="AK2" s="3" t="n">
         <v>35766995695.49</v>
       </c>
-      <c r="AL2" s="2" t="n">
+      <c r="AL2" s="3" t="n">
         <v>38134159314.82</v>
       </c>
-      <c r="AM2" s="2" t="n">
+      <c r="AM2" s="3" t="n">
         <v>55594750528.27</v>
       </c>
-      <c r="AN2" s="2" t="n">
+      <c r="AN2" s="3" t="n">
         <v>32270134555.06</v>
       </c>
-      <c r="AO2" s="2" t="n">
+      <c r="AO2" s="3" t="n">
         <v>24073744726.32</v>
-      </c>
-      <c r="AP2" s="2"/>
-    </row>
-    <row r="3">
-      <c r="A3" t="str">
-        <f>N3</f>
-      </c>
-      <c r="B3" t="str">
-        <f>O3</f>
-      </c>
-      <c r="N3" t="s">
-        <v>49</v>
-      </c>
-      <c r="O3" t="s">
-        <v>51</v>
-      </c>
-      <c r="P3" s="2" t="n">
-        <v>575234048</v>
-      </c>
-      <c r="Q3" s="2" t="n">
-        <v>669069569.94</v>
-      </c>
-      <c r="R3" s="2" t="n">
-        <v>686880414.67</v>
-      </c>
-      <c r="S3" s="2" t="n">
-        <v>835897253.19</v>
-      </c>
-      <c r="T3" s="2" t="n">
-        <v>600689403.78</v>
-      </c>
-      <c r="U3" s="2" t="n">
-        <v>800013327.8</v>
-      </c>
-      <c r="V3" s="2" t="n">
-        <v>888726395.39</v>
-      </c>
-      <c r="W3" s="2" t="n">
-        <v>970422741.45</v>
-      </c>
-      <c r="X3" s="2" t="n">
-        <v>1183717660.62</v>
-      </c>
-      <c r="Y3" s="2" t="n">
-        <v>983363800.21</v>
-      </c>
-      <c r="Z3" s="2" t="n">
-        <v>1025939958.163</v>
-      </c>
-      <c r="AA3" s="2" t="n">
-        <v>1099212948.0185</v>
-      </c>
-      <c r="AB3" s="2" t="n">
-        <v>986640516.3149</v>
-      </c>
-      <c r="AC3" s="2" t="n">
-        <v>1201698960.5381</v>
-      </c>
-      <c r="AD3" s="2" t="n">
-        <v>1182720605.3701</v>
-      </c>
-      <c r="AE3" s="2" t="n">
-        <v>1201505540.9714</v>
-      </c>
-      <c r="AF3" s="2" t="n">
-        <v>1254981007.4817</v>
-      </c>
-      <c r="AG3" s="2" t="n">
-        <v>1308996189.4308</v>
-      </c>
-      <c r="AH3" s="2" t="n">
-        <v>1674425531.59</v>
-      </c>
-      <c r="AI3" s="2" t="n">
-        <v>1746988190.09</v>
-      </c>
-      <c r="AJ3" s="2" t="n">
-        <v>1213933708.27</v>
-      </c>
-      <c r="AK3" s="2" t="n">
-        <v>1121549382.03</v>
-      </c>
-      <c r="AL3" s="2" t="n">
-        <v>1160499837.31</v>
-      </c>
-      <c r="AM3" s="2" t="n">
-        <v>679414620.99</v>
-      </c>
-      <c r="AN3" s="2" t="n">
-        <v>836045048.97</v>
-      </c>
-      <c r="AO3" s="2" t="n">
-        <v>423864529.97</v>
-      </c>
-      <c r="AP3" s="2"/>
-    </row>
-    <row r="4">
-      <c r="A4" t="str">
-        <f>N4</f>
-      </c>
-      <c r="B4" t="str">
-        <f>O4</f>
-      </c>
-      <c r="N4" t="s">
-        <v>52</v>
-      </c>
-      <c r="O4" t="s">
-        <v>53</v>
-      </c>
-      <c r="P4" s="2" t="n">
-        <v>15949044</v>
-      </c>
-      <c r="Q4" s="2" t="n">
-        <v>3578204</v>
-      </c>
-      <c r="R4" s="2" t="n">
-        <v>21286774.33</v>
-      </c>
-      <c r="S4" s="2" t="n">
-        <v>27665290.5813</v>
-      </c>
-      <c r="T4" s="2" t="n">
-        <v>388233.1308</v>
-      </c>
-      <c r="U4" s="2" t="n">
-        <v>5356992.0713</v>
-      </c>
-      <c r="V4" s="2" t="n">
-        <v>5328672.7029</v>
-      </c>
-      <c r="W4" s="2" t="n">
-        <v>2422638.71</v>
-      </c>
-      <c r="X4" s="2" t="n">
-        <v>43287639.7559</v>
-      </c>
-      <c r="Y4" s="2" t="n">
-        <v>29153564.3068</v>
-      </c>
-      <c r="Z4" s="2" t="n">
-        <v>165479102.4641</v>
-      </c>
-      <c r="AA4" s="2" t="n">
-        <v>1447423460.9816</v>
-      </c>
-      <c r="AB4" s="2" t="n">
-        <v>3501329111.7152</v>
-      </c>
-      <c r="AC4" s="2" t="n">
-        <v>4739884418.6757</v>
-      </c>
-      <c r="AD4" s="2" t="n">
-        <v>4576105085.1177</v>
-      </c>
-      <c r="AE4" s="2" t="n">
-        <v>5531679587.3385</v>
-      </c>
-      <c r="AF4" s="2" t="n">
-        <v>5617277929.5183</v>
-      </c>
-      <c r="AG4" s="2" t="n">
-        <v>7232676923.4378</v>
-      </c>
-      <c r="AH4" s="2" t="n">
-        <v>9555499584.5343</v>
-      </c>
-      <c r="AI4" s="2" t="n">
-        <v>8565000933.0606</v>
-      </c>
-      <c r="AJ4" s="2" t="n">
-        <v>7022961831.8218</v>
-      </c>
-      <c r="AK4" s="2" t="n">
-        <v>8293095980.0951</v>
-      </c>
-      <c r="AL4" s="2" t="n">
-        <v>9228689067.6412</v>
-      </c>
-      <c r="AM4" s="2" t="n">
-        <v>9276520909.1715</v>
-      </c>
-      <c r="AN4" s="2" t="n">
-        <v>8912741691.18</v>
-      </c>
-      <c r="AO4" s="2" t="n">
-        <v>3456852755.96</v>
-      </c>
-      <c r="AP4" s="2"/>
-    </row>
-    <row r="5">
-      <c r="A5" t="str">
-        <f>N5</f>
-      </c>
-      <c r="B5" t="str">
-        <f>O5</f>
-      </c>
-      <c r="N5" t="s">
-        <v>52</v>
-      </c>
-      <c r="O5" t="s">
-        <v>54</v>
-      </c>
-      <c r="P5" s="2" t="n">
-        <v>123574155</v>
-      </c>
-      <c r="Q5" s="2" t="n">
-        <v>77356117.09</v>
-      </c>
-      <c r="R5" s="2" t="n">
-        <v>143038832.75</v>
-      </c>
-      <c r="S5" s="2" t="n">
-        <v>201534412.0035</v>
-      </c>
-      <c r="T5" s="2" t="n">
-        <v>241215691.4556</v>
-      </c>
-      <c r="U5" s="2" t="n">
-        <v>249473447.2923</v>
-      </c>
-      <c r="V5" s="2" t="n">
-        <v>153778002.372</v>
-      </c>
-      <c r="W5" s="2" t="n">
-        <v>211961668.518</v>
-      </c>
-      <c r="X5" s="2" t="n">
-        <v>260637124.7695</v>
-      </c>
-      <c r="Y5" s="2" t="n">
-        <v>189092483.019</v>
-      </c>
-      <c r="Z5" s="2" t="n">
-        <v>217824648.2669</v>
-      </c>
-      <c r="AA5" s="2" t="n">
-        <v>268720229.82</v>
-      </c>
-      <c r="AB5" s="2" t="n">
-        <v>226391384.409</v>
-      </c>
-      <c r="AC5" s="2" t="n">
-        <v>165455433.8876</v>
-      </c>
-      <c r="AD5" s="2" t="n">
-        <v>135288401.9449</v>
-      </c>
-      <c r="AE5" s="2" t="n">
-        <v>116552455.5742</v>
-      </c>
-      <c r="AF5" s="2" t="n">
-        <v>161228231.9326</v>
-      </c>
-      <c r="AG5" s="2" t="n">
-        <v>112313980.1374</v>
-      </c>
-      <c r="AH5" s="2" t="n">
-        <v>142102180.2154</v>
-      </c>
-      <c r="AI5" s="2" t="n">
-        <v>205031950.6491</v>
-      </c>
-      <c r="AJ5" s="2" t="n">
-        <v>168686383.0158</v>
-      </c>
-      <c r="AK5" s="2" t="n">
-        <v>167267132.2923</v>
-      </c>
-      <c r="AL5" s="2" t="n">
-        <v>123998174.2661</v>
-      </c>
-      <c r="AM5" s="2" t="n">
-        <v>84002534.7091</v>
-      </c>
-      <c r="AN5" s="2" t="n">
-        <v>145794997.99</v>
-      </c>
-      <c r="AO5" s="2" t="n">
-        <v>25074693.44</v>
-      </c>
-      <c r="AP5" s="2"/>
-    </row>
-    <row r="6">
-      <c r="A6" t="str">
-        <f>N6</f>
-      </c>
-      <c r="B6" t="str">
-        <f>O6</f>
-      </c>
-      <c r="N6" t="s">
-        <v>52</v>
-      </c>
-      <c r="O6" t="s">
-        <v>55</v>
-      </c>
-      <c r="P6" s="2" t="n">
-        <v>1086185382</v>
-      </c>
-      <c r="Q6" s="2" t="n">
-        <v>899695329.2</v>
-      </c>
-      <c r="R6" s="2" t="n">
-        <v>959393300.4375</v>
-      </c>
-      <c r="S6" s="2" t="n">
-        <v>1638044203.8125</v>
-      </c>
-      <c r="T6" s="2" t="n">
-        <v>1677848702.1094</v>
-      </c>
-      <c r="U6" s="2" t="n">
-        <v>1842600462.594</v>
-      </c>
-      <c r="V6" s="2" t="n">
-        <v>2536046234.8964</v>
-      </c>
-      <c r="W6" s="2" t="n">
-        <v>2578596351.6838</v>
-      </c>
-      <c r="X6" s="2" t="n">
-        <v>2374962197.9287</v>
-      </c>
-      <c r="Y6" s="2" t="n">
-        <v>2811345525.9451</v>
-      </c>
-      <c r="Z6" s="2" t="n">
-        <v>2775748753.4298</v>
-      </c>
-      <c r="AA6" s="2" t="n">
-        <v>2450371961.4397</v>
-      </c>
-      <c r="AB6" s="2" t="n">
-        <v>1984346615.3058</v>
-      </c>
-      <c r="AC6" s="2" t="n">
-        <v>1641988449.7969</v>
-      </c>
-      <c r="AD6" s="2" t="n">
-        <v>1629413060.6036</v>
-      </c>
-      <c r="AE6" s="2" t="n">
-        <v>1674497008.3088</v>
-      </c>
-      <c r="AF6" s="2" t="n">
-        <v>2049671519.3857</v>
-      </c>
-      <c r="AG6" s="2" t="n">
-        <v>2022386524.3925</v>
-      </c>
-      <c r="AH6" s="2" t="n">
-        <v>1879168550.9256</v>
-      </c>
-      <c r="AI6" s="2" t="n">
-        <v>2237301676.2203</v>
-      </c>
-      <c r="AJ6" s="2" t="n">
-        <v>2488259003.2948</v>
-      </c>
-      <c r="AK6" s="2" t="n">
-        <v>2372847066.4693</v>
-      </c>
-      <c r="AL6" s="2" t="n">
-        <v>2543763097.8861</v>
-      </c>
-      <c r="AM6" s="2" t="n">
-        <v>2900505982.4097</v>
-      </c>
-      <c r="AN6" s="2" t="n">
-        <v>3229627715.17</v>
-      </c>
-      <c r="AO6" s="2" t="n">
-        <v>1426643359.75</v>
-      </c>
-      <c r="AP6" s="2"/>
-    </row>
-    <row r="7">
-      <c r="A7" t="str">
-        <f>N7</f>
-      </c>
-      <c r="B7" t="str">
-        <f>O7</f>
-      </c>
-      <c r="N7" t="s">
-        <v>52</v>
-      </c>
-      <c r="O7" t="s">
-        <v>56</v>
-      </c>
-      <c r="P7" s="2" t="n">
-        <v>9329208039.4441</v>
-      </c>
-      <c r="Q7" s="2" t="n">
-        <v>10756381455.0968</v>
-      </c>
-      <c r="R7" s="2" t="n">
-        <v>11435695602.1251</v>
-      </c>
-      <c r="S7" s="2" t="n">
-        <v>14112674498.8887</v>
-      </c>
-      <c r="T7" s="2" t="n">
-        <v>14505525993.2919</v>
-      </c>
-      <c r="U7" s="2" t="n">
-        <v>15396716990.9833</v>
-      </c>
-      <c r="V7" s="2" t="n">
-        <v>16638673681.4488</v>
-      </c>
-      <c r="W7" s="2" t="n">
-        <v>18878064792.8399</v>
-      </c>
-      <c r="X7" s="2" t="n">
-        <v>20734378726.0514</v>
-      </c>
-      <c r="Y7" s="2" t="n">
-        <v>22540311719.5269</v>
-      </c>
-      <c r="Z7" s="2" t="n">
-        <v>24388475720.6835</v>
-      </c>
-      <c r="AA7" s="2" t="n">
-        <v>22133770192.2392</v>
-      </c>
-      <c r="AB7" s="2" t="n">
-        <v>23669157334.0961</v>
-      </c>
-      <c r="AC7" s="2" t="n">
-        <v>17129152511.447</v>
-      </c>
-      <c r="AD7" s="2" t="n">
-        <v>15558290008.6225</v>
-      </c>
-      <c r="AE7" s="2" t="n">
-        <v>14931030707.3871</v>
-      </c>
-      <c r="AF7" s="2" t="n">
-        <v>16019493639.0837</v>
-      </c>
-      <c r="AG7" s="2" t="n">
-        <v>19085554036.8664</v>
-      </c>
-      <c r="AH7" s="2" t="n">
-        <v>23384478547.1892</v>
-      </c>
-      <c r="AI7" s="2" t="n">
-        <v>25873883211.0788</v>
-      </c>
-      <c r="AJ7" s="2" t="n">
-        <v>33201587488.55</v>
-      </c>
-      <c r="AK7" s="2" t="n">
-        <v>27032069210.2557</v>
-      </c>
-      <c r="AL7" s="2" t="n">
-        <v>26151121890.1863</v>
-      </c>
-      <c r="AM7" s="2" t="n">
-        <v>30777027189.8927</v>
-      </c>
-      <c r="AN7" s="2" t="n">
-        <v>28462941725.96</v>
-      </c>
-      <c r="AO7" s="2" t="n">
-        <v>12888747423.91</v>
-      </c>
-      <c r="AP7" s="2"/>
-    </row>
-    <row r="8">
-      <c r="A8" t="str">
-        <f>N8</f>
-      </c>
-      <c r="B8" t="str">
-        <f>O8</f>
-      </c>
-      <c r="N8" t="s">
-        <v>52</v>
-      </c>
-      <c r="O8" t="s">
-        <v>57</v>
-      </c>
-      <c r="P8" s="2" t="n">
-        <v>102867217.9786</v>
-      </c>
-      <c r="Q8" s="2" t="n">
-        <v>143679931.0937</v>
-      </c>
-      <c r="R8" s="2" t="n">
-        <v>85519444.22</v>
-      </c>
-      <c r="S8" s="2" t="n">
-        <v>16797444</v>
-      </c>
-      <c r="T8" s="2" t="n">
-        <v>54540079.0787</v>
-      </c>
-      <c r="U8" s="2" t="n">
-        <v>5541556.6483</v>
-      </c>
-      <c r="V8" s="2" t="n">
-        <v>1754920.6797</v>
-      </c>
-      <c r="W8" s="2" t="n">
-        <v>2179498.8436</v>
-      </c>
-      <c r="X8" s="2" t="n">
-        <v>-12287.3602</v>
-      </c>
-      <c r="Y8" s="2" t="n">
-        <v>-1643.61</v>
-      </c>
-      <c r="Z8" s="2" t="n">
-        <v>25506.8008</v>
-      </c>
-      <c r="AA8" s="2"/>
-      <c r="AB8" s="2"/>
-      <c r="AC8" s="2" t="n">
-        <v>23174.96</v>
-      </c>
-      <c r="AD8" s="2" t="n">
-        <v>46522.8</v>
-      </c>
-      <c r="AE8" s="2"/>
-      <c r="AF8" s="2"/>
-      <c r="AG8" s="2" t="n">
-        <v>8223.7002</v>
-      </c>
-      <c r="AH8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI8" s="2"/>
-      <c r="AJ8" s="2" t="n">
-        <v>1986.54</v>
-      </c>
-      <c r="AK8" s="2"/>
-      <c r="AL8" s="2" t="n">
-        <v>850</v>
-      </c>
-      <c r="AM8" s="2"/>
-      <c r="AN8" s="2"/>
-      <c r="AO8" s="2"/>
-      <c r="AP8" s="2"/>
-    </row>
-    <row r="9">
-      <c r="A9" t="str">
-        <f>N9</f>
-      </c>
-      <c r="B9" t="str">
-        <f>O9</f>
-      </c>
-      <c r="N9"/>
-      <c r="O9"/>
-      <c r="P9" s="2"/>
-      <c r="Q9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="T9" s="2"/>
-      <c r="U9" s="2"/>
-      <c r="V9" s="2"/>
-      <c r="W9" s="2"/>
-      <c r="X9" s="2"/>
-      <c r="Y9" s="2"/>
-      <c r="Z9" s="2"/>
-      <c r="AA9" s="2"/>
-      <c r="AB9" s="2"/>
-      <c r="AC9" s="2"/>
-      <c r="AD9" s="2"/>
-      <c r="AE9" s="2"/>
-      <c r="AF9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG9" s="2"/>
-      <c r="AH9" s="2"/>
-      <c r="AI9" s="2"/>
-      <c r="AJ9" s="2"/>
-      <c r="AK9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO9" s="2" t="n">
-        <v>-8156.26</v>
-      </c>
-      <c r="AP9" s="2"/>
-    </row>
-    <row r="10">
-      <c r="A10" t="str">
-        <f>N10</f>
-      </c>
-      <c r="B10" t="str">
-        <f>O10</f>
-      </c>
-      <c r="N10" t="s">
-        <v>58</v>
-      </c>
-      <c r="O10" t="s">
-        <v>59</v>
-      </c>
-      <c r="P10" s="2" t="str">
-        <f>Sum(P2:P9)</f>
-      </c>
-      <c r="Q10" s="2" t="str">
-        <f>Sum(Q2:Q9)</f>
-      </c>
-      <c r="R10" s="2" t="str">
-        <f>Sum(R2:R9)</f>
-      </c>
-      <c r="S10" s="2" t="str">
-        <f>Sum(S2:S9)</f>
-      </c>
-      <c r="T10" s="2" t="str">
-        <f>Sum(T2:T9)</f>
-      </c>
-      <c r="U10" s="2" t="str">
-        <f>Sum(U2:U9)</f>
-      </c>
-      <c r="V10" s="2" t="str">
-        <f>Sum(V2:V9)</f>
-      </c>
-      <c r="W10" s="2" t="str">
-        <f>Sum(W2:W9)</f>
-      </c>
-      <c r="X10" s="2" t="str">
-        <f>Sum(X2:X9)</f>
-      </c>
-      <c r="Y10" s="2" t="str">
-        <f>Sum(Y2:Y9)</f>
-      </c>
-      <c r="Z10" s="2" t="str">
-        <f>Sum(Z2:Z9)</f>
-      </c>
-      <c r="AA10" s="2" t="str">
-        <f>Sum(AA2:AA9)</f>
-      </c>
-      <c r="AB10" s="2" t="str">
-        <f>Sum(AB2:AB9)</f>
-      </c>
-      <c r="AC10" s="2" t="str">
-        <f>Sum(AC2:AC9)</f>
-      </c>
-      <c r="AD10" s="2" t="str">
-        <f>Sum(AD2:AD9)</f>
-      </c>
-      <c r="AE10" s="2" t="str">
-        <f>Sum(AE2:AE9)</f>
-      </c>
-      <c r="AF10" s="2" t="str">
-        <f>Sum(AF2:AF9)</f>
-      </c>
-      <c r="AG10" s="2" t="str">
-        <f>Sum(AG2:AG9)</f>
-      </c>
-      <c r="AH10" s="2" t="str">
-        <f>Sum(AH2:AH9)</f>
-      </c>
-      <c r="AI10" s="2" t="str">
-        <f>Sum(AI2:AI9)</f>
-      </c>
-      <c r="AJ10" s="2" t="str">
-        <f>Sum(AJ2:AJ9)</f>
-      </c>
-      <c r="AK10" s="2" t="str">
-        <f>Sum(AK2:AK9)</f>
-      </c>
-      <c r="AL10" s="2" t="str">
-        <f>Sum(AL2:AL9)</f>
-      </c>
-      <c r="AM10" s="2" t="str">
-        <f>Sum(AM2:AM9)</f>
-      </c>
-      <c r="AN10" s="2" t="str">
-        <f>Sum(AN2:AN9)</f>
-      </c>
-      <c r="AO10" s="2" t="str">
-        <f>Sum(AO2:AO9)</f>
-      </c>
-      <c r="AP10" s="2"/>
-    </row>
-    <row r="13">
-      <c r="A13" t="str">
-        <f>N13</f>
-      </c>
-      <c r="B13" t="str">
-        <f>O13</f>
-      </c>
-      <c r="N13" t="s">
-        <v>0</v>
-      </c>
-      <c r="O13" t="s">
-        <v>1</v>
-      </c>
-      <c r="P13" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q13" t="s">
-        <v>24</v>
-      </c>
-      <c r="R13" t="s">
-        <v>25</v>
-      </c>
-      <c r="S13" t="s">
-        <v>26</v>
-      </c>
-      <c r="T13" t="s">
-        <v>27</v>
-      </c>
-      <c r="U13" t="s">
-        <v>28</v>
-      </c>
-      <c r="V13" t="s">
-        <v>29</v>
-      </c>
-      <c r="W13" t="s">
-        <v>30</v>
-      </c>
-      <c r="X13" t="s">
-        <v>31</v>
-      </c>
-      <c r="Y13" t="s">
-        <v>32</v>
-      </c>
-      <c r="Z13" t="s">
-        <v>33</v>
-      </c>
-      <c r="AA13" t="s">
-        <v>34</v>
-      </c>
-      <c r="AB13" t="s">
-        <v>35</v>
-      </c>
-      <c r="AC13" t="s">
-        <v>36</v>
-      </c>
-      <c r="AD13" t="s">
-        <v>37</v>
-      </c>
-      <c r="AE13" t="s">
-        <v>38</v>
-      </c>
-      <c r="AF13" t="s">
-        <v>39</v>
-      </c>
-      <c r="AG13" t="s">
-        <v>40</v>
-      </c>
-      <c r="AH13" t="s">
-        <v>41</v>
-      </c>
-      <c r="AI13" t="s">
-        <v>42</v>
-      </c>
-      <c r="AJ13" t="s">
-        <v>43</v>
-      </c>
-      <c r="AK13" t="s">
-        <v>44</v>
-      </c>
-      <c r="AL13" t="s">
-        <v>45</v>
-      </c>
-      <c r="AM13" t="s">
-        <v>46</v>
-      </c>
-      <c r="AN13" t="s">
-        <v>47</v>
-      </c>
-      <c r="AO13" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="str">
-        <f>N14</f>
-      </c>
-      <c r="B14" t="str">
-        <f>O14</f>
-      </c>
-      <c r="N14" t="s">
-        <v>49</v>
-      </c>
-      <c r="O14" t="s">
-        <v>50</v>
-      </c>
-      <c r="P14" s="2" t="n">
-        <v>41323973651.4872</v>
-      </c>
-      <c r="Q14" s="2" t="n">
-        <v>39567787485.6994</v>
-      </c>
-      <c r="R14" s="2" t="n">
-        <v>42187925739.664</v>
-      </c>
-      <c r="S14" s="2" t="n">
-        <v>52200288454.4857</v>
-      </c>
-      <c r="T14" s="2" t="n">
-        <v>48428768347.4716</v>
-      </c>
-      <c r="U14" s="2" t="n">
-        <v>44454230994.1471</v>
-      </c>
-      <c r="V14" s="2" t="n">
-        <v>50498507385.1404</v>
-      </c>
-      <c r="W14" s="2" t="n">
-        <v>54992999384.2077</v>
-      </c>
-      <c r="X14" s="2" t="n">
-        <v>60307389102.2068</v>
-      </c>
-      <c r="Y14" s="2" t="n">
-        <v>55904898059.2689</v>
-      </c>
-      <c r="Z14" s="2" t="n">
-        <v>50463393959.7935</v>
-      </c>
-      <c r="AA14" s="2" t="n">
-        <v>59861318272.0798</v>
-      </c>
-      <c r="AB14" s="2" t="n">
-        <v>64766859473.5786</v>
-      </c>
-      <c r="AC14" s="2" t="n">
-        <v>64369137504.9676</v>
-      </c>
-      <c r="AD14" s="2" t="n">
-        <v>45573955454.0491</v>
-      </c>
-      <c r="AE14" s="2" t="n">
-        <v>49475316778.0572</v>
-      </c>
-      <c r="AF14" s="2" t="n">
-        <v>63950695212.071</v>
-      </c>
-      <c r="AG14" s="2" t="n">
-        <v>70618796065.6052</v>
-      </c>
-      <c r="AH14" s="2" t="n">
-        <v>58533053362.5243</v>
-      </c>
-      <c r="AI14" s="2" t="n">
-        <v>62147279910.4369</v>
-      </c>
-      <c r="AJ14" s="2" t="n">
-        <v>72950837282.9099</v>
-      </c>
-      <c r="AK14" s="2" t="n">
-        <v>40019039088.3782</v>
-      </c>
-      <c r="AL14" s="2" t="n">
-        <v>39878667245.9308</v>
-      </c>
-      <c r="AM14" s="2" t="n">
-        <v>55594750528.27</v>
-      </c>
-      <c r="AN14" s="2" t="n">
-        <v>31430745444.391</v>
-      </c>
-      <c r="AO14" s="2" t="n">
-        <v>22944113201.5268</v>
-      </c>
-      <c r="AP14" s="2"/>
-    </row>
-    <row r="15">
-      <c r="A15" t="str">
-        <f>N15</f>
-      </c>
-      <c r="B15" t="str">
-        <f>O15</f>
-      </c>
-      <c r="N15" t="s">
-        <v>49</v>
-      </c>
-      <c r="O15" t="s">
-        <v>51</v>
-      </c>
-      <c r="P15" s="2" t="n">
-        <v>967068175.311544</v>
-      </c>
-      <c r="Q15" s="2" t="n">
-        <v>1098202532.69398</v>
-      </c>
-      <c r="R15" s="2" t="n">
-        <v>1109974745.10026</v>
-      </c>
-      <c r="S15" s="2" t="n">
-        <v>1325340662.84486</v>
-      </c>
-      <c r="T15" s="2" t="n">
-        <v>929709084.856146</v>
-      </c>
-      <c r="U15" s="2" t="n">
-        <v>1201644234.98612</v>
-      </c>
-      <c r="V15" s="2" t="n">
-        <v>1292895138.14582</v>
-      </c>
-      <c r="W15" s="2" t="n">
-        <v>1373921411.24054</v>
-      </c>
-      <c r="X15" s="2" t="n">
-        <v>1641818143.09058</v>
-      </c>
-      <c r="Y15" s="2" t="n">
-        <v>1350120560.37393</v>
-      </c>
-      <c r="Z15" s="2" t="n">
-        <v>1396481831.4792</v>
-      </c>
-      <c r="AA15" s="2" t="n">
-        <v>1466778800.2895</v>
-      </c>
-      <c r="AB15" s="2" t="n">
-        <v>1293098645.83112</v>
-      </c>
-      <c r="AC15" s="2" t="n">
-        <v>1546888031.87515</v>
-      </c>
-      <c r="AD15" s="2" t="n">
-        <v>1495181279.00056</v>
-      </c>
-      <c r="AE15" s="2" t="n">
-        <v>1503359792.78335</v>
-      </c>
-      <c r="AF15" s="2" t="n">
-        <v>1557815046.25598</v>
-      </c>
-      <c r="AG15" s="2" t="n">
-        <v>1597891648.74513</v>
-      </c>
-      <c r="AH15" s="2" t="n">
-        <v>1999580557.34148</v>
-      </c>
-      <c r="AI15" s="2" t="n">
-        <v>2048360853.44286</v>
-      </c>
-      <c r="AJ15" s="2" t="n">
-        <v>1404995617.20437</v>
-      </c>
-      <c r="AK15" s="2" t="n">
-        <v>1254881146.32632</v>
-      </c>
-      <c r="AL15" s="2" t="n">
-        <v>1213588753.03846</v>
-      </c>
-      <c r="AM15" s="2" t="n">
-        <v>679414620.99</v>
-      </c>
-      <c r="AN15" s="2" t="n">
-        <v>814298405.523666</v>
-      </c>
-      <c r="AO15" s="2" t="n">
-        <v>403975196.55972</v>
-      </c>
-      <c r="AP15" s="2"/>
-    </row>
-    <row r="16">
-      <c r="A16" t="str">
-        <f>N16</f>
-      </c>
-      <c r="B16" t="str">
-        <f>O16</f>
-      </c>
-      <c r="N16" t="s">
-        <v>52</v>
-      </c>
-      <c r="O16" t="s">
-        <v>53</v>
-      </c>
-      <c r="P16" s="2" t="n">
-        <v>26813108.3906972</v>
-      </c>
-      <c r="Q16" s="2" t="n">
-        <v>5873219.87405304</v>
-      </c>
-      <c r="R16" s="2" t="n">
-        <v>34398683.3898882</v>
-      </c>
-      <c r="S16" s="2" t="n">
-        <v>43864164.4255786</v>
-      </c>
-      <c r="T16" s="2" t="n">
-        <v>600882.696574249</v>
-      </c>
-      <c r="U16" s="2" t="n">
-        <v>8046364.24876323</v>
-      </c>
-      <c r="V16" s="2" t="n">
-        <v>7752009.01659559</v>
-      </c>
-      <c r="W16" s="2" t="n">
-        <v>3429964.13129778</v>
-      </c>
-      <c r="X16" s="2" t="n">
-        <v>60040020.2575172</v>
-      </c>
-      <c r="Y16" s="2" t="n">
-        <v>40026719.0742517</v>
-      </c>
-      <c r="Z16" s="2" t="n">
-        <v>225245696.146174</v>
-      </c>
-      <c r="AA16" s="2" t="n">
-        <v>1931427437.63762</v>
-      </c>
-      <c r="AB16" s="2" t="n">
-        <v>4588868851.52299</v>
-      </c>
-      <c r="AC16" s="2" t="n">
-        <v>6101420339.44821</v>
-      </c>
-      <c r="AD16" s="2" t="n">
-        <v>5785057453.92523</v>
-      </c>
-      <c r="AE16" s="2" t="n">
-        <v>6921403517.99096</v>
-      </c>
-      <c r="AF16" s="2" t="n">
-        <v>6972758970.40445</v>
-      </c>
-      <c r="AG16" s="2" t="n">
-        <v>8828928722.13656</v>
-      </c>
-      <c r="AH16" s="2" t="n">
-        <v>11411072528.7232</v>
-      </c>
-      <c r="AI16" s="2" t="n">
-        <v>10042547923.6234</v>
-      </c>
-      <c r="AJ16" s="2" t="n">
-        <v>8128310900.5723</v>
-      </c>
-      <c r="AK16" s="2" t="n">
-        <v>9278993824.8279</v>
-      </c>
-      <c r="AL16" s="2" t="n">
-        <v>9650870166.20285</v>
-      </c>
-      <c r="AM16" s="2" t="n">
-        <v>9276520909.1715</v>
-      </c>
-      <c r="AN16" s="2" t="n">
-        <v>8680909428.16241</v>
-      </c>
-      <c r="AO16" s="2" t="n">
-        <v>3294644096.93774</v>
-      </c>
-      <c r="AP16" s="2"/>
-    </row>
-    <row r="17">
-      <c r="A17" t="str">
-        <f>N17</f>
-      </c>
-      <c r="B17" t="str">
-        <f>O17</f>
-      </c>
-      <c r="N17" t="s">
-        <v>52</v>
-      </c>
-      <c r="O17" t="s">
-        <v>54</v>
-      </c>
-      <c r="P17" s="2" t="n">
-        <v>207749581.247868</v>
-      </c>
-      <c r="Q17" s="2" t="n">
-        <v>126971375.660125</v>
-      </c>
-      <c r="R17" s="2" t="n">
-        <v>231145754.821671</v>
-      </c>
-      <c r="S17" s="2" t="n">
-        <v>319538974.642443</v>
-      </c>
-      <c r="T17" s="2" t="n">
-        <v>373338398.088778</v>
-      </c>
-      <c r="U17" s="2" t="n">
-        <v>374716669.465099</v>
-      </c>
-      <c r="V17" s="2" t="n">
-        <v>223712081.301791</v>
-      </c>
-      <c r="W17" s="2" t="n">
-        <v>300094651.846279</v>
-      </c>
-      <c r="X17" s="2" t="n">
-        <v>361504076.897354</v>
-      </c>
-      <c r="Y17" s="2" t="n">
-        <v>259616684.162657</v>
-      </c>
-      <c r="Z17" s="2" t="n">
-        <v>296497042.865685</v>
-      </c>
-      <c r="AA17" s="2" t="n">
-        <v>358577595.923902</v>
-      </c>
-      <c r="AB17" s="2" t="n">
-        <v>296710288.870477</v>
-      </c>
-      <c r="AC17" s="2" t="n">
-        <v>212982651.141541</v>
-      </c>
-      <c r="AD17" s="2" t="n">
-        <v>171029983.696462</v>
-      </c>
-      <c r="AE17" s="2" t="n">
-        <v>145833930.419294</v>
-      </c>
-      <c r="AF17" s="2" t="n">
-        <v>200133519.22341</v>
-      </c>
-      <c r="AG17" s="2" t="n">
-        <v>137101675.580061</v>
-      </c>
-      <c r="AH17" s="2" t="n">
-        <v>169696861.015211</v>
-      </c>
-      <c r="AI17" s="2" t="n">
-        <v>240401980.847396</v>
-      </c>
-      <c r="AJ17" s="2" t="n">
-        <v>195236055.481987</v>
-      </c>
-      <c r="AK17" s="2" t="n">
-        <v>187152143.344557</v>
-      </c>
-      <c r="AL17" s="2" t="n">
-        <v>129670668.490102</v>
-      </c>
-      <c r="AM17" s="2" t="n">
-        <v>84002534.7091</v>
-      </c>
-      <c r="AN17" s="2" t="n">
-        <v>142002676.222825</v>
-      </c>
-      <c r="AO17" s="2" t="n">
-        <v>23898093.6003672</v>
-      </c>
-      <c r="AP17" s="2"/>
-    </row>
-    <row r="18">
-      <c r="A18" t="str">
-        <f>N18</f>
-      </c>
-      <c r="B18" t="str">
-        <f>O18</f>
-      </c>
-      <c r="N18" t="s">
-        <v>52</v>
-      </c>
-      <c r="O18" t="s">
-        <v>55</v>
-      </c>
-      <c r="P18" s="2" t="n">
-        <v>1826065962.32081</v>
-      </c>
-      <c r="Q18" s="2" t="n">
-        <v>1476748806.95738</v>
-      </c>
-      <c r="R18" s="2" t="n">
-        <v>1550346044.75602</v>
-      </c>
-      <c r="S18" s="2" t="n">
-        <v>2597169188.6354</v>
-      </c>
-      <c r="T18" s="2" t="n">
-        <v>2596868151.07615</v>
-      </c>
-      <c r="U18" s="2" t="n">
-        <v>2767641670.85523</v>
-      </c>
-      <c r="V18" s="2" t="n">
-        <v>3689371514.35873</v>
-      </c>
-      <c r="W18" s="2" t="n">
-        <v>3650768461.20846</v>
-      </c>
-      <c r="X18" s="2" t="n">
-        <v>3294076075.26215</v>
-      </c>
-      <c r="Y18" s="2" t="n">
-        <v>3859868947.87378</v>
-      </c>
-      <c r="Z18" s="2" t="n">
-        <v>3778274422.4686</v>
-      </c>
-      <c r="AA18" s="2" t="n">
-        <v>3269751918.71836</v>
-      </c>
-      <c r="AB18" s="2" t="n">
-        <v>2600699929.388</v>
-      </c>
-      <c r="AC18" s="2" t="n">
-        <v>2113651059.77182</v>
-      </c>
-      <c r="AD18" s="2" t="n">
-        <v>2059884551.69524</v>
-      </c>
-      <c r="AE18" s="2" t="n">
-        <v>2095180912.26795</v>
-      </c>
-      <c r="AF18" s="2" t="n">
-        <v>2544268888.33053</v>
-      </c>
-      <c r="AG18" s="2" t="n">
-        <v>2468727230.80017</v>
-      </c>
-      <c r="AH18" s="2" t="n">
-        <v>2244082419.61665</v>
-      </c>
-      <c r="AI18" s="2" t="n">
-        <v>2623258243.47768</v>
-      </c>
-      <c r="AJ18" s="2" t="n">
-        <v>2879887896.91054</v>
-      </c>
-      <c r="AK18" s="2" t="n">
-        <v>2654935301.59013</v>
-      </c>
-      <c r="AL18" s="2" t="n">
-        <v>2660131597.38531</v>
-      </c>
-      <c r="AM18" s="2" t="n">
-        <v>2900505982.4097</v>
-      </c>
-      <c r="AN18" s="2" t="n">
-        <v>3145620803.73296</v>
-      </c>
-      <c r="AO18" s="2" t="n">
-        <v>1359699835.50267</v>
-      </c>
-      <c r="AP18" s="2"/>
-    </row>
-    <row r="19">
-      <c r="A19" t="str">
-        <f>N19</f>
-      </c>
-      <c r="B19" t="str">
-        <f>O19</f>
-      </c>
-      <c r="N19" t="s">
-        <v>52</v>
-      </c>
-      <c r="O19" t="s">
-        <v>56</v>
-      </c>
-      <c r="P19" s="2" t="n">
-        <v>15684016318.5316</v>
-      </c>
-      <c r="Q19" s="2" t="n">
-        <v>17655391737.0195</v>
-      </c>
-      <c r="R19" s="2" t="n">
-        <v>18479684439.8471</v>
-      </c>
-      <c r="S19" s="2" t="n">
-        <v>22376077087.8133</v>
-      </c>
-      <c r="T19" s="2" t="n">
-        <v>22450736123.7216</v>
-      </c>
-      <c r="U19" s="2" t="n">
-        <v>23126334983.4507</v>
-      </c>
-      <c r="V19" s="2" t="n">
-        <v>24205492736.0404</v>
-      </c>
-      <c r="W19" s="2" t="n">
-        <v>26727503709.2742</v>
-      </c>
-      <c r="X19" s="2" t="n">
-        <v>28758613908.2458</v>
-      </c>
-      <c r="Y19" s="2" t="n">
-        <v>30946978405.4201</v>
-      </c>
-      <c r="Z19" s="2" t="n">
-        <v>33196936107.6344</v>
-      </c>
-      <c r="AA19" s="2" t="n">
-        <v>29535082303.1878</v>
-      </c>
-      <c r="AB19" s="2" t="n">
-        <v>31020979567.106</v>
-      </c>
-      <c r="AC19" s="2" t="n">
-        <v>22049516464.803</v>
-      </c>
-      <c r="AD19" s="2" t="n">
-        <v>19668604612.5615</v>
-      </c>
-      <c r="AE19" s="2" t="n">
-        <v>18682153735.3473</v>
-      </c>
-      <c r="AF19" s="2" t="n">
-        <v>19885088360.3754</v>
-      </c>
-      <c r="AG19" s="2" t="n">
-        <v>23297735817.2783</v>
-      </c>
-      <c r="AH19" s="2" t="n">
-        <v>27925487138.3422</v>
-      </c>
-      <c r="AI19" s="2" t="n">
-        <v>30337382815.0468</v>
-      </c>
-      <c r="AJ19" s="2" t="n">
-        <v>38427209482.5666</v>
-      </c>
-      <c r="AK19" s="2" t="n">
-        <v>30245689170.404</v>
-      </c>
-      <c r="AL19" s="2" t="n">
-        <v>27347446664.7342</v>
-      </c>
-      <c r="AM19" s="2" t="n">
-        <v>30777027189.8927</v>
-      </c>
-      <c r="AN19" s="2" t="n">
-        <v>27722582763.3529</v>
-      </c>
-      <c r="AO19" s="2" t="n">
-        <v>12283958448.59</v>
-      </c>
-      <c r="AP19" s="2"/>
-    </row>
-    <row r="20">
-      <c r="A20" t="str">
-        <f>N20</f>
-      </c>
-      <c r="B20" t="str">
-        <f>O20</f>
-      </c>
-      <c r="N20" t="s">
-        <v>52</v>
-      </c>
-      <c r="O20" t="s">
-        <v>57</v>
-      </c>
-      <c r="P20" s="2" t="n">
-        <v>172937629.710576</v>
-      </c>
-      <c r="Q20" s="2" t="n">
-        <v>235834465.22392</v>
-      </c>
-      <c r="R20" s="2" t="n">
-        <v>138196433.137222</v>
-      </c>
-      <c r="S20" s="2" t="n">
-        <v>26632861.2519069</v>
-      </c>
-      <c r="T20" s="2" t="n">
-        <v>84413686.489484</v>
-      </c>
-      <c r="U20" s="2" t="n">
-        <v>8323585.83023936</v>
-      </c>
-      <c r="V20" s="2" t="n">
-        <v>2553011.17012511</v>
-      </c>
-      <c r="W20" s="2" t="n">
-        <v>3085727.48668454</v>
-      </c>
-      <c r="X20" s="2" t="n">
-        <v>-17042.5867402221</v>
-      </c>
-      <c r="Y20" s="2" t="n">
-        <v>-2256.61312096531</v>
-      </c>
-      <c r="Z20" s="2" t="n">
-        <v>34719.170077105</v>
-      </c>
-      <c r="AA20" s="2"/>
-      <c r="AB20" s="2"/>
-      <c r="AC20" s="2" t="n">
-        <v>29831.9874115</v>
-      </c>
-      <c r="AD20" s="2" t="n">
-        <v>58813.5687252362</v>
-      </c>
-      <c r="AE20" s="2"/>
-      <c r="AF20" s="2"/>
-      <c r="AG20" s="2" t="n">
-        <v>10038.6708360684</v>
-      </c>
-      <c r="AH20" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI20" s="2"/>
-      <c r="AJ20" s="2" t="n">
-        <v>2299.20297491268</v>
-      </c>
-      <c r="AK20" s="2"/>
-      <c r="AL20" s="2" t="n">
-        <v>888.884605510837</v>
-      </c>
-      <c r="AM20" s="2"/>
-      <c r="AN20" s="2"/>
-      <c r="AO20" s="2"/>
-      <c r="AP20" s="2"/>
-    </row>
-    <row r="21">
-      <c r="A21" t="str">
-        <f>N21</f>
-      </c>
-      <c r="B21" t="str">
-        <f>O21</f>
-      </c>
-      <c r="N21"/>
-      <c r="O21"/>
-      <c r="P21" s="2"/>
-      <c r="Q21" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R21" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S21" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="T21" s="2"/>
-      <c r="U21" s="2"/>
-      <c r="V21" s="2"/>
-      <c r="W21" s="2"/>
-      <c r="X21" s="2"/>
-      <c r="Y21" s="2"/>
-      <c r="Z21" s="2"/>
-      <c r="AA21" s="2"/>
-      <c r="AB21" s="2"/>
-      <c r="AC21" s="2"/>
-      <c r="AD21" s="2"/>
-      <c r="AE21" s="2"/>
-      <c r="AF21" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG21" s="2"/>
-      <c r="AH21" s="2"/>
-      <c r="AI21" s="2"/>
-      <c r="AJ21" s="2"/>
-      <c r="AK21" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL21" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM21" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN21" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO21" s="2" t="n">
-        <v>-7773.53730666113</v>
-      </c>
-      <c r="AP21" s="2"/>
-    </row>
-    <row r="22">
-      <c r="A22" t="str">
-        <f>N22</f>
-      </c>
-      <c r="B22" t="str">
-        <f>O22</f>
-      </c>
-      <c r="P22" s="2"/>
-      <c r="Q22" s="2"/>
-      <c r="R22" s="2"/>
-      <c r="S22" s="2"/>
-      <c r="T22" s="2"/>
-      <c r="U22" s="2"/>
-      <c r="V22" s="2"/>
-      <c r="W22" s="2"/>
-      <c r="X22" s="2"/>
-      <c r="Y22" s="2"/>
-      <c r="Z22" s="2"/>
-      <c r="AA22" s="2"/>
-      <c r="AB22" s="2"/>
-      <c r="AC22" s="2"/>
-      <c r="AD22" s="2"/>
-      <c r="AE22" s="2"/>
-      <c r="AF22" s="2"/>
-      <c r="AG22" s="2"/>
-      <c r="AH22" s="2"/>
-      <c r="AI22" s="2"/>
-      <c r="AJ22" s="2"/>
-      <c r="AK22" s="2"/>
-      <c r="AL22" s="2"/>
-      <c r="AM22" s="2"/>
-      <c r="AN22" s="2"/>
-      <c r="AO22" s="2"/>
-      <c r="AP22" s="2"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false">
-      <pane ySplit="1" xSplit="2" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <f>N1</f>
-      </c>
-      <c r="B1" t="str">
-        <f>O1</f>
-      </c>
-      <c r="N1" t="s">
-        <v>60</v>
-      </c>
-      <c r="O1" t="s">
-        <v>61</v>
-      </c>
-      <c r="P1" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>24</v>
-      </c>
-      <c r="R1" t="s">
-        <v>25</v>
-      </c>
-      <c r="S1" t="s">
-        <v>26</v>
-      </c>
-      <c r="T1" t="s">
-        <v>27</v>
-      </c>
-      <c r="U1" t="s">
-        <v>28</v>
-      </c>
-      <c r="V1" t="s">
-        <v>29</v>
-      </c>
-      <c r="W1" t="s">
-        <v>30</v>
-      </c>
-      <c r="X1" t="s">
-        <v>31</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>32</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>33</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>34</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>35</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>36</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>37</v>
-      </c>
-      <c r="AE1" t="s">
-        <v>38</v>
-      </c>
-      <c r="AF1" t="s">
-        <v>39</v>
-      </c>
-      <c r="AG1" t="s">
-        <v>40</v>
-      </c>
-      <c r="AH1" t="s">
-        <v>41</v>
-      </c>
-      <c r="AI1" t="s">
-        <v>42</v>
-      </c>
-      <c r="AJ1" t="s">
-        <v>43</v>
-      </c>
-      <c r="AK1" t="s">
-        <v>44</v>
-      </c>
-      <c r="AL1" t="s">
-        <v>45</v>
-      </c>
-      <c r="AM1" t="s">
-        <v>46</v>
-      </c>
-      <c r="AN1" t="s">
-        <v>47</v>
-      </c>
-      <c r="AO1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="str">
-        <f>N2</f>
-      </c>
-      <c r="B2" t="str">
-        <f>O2</f>
-      </c>
-      <c r="N2" t="s">
-        <v>62</v>
-      </c>
-      <c r="O2" t="s">
-        <v>63</v>
-      </c>
-      <c r="P2" s="3" t="n">
-        <v>4893879577</v>
-      </c>
-      <c r="Q2" s="3" t="n">
-        <v>5247642300</v>
-      </c>
-      <c r="R2" s="3" t="n">
-        <v>6034529157.5</v>
-      </c>
-      <c r="S2" s="3" t="n">
-        <v>11036590394.19</v>
-      </c>
-      <c r="T2" s="3" t="n">
-        <v>11814229205.265</v>
-      </c>
-      <c r="U2" s="3" t="n">
-        <v>12012830425.11</v>
-      </c>
-      <c r="V2" s="3" t="n">
-        <v>14160856969.0703</v>
-      </c>
-      <c r="W2" s="3" t="n">
-        <v>13522026849.1259</v>
-      </c>
-      <c r="X2" s="3" t="n">
-        <v>13076178556.5312</v>
-      </c>
-      <c r="Y2" s="3" t="n">
-        <v>12166737110.5226</v>
-      </c>
-      <c r="Z2" s="3" t="n">
-        <v>12719116876.0065</v>
-      </c>
-      <c r="AA2" s="3" t="n">
-        <v>11731028731.6661</v>
-      </c>
-      <c r="AB2" s="3" t="n">
-        <v>12386982695.817</v>
-      </c>
-      <c r="AC2" s="3" t="n">
-        <v>11654929430.9434</v>
-      </c>
-      <c r="AD2" s="3" t="n">
-        <v>11609096598.1114</v>
-      </c>
-      <c r="AE2" s="3" t="n">
-        <v>11356943354.2953</v>
-      </c>
-      <c r="AF2" s="3" t="n">
-        <v>11552405193.8073</v>
-      </c>
-      <c r="AG2" s="3" t="n">
-        <v>12704173142.4661</v>
-      </c>
-      <c r="AH2" s="3" t="n">
-        <v>11438769325.7464</v>
-      </c>
-      <c r="AI2" s="3" t="n">
-        <v>13191192427.3741</v>
-      </c>
-      <c r="AJ2" s="3" t="n">
-        <v>9281246848.5405</v>
-      </c>
-      <c r="AK2" s="3" t="n">
-        <v>10168413662.15</v>
-      </c>
-      <c r="AL2" s="3" t="n">
-        <v>10609983284.8786</v>
-      </c>
-      <c r="AM2" s="3" t="n">
-        <v>9689399758.3349</v>
-      </c>
-      <c r="AN2" s="3" t="n">
-        <v>9830946550.71</v>
-      </c>
-      <c r="AO2" s="3" t="n">
-        <v>4624596000.9</v>
       </c>
       <c r="AP2" s="3"/>
     </row>
@@ -5303,88 +3616,88 @@
         <f>O3</f>
       </c>
       <c r="N3" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="O3" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="P3" s="3" t="n">
-        <v>1388311540</v>
+        <v>575234048</v>
       </c>
       <c r="Q3" s="3" t="n">
-        <v>1205653273</v>
+        <v>669069569.94</v>
       </c>
       <c r="R3" s="3" t="n">
-        <v>1350891201.4375</v>
+        <v>686880414.67</v>
       </c>
       <c r="S3" s="3" t="n">
-        <v>1612933493.7125</v>
+        <v>835897253.19</v>
       </c>
       <c r="T3" s="3" t="n">
-        <v>1869714402.0256</v>
+        <v>600689403.78</v>
       </c>
       <c r="U3" s="3" t="n">
-        <v>1586758494.9955</v>
+        <v>800013327.8</v>
       </c>
       <c r="V3" s="3" t="n">
-        <v>2372763287.3138</v>
+        <v>888726395.39</v>
       </c>
       <c r="W3" s="3" t="n">
-        <v>2295098778.7194</v>
+        <v>970422741.45</v>
       </c>
       <c r="X3" s="3" t="n">
-        <v>2450489993.0999</v>
+        <v>1183717660.62</v>
       </c>
       <c r="Y3" s="3" t="n">
-        <v>2248641294.0162</v>
+        <v>983363800.21</v>
       </c>
       <c r="Z3" s="3" t="n">
-        <v>1761819950.7535</v>
+        <v>1025939958.163</v>
       </c>
       <c r="AA3" s="3" t="n">
-        <v>1365370308.5064</v>
+        <v>1099212948.0185</v>
       </c>
       <c r="AB3" s="3" t="n">
-        <v>1044249468.4721</v>
+        <v>986640516.3149</v>
       </c>
       <c r="AC3" s="3" t="n">
-        <v>394945305.2471</v>
+        <v>1201698960.5381</v>
       </c>
       <c r="AD3" s="3" t="n">
-        <v>223820255.7404</v>
+        <v>1182720605.3701</v>
       </c>
       <c r="AE3" s="3" t="n">
-        <v>155682635.782</v>
+        <v>1201505540.9714</v>
       </c>
       <c r="AF3" s="3" t="n">
-        <v>208251535.0898</v>
+        <v>1254981007.4817</v>
       </c>
       <c r="AG3" s="3" t="n">
-        <v>332243570.0744</v>
+        <v>1308996189.4308</v>
       </c>
       <c r="AH3" s="3" t="n">
-        <v>302079907.6173</v>
+        <v>1674425531.59</v>
       </c>
       <c r="AI3" s="3" t="n">
-        <v>377222399.9235</v>
+        <v>1746988190.09</v>
       </c>
       <c r="AJ3" s="3" t="n">
-        <v>482118186.7506</v>
+        <v>1213933708.27</v>
       </c>
       <c r="AK3" s="3" t="n">
-        <v>410120154.3307</v>
+        <v>1121549382.03</v>
       </c>
       <c r="AL3" s="3" t="n">
-        <v>583232431.521</v>
+        <v>1160499837.31</v>
       </c>
       <c r="AM3" s="3" t="n">
-        <v>752940203.2038</v>
+        <v>679414620.99</v>
       </c>
       <c r="AN3" s="3" t="n">
-        <v>729134236.39</v>
+        <v>836045048.97</v>
       </c>
       <c r="AO3" s="3" t="n">
-        <v>339969970.51</v>
+        <v>423864529.97</v>
       </c>
       <c r="AP3" s="3"/>
     </row>
@@ -5396,84 +3709,88 @@
         <f>O4</f>
       </c>
       <c r="N4" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="O4" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="P4" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="3"/>
+        <v>15949044</v>
+      </c>
+      <c r="Q4" s="3" t="n">
+        <v>3578204</v>
+      </c>
       <c r="R4" s="3" t="n">
-        <v>4989000</v>
+        <v>21286774.33</v>
       </c>
       <c r="S4" s="3" t="n">
-        <v>649938</v>
+        <v>27665290.5813</v>
       </c>
       <c r="T4" s="3" t="n">
-        <v>155560282.3673</v>
+        <v>388233.1308</v>
       </c>
       <c r="U4" s="3" t="n">
-        <v>66768688.5799</v>
+        <v>5356992.0713</v>
       </c>
       <c r="V4" s="3" t="n">
-        <v>100529984.7893</v>
+        <v>5328672.7029</v>
       </c>
       <c r="W4" s="3" t="n">
-        <v>950838435.3205</v>
+        <v>2422638.71</v>
       </c>
       <c r="X4" s="3" t="n">
-        <v>1790896688.364</v>
+        <v>43287639.7559</v>
       </c>
       <c r="Y4" s="3" t="n">
-        <v>2593915809.1372</v>
+        <v>29153564.3068</v>
       </c>
       <c r="Z4" s="3" t="n">
-        <v>13629608.6499</v>
+        <v>165479102.4641</v>
       </c>
       <c r="AA4" s="3" t="n">
-        <v>3821405.853</v>
+        <v>1447423460.9816</v>
       </c>
       <c r="AB4" s="3" t="n">
-        <v>-6897029.2366</v>
+        <v>3501329111.7152</v>
       </c>
       <c r="AC4" s="3" t="n">
-        <v>-4840438.2398</v>
+        <v>4739884418.6757</v>
       </c>
       <c r="AD4" s="3" t="n">
-        <v>-2090443.11</v>
+        <v>4576105085.1177</v>
       </c>
       <c r="AE4" s="3" t="n">
-        <v>-107030.09</v>
+        <v>5531679587.3385</v>
       </c>
       <c r="AF4" s="3" t="n">
-        <v>0</v>
+        <v>5617277929.5183</v>
       </c>
       <c r="AG4" s="3" t="n">
-        <v>-227589.6944</v>
+        <v>7232676923.4378</v>
       </c>
       <c r="AH4" s="3" t="n">
-        <v>-117075.1219</v>
+        <v>9555499584.5343</v>
       </c>
       <c r="AI4" s="3" t="n">
-        <v>0</v>
+        <v>8565000933.0606</v>
       </c>
       <c r="AJ4" s="3" t="n">
-        <v>0</v>
+        <v>7022961831.8218</v>
       </c>
       <c r="AK4" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL4" s="3"/>
+        <v>8293095980.0951</v>
+      </c>
+      <c r="AL4" s="3" t="n">
+        <v>9228689067.6412</v>
+      </c>
       <c r="AM4" s="3" t="n">
-        <v>-30000</v>
+        <v>9276520909.1715</v>
       </c>
       <c r="AN4" s="3" t="n">
-        <v>0</v>
+        <v>8912741691.18</v>
       </c>
       <c r="AO4" s="3" t="n">
-        <v>0</v>
+        <v>3456852755.96</v>
       </c>
       <c r="AP4" s="3"/>
     </row>
@@ -5485,88 +3802,88 @@
         <f>O5</f>
       </c>
       <c r="N5" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="O5" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="P5" s="3" t="n">
-        <v>7415445757</v>
+        <v>123574155</v>
       </c>
       <c r="Q5" s="3" t="n">
-        <v>6360434328</v>
+        <v>77356117.09</v>
       </c>
       <c r="R5" s="3" t="n">
-        <v>5098764976</v>
+        <v>143038832.75</v>
       </c>
       <c r="S5" s="3" t="n">
-        <v>6062514763.81</v>
+        <v>201534412.0035</v>
       </c>
       <c r="T5" s="3" t="n">
-        <v>5127190796.77</v>
+        <v>241215691.4556</v>
       </c>
       <c r="U5" s="3" t="n">
-        <v>3875435763.34</v>
+        <v>249473447.2923</v>
       </c>
       <c r="V5" s="3" t="n">
-        <v>4544704772.0945</v>
+        <v>153778002.372</v>
       </c>
       <c r="W5" s="3" t="n">
-        <v>7491149115.4028</v>
+        <v>211961668.518</v>
       </c>
       <c r="X5" s="3" t="n">
-        <v>4553835487.5655</v>
+        <v>260637124.7695</v>
       </c>
       <c r="Y5" s="3" t="n">
-        <v>5902120247.4876</v>
+        <v>189092483.019</v>
       </c>
       <c r="Z5" s="3" t="n">
-        <v>6861419393.825</v>
+        <v>217824648.2669</v>
       </c>
       <c r="AA5" s="3" t="n">
-        <v>3763626969.1864</v>
+        <v>268720229.82</v>
       </c>
       <c r="AB5" s="3" t="n">
-        <v>11901099270.9079</v>
+        <v>226391384.409</v>
       </c>
       <c r="AC5" s="3" t="n">
-        <v>10161871589.0597</v>
+        <v>165455433.8876</v>
       </c>
       <c r="AD5" s="3" t="n">
-        <v>3311400101.702</v>
+        <v>135288401.9449</v>
       </c>
       <c r="AE5" s="3" t="n">
-        <v>5506187410.58</v>
+        <v>116552455.5742</v>
       </c>
       <c r="AF5" s="3" t="n">
-        <v>14992948300.979</v>
+        <v>161228231.9326</v>
       </c>
       <c r="AG5" s="3" t="n">
-        <v>26690546655.8367</v>
+        <v>112313980.1374</v>
       </c>
       <c r="AH5" s="3" t="n">
-        <v>20845685290.5957</v>
+        <v>142102180.2154</v>
       </c>
       <c r="AI5" s="3" t="n">
-        <v>15286428014.6681</v>
+        <v>205031950.6491</v>
       </c>
       <c r="AJ5" s="3" t="n">
-        <v>37039127510.9809</v>
+        <v>168686383.0158</v>
       </c>
       <c r="AK5" s="3" t="n">
-        <v>11113141473.5537</v>
+        <v>167267132.2923</v>
       </c>
       <c r="AL5" s="3" t="n">
-        <v>18908765461.4543</v>
+        <v>123998174.2661</v>
       </c>
       <c r="AM5" s="3" t="n">
-        <v>15383277994.4694</v>
+        <v>84002534.7091</v>
       </c>
       <c r="AN5" s="3" t="n">
-        <v>14153231885.21</v>
+        <v>145794997.99</v>
       </c>
       <c r="AO5" s="3" t="n">
-        <v>15090975580.94</v>
+        <v>25074693.44</v>
       </c>
       <c r="AP5" s="3"/>
     </row>
@@ -5578,86 +3895,88 @@
         <f>O6</f>
       </c>
       <c r="N6" t="s">
-        <v>65</v>
-      </c>
-      <c r="O6"/>
+        <v>52</v>
+      </c>
+      <c r="O6" t="s">
+        <v>55</v>
+      </c>
       <c r="P6" s="3" t="n">
-        <v>1166850638</v>
+        <v>1086185382</v>
       </c>
       <c r="Q6" s="3" t="n">
-        <v>82835621</v>
+        <v>899695329.2</v>
       </c>
       <c r="R6" s="3" t="n">
-        <v>132505141.12</v>
+        <v>959393300.4375</v>
       </c>
       <c r="S6" s="3" t="n">
-        <v>173364211.5813</v>
+        <v>1638044203.8125</v>
       </c>
       <c r="T6" s="3" t="n">
-        <v>192512682.8208</v>
+        <v>1677848702.1094</v>
       </c>
       <c r="U6" s="3" t="n">
-        <v>192731041.0513</v>
+        <v>1842600462.594</v>
       </c>
       <c r="V6" s="3" t="n">
-        <v>322708897.3631</v>
+        <v>2536046234.8964</v>
       </c>
       <c r="W6" s="3" t="n">
-        <v>254884023.327</v>
+        <v>2578596351.6838</v>
       </c>
       <c r="X6" s="3" t="n">
-        <v>1482632191.2263</v>
+        <v>2374962197.9287</v>
       </c>
       <c r="Y6" s="3" t="n">
-        <v>1944978233.5977</v>
+        <v>2811345525.9451</v>
       </c>
       <c r="Z6" s="3" t="n">
-        <v>1022023152.1466</v>
+        <v>2775748753.4298</v>
       </c>
       <c r="AA6" s="3" t="n">
-        <v>1532275962.4939</v>
+        <v>2450371961.4397</v>
       </c>
       <c r="AB6" s="3" t="n">
-        <v>3135580971.5504</v>
+        <v>1984346615.3058</v>
       </c>
       <c r="AC6" s="3" t="n">
-        <v>-9424980.1096</v>
+        <v>1641988449.7969</v>
       </c>
       <c r="AD6" s="3" t="n">
-        <v>24035.2091</v>
+        <v>1629413060.6036</v>
       </c>
       <c r="AE6" s="3" t="n">
-        <v>61834948.1198</v>
+        <v>1674497008.3088</v>
       </c>
       <c r="AF6" s="3" t="n">
-        <v>300391759.63</v>
+        <v>2049671519.3857</v>
       </c>
       <c r="AG6" s="3" t="n">
-        <v>13684301.8917</v>
+        <v>2022386524.3925</v>
       </c>
       <c r="AH6" s="3" t="n">
-        <v>185924.54</v>
+        <v>1879168550.9256</v>
       </c>
       <c r="AI6" s="3" t="n">
-        <v>-5514.26</v>
+        <v>2237301676.2203</v>
       </c>
       <c r="AJ6" s="3" t="n">
-        <v>0</v>
+        <v>2488259003.2948</v>
       </c>
       <c r="AK6" s="3" t="n">
-        <v>0</v>
+        <v>2372847066.4693</v>
       </c>
       <c r="AL6" s="3" t="n">
-        <v>0</v>
+        <v>2543763097.8861</v>
       </c>
       <c r="AM6" s="3" t="n">
-        <v>-39324.9492</v>
+        <v>2900505982.4097</v>
       </c>
       <c r="AN6" s="3" t="n">
-        <v>0</v>
+        <v>3229627715.17</v>
       </c>
       <c r="AO6" s="3" t="n">
-        <v>0</v>
+        <v>1426643359.75</v>
       </c>
       <c r="AP6" s="3"/>
     </row>
@@ -5669,88 +3988,88 @@
         <f>O7</f>
       </c>
       <c r="N7" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="O7" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="P7" s="3" t="n">
-        <v>18666033632.0627</v>
+        <v>9329208039.4441</v>
       </c>
       <c r="Q7" s="3" t="n">
-        <v>20482891006.7905</v>
+        <v>10756381455.0968</v>
       </c>
       <c r="R7" s="3" t="n">
-        <v>23701901826.9351</v>
+        <v>11435695602.1251</v>
       </c>
       <c r="S7" s="3" t="n">
-        <v>26869733763.3325</v>
+        <v>14112674498.8887</v>
       </c>
       <c r="T7" s="3" t="n">
-        <v>24689684566.3315</v>
+        <v>14505525993.2919</v>
       </c>
       <c r="U7" s="3" t="n">
-        <v>20358507087.5821</v>
+        <v>15396716990.9833</v>
       </c>
       <c r="V7" s="3" t="n">
-        <v>27153691810.5655</v>
+        <v>16638673681.4488</v>
       </c>
       <c r="W7" s="3" t="n">
-        <v>29506357559.7263</v>
+        <v>18878064792.8399</v>
       </c>
       <c r="X7" s="3" t="n">
-        <v>29800810167.1054</v>
+        <v>20734378726.0514</v>
       </c>
       <c r="Y7" s="3" t="n">
-        <v>31014219924.1275</v>
+        <v>22540311719.5269</v>
       </c>
       <c r="Z7" s="3" t="n">
-        <v>32325515851.7221</v>
+        <v>24388475720.6835</v>
       </c>
       <c r="AA7" s="3" t="n">
-        <v>35318890879.1547</v>
+        <v>22133770192.2392</v>
       </c>
       <c r="AB7" s="3" t="n">
-        <v>35037696437.0789</v>
+        <v>23669157334.0961</v>
       </c>
       <c r="AC7" s="3" t="n">
-        <v>33183789950.2639</v>
+        <v>17129152511.447</v>
       </c>
       <c r="AD7" s="3" t="n">
-        <v>27544697154.2406</v>
+        <v>15558290008.6225</v>
       </c>
       <c r="AE7" s="3" t="n">
-        <v>27343613367.2082</v>
+        <v>14931030707.3871</v>
       </c>
       <c r="AF7" s="3" t="n">
-        <v>32631054887.7718</v>
+        <v>16019493639.0837</v>
       </c>
       <c r="AG7" s="3" t="n">
-        <v>33577834902.895</v>
+        <v>19085554036.8664</v>
       </c>
       <c r="AH7" s="3" t="n">
-        <v>35776875600.6171</v>
+        <v>23384478547.1892</v>
       </c>
       <c r="AI7" s="3" t="n">
-        <v>42895768605.1795</v>
+        <v>25873883211.0788</v>
       </c>
       <c r="AJ7" s="3" t="n">
-        <v>43207276579.2153</v>
+        <v>33201587488.55</v>
       </c>
       <c r="AK7" s="3" t="n">
-        <v>34986654895.3672</v>
+        <v>27032069210.2557</v>
       </c>
       <c r="AL7" s="3" t="n">
-        <v>32325606569.3088</v>
+        <v>26151121890.1863</v>
       </c>
       <c r="AM7" s="3" t="n">
-        <v>39681121088.8237</v>
+        <v>30777027189.8927</v>
       </c>
       <c r="AN7" s="3" t="n">
-        <v>31672719721.4</v>
+        <v>28462941725.96</v>
       </c>
       <c r="AO7" s="3" t="n">
-        <v>13693734699.4</v>
+        <v>12888747423.91</v>
       </c>
       <c r="AP7" s="3"/>
     </row>
@@ -5762,89 +4081,71 @@
         <f>O8</f>
       </c>
       <c r="N8" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="O8" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="P8" s="3" t="n">
-        <v>817726948</v>
+        <v>102867217.9786</v>
       </c>
       <c r="Q8" s="3" t="n">
-        <v>1697895863</v>
+        <v>143679931.0937</v>
       </c>
       <c r="R8" s="3" t="n">
-        <v>1870002345</v>
+        <v>85519444.22</v>
       </c>
       <c r="S8" s="3" t="n">
-        <v>1773360648.5</v>
+        <v>16797444</v>
       </c>
       <c r="T8" s="3" t="n">
-        <v>2472216171.7062</v>
+        <v>54540079.0787</v>
       </c>
       <c r="U8" s="3" t="n">
-        <v>7652695830.9109</v>
+        <v>5541556.6483</v>
       </c>
       <c r="V8" s="3" t="n">
-        <v>3809886486.05</v>
+        <v>1754920.6797</v>
       </c>
       <c r="W8" s="3" t="n">
-        <v>3745671095.792</v>
+        <v>2179498.8436</v>
       </c>
       <c r="X8" s="3" t="n">
-        <v>7648648004.814</v>
+        <v>-12287.3602</v>
       </c>
       <c r="Y8" s="3" t="n">
-        <v>4045040905.5168</v>
+        <v>-1643.61</v>
       </c>
       <c r="Z8" s="3" t="n">
-        <v>2178843488.4214</v>
-      </c>
-      <c r="AA8" s="3" t="n">
-        <v>1218120036.4253</v>
-      </c>
-      <c r="AB8" s="3" t="n">
-        <v>555827993.1959</v>
-      </c>
+        <v>25506.8008</v>
+      </c>
+      <c r="AA8" s="3"/>
+      <c r="AB8" s="3"/>
       <c r="AC8" s="3" t="n">
-        <v>502947661.5251</v>
+        <v>23174.96</v>
       </c>
       <c r="AD8" s="3" t="n">
-        <v>373379642.5277</v>
-      </c>
-      <c r="AE8" s="3" t="n">
-        <v>178419368.6129</v>
-      </c>
-      <c r="AF8" s="3" t="n">
-        <v>181927169.9613</v>
-      </c>
+        <v>46522.8</v>
+      </c>
+      <c r="AE8" s="3"/>
+      <c r="AF8" s="3"/>
       <c r="AG8" s="3" t="n">
-        <v>227614171.4943</v>
+        <v>8223.7002</v>
       </c>
       <c r="AH8" s="3" t="n">
-        <v>166826577.0677</v>
-      </c>
-      <c r="AI8" s="3" t="n">
-        <v>231971459.5879</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="AI8" s="3"/>
       <c r="AJ8" s="3" t="n">
-        <v>447463677.0415</v>
-      </c>
-      <c r="AK8" s="3" t="n">
-        <v>449760198.3042</v>
-      </c>
+        <v>1986.54</v>
+      </c>
+      <c r="AK8" s="3"/>
       <c r="AL8" s="3" t="n">
-        <v>346912601.361</v>
-      </c>
-      <c r="AM8" s="3" t="n">
-        <v>445506149.2168</v>
-      </c>
-      <c r="AN8" s="3" t="n">
-        <v>358271614.06</v>
-      </c>
-      <c r="AO8" s="3" t="n">
-        <v>248285621.4</v>
-      </c>
+        <v>850</v>
+      </c>
+      <c r="AM8" s="3"/>
+      <c r="AN8" s="3"/>
+      <c r="AO8" s="3"/>
       <c r="AP8" s="3"/>
     </row>
     <row r="9">
@@ -5854,89 +4155,51 @@
       <c r="B9" t="str">
         <f>O9</f>
       </c>
-      <c r="N9" t="s">
-        <v>71</v>
-      </c>
-      <c r="O9" t="s">
-        <v>71</v>
-      </c>
-      <c r="P9" s="3" t="n">
-        <v>1465205021</v>
-      </c>
+      <c r="N9"/>
+      <c r="O9"/>
+      <c r="P9" s="3"/>
       <c r="Q9" s="3" t="n">
-        <v>1578710803.09</v>
+        <v>0</v>
       </c>
       <c r="R9" s="3" t="n">
-        <v>1245185004</v>
+        <v>0</v>
       </c>
       <c r="S9" s="3" t="n">
-        <v>2226380697.6597</v>
-      </c>
-      <c r="T9" s="3" t="n">
-        <v>2049154549.5</v>
-      </c>
-      <c r="U9" s="3" t="n">
-        <v>2150070726.7395</v>
-      </c>
-      <c r="V9" s="3" t="n">
-        <v>2471459928.0133</v>
-      </c>
-      <c r="W9" s="3" t="n">
-        <v>3720059827.3514</v>
-      </c>
-      <c r="X9" s="3" t="n">
-        <v>7273887256.039</v>
-      </c>
-      <c r="Y9" s="3" t="n">
-        <v>7356088940.6222</v>
-      </c>
-      <c r="Z9" s="3" t="n">
-        <v>8764584629.1417</v>
-      </c>
-      <c r="AA9" s="3" t="n">
-        <v>17326800249.4023</v>
-      </c>
-      <c r="AB9" s="3" t="n">
-        <v>15730751950.6277</v>
-      </c>
-      <c r="AC9" s="3" t="n">
-        <v>18999106997.0411</v>
-      </c>
-      <c r="AD9" s="3" t="n">
-        <v>16071516995.0607</v>
-      </c>
-      <c r="AE9" s="3" t="n">
-        <v>18394035596.2425</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="T9" s="3"/>
+      <c r="U9" s="3"/>
+      <c r="V9" s="3"/>
+      <c r="W9" s="3"/>
+      <c r="X9" s="3"/>
+      <c r="Y9" s="3"/>
+      <c r="Z9" s="3"/>
+      <c r="AA9" s="3"/>
+      <c r="AB9" s="3"/>
+      <c r="AC9" s="3"/>
+      <c r="AD9" s="3"/>
+      <c r="AE9" s="3"/>
       <c r="AF9" s="3" t="n">
-        <v>16754567266.2306</v>
-      </c>
-      <c r="AG9" s="3" t="n">
-        <v>14067132547.5604</v>
-      </c>
-      <c r="AH9" s="3" t="n">
-        <v>17120267809.2222</v>
-      </c>
-      <c r="AI9" s="3" t="n">
-        <v>19649260163.7457</v>
-      </c>
-      <c r="AJ9" s="3" t="n">
-        <v>16668629395.2236</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="AG9" s="3"/>
+      <c r="AH9" s="3"/>
+      <c r="AI9" s="3"/>
+      <c r="AJ9" s="3"/>
       <c r="AK9" s="3" t="n">
-        <v>17625734082.9266</v>
+        <v>0</v>
       </c>
       <c r="AL9" s="3" t="n">
-        <v>14567731883.586</v>
+        <v>0</v>
       </c>
       <c r="AM9" s="3" t="n">
-        <v>33360045896.3436</v>
+        <v>0</v>
       </c>
       <c r="AN9" s="3" t="n">
-        <v>17112981726.56</v>
+        <v>0</v>
       </c>
       <c r="AO9" s="3" t="n">
-        <v>8297357459.94</v>
+        <v>-8156.26</v>
       </c>
       <c r="AP9" s="3"/>
     </row>
@@ -6041,10 +4304,10 @@
         <f>O13</f>
       </c>
       <c r="N13" t="s">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="O13" t="s">
-        <v>61</v>
+        <v>1</v>
       </c>
       <c r="P13" t="s">
         <v>23</v>
@@ -6133,88 +4396,88 @@
         <f>O14</f>
       </c>
       <c r="N14" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="O14" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="P14" s="3" t="n">
-        <v>8227460125.45457</v>
+        <v>41323973651.4872</v>
       </c>
       <c r="Q14" s="3" t="n">
-        <v>8613415291.10174</v>
+        <v>39567787485.6994</v>
       </c>
       <c r="R14" s="3" t="n">
-        <v>9751588224.58806</v>
+        <v>42187925739.664</v>
       </c>
       <c r="S14" s="3" t="n">
-        <v>17498851650.441</v>
+        <v>52200288454.4857</v>
       </c>
       <c r="T14" s="3" t="n">
-        <v>18285317093.3084</v>
+        <v>48428768347.4716</v>
       </c>
       <c r="U14" s="3" t="n">
-        <v>18043634930.3021</v>
+        <v>44454230994.1471</v>
       </c>
       <c r="V14" s="3" t="n">
-        <v>20600831957.1234</v>
+        <v>50498507385.1404</v>
       </c>
       <c r="W14" s="3" t="n">
-        <v>19144442332.0336</v>
+        <v>54992999384.2077</v>
       </c>
       <c r="X14" s="3" t="n">
-        <v>18136678965.4555</v>
+        <v>60307389102.2068</v>
       </c>
       <c r="Y14" s="3" t="n">
-        <v>16704460670.6827</v>
+        <v>55904898059.2689</v>
       </c>
       <c r="Z14" s="3" t="n">
-        <v>17312919229.3158</v>
+        <v>50463393959.7935</v>
       </c>
       <c r="AA14" s="3" t="n">
-        <v>15653767798.3259</v>
+        <v>59861318272.0798</v>
       </c>
       <c r="AB14" s="3" t="n">
-        <v>16234474750.4594</v>
+        <v>64766859473.5786</v>
       </c>
       <c r="AC14" s="3" t="n">
-        <v>15002818044.3817</v>
+        <v>64369137504.9676</v>
       </c>
       <c r="AD14" s="3" t="n">
-        <v>14676081418.3783</v>
+        <v>45573955454.0491</v>
       </c>
       <c r="AE14" s="3" t="n">
-        <v>14210148372.6507</v>
+        <v>49475316778.0572</v>
       </c>
       <c r="AF14" s="3" t="n">
-        <v>14340066123.7665</v>
+        <v>63950695212.071</v>
       </c>
       <c r="AG14" s="3" t="n">
-        <v>15507984157.9875</v>
+        <v>70618796065.6052</v>
       </c>
       <c r="AH14" s="3" t="n">
-        <v>13660052544.6821</v>
+        <v>58533053362.5243</v>
       </c>
       <c r="AI14" s="3" t="n">
-        <v>15466802999.4369</v>
+        <v>62147279910.4369</v>
       </c>
       <c r="AJ14" s="3" t="n">
-        <v>10742029037.9571</v>
+        <v>72950837282.9099</v>
       </c>
       <c r="AK14" s="3" t="n">
-        <v>11377252573.2065</v>
+        <v>40019039088.3782</v>
       </c>
       <c r="AL14" s="3" t="n">
-        <v>11095353890.1834</v>
+        <v>39878667245.9308</v>
       </c>
       <c r="AM14" s="3" t="n">
-        <v>9689399758.3349</v>
+        <v>55594750528.27</v>
       </c>
       <c r="AN14" s="3" t="n">
-        <v>9575230558.32221</v>
+        <v>31430745444.391</v>
       </c>
       <c r="AO14" s="3" t="n">
-        <v>4407592394.21402</v>
+        <v>22944113201.5268</v>
       </c>
       <c r="AP14" s="3"/>
     </row>
@@ -6226,88 +4489,88 @@
         <f>O15</f>
       </c>
       <c r="N15" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="O15" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="P15" s="3" t="n">
-        <v>2333992419.9893</v>
+        <v>967068175.311544</v>
       </c>
       <c r="Q15" s="3" t="n">
-        <v>1978944398.97801</v>
+        <v>1098202532.69398</v>
       </c>
       <c r="R15" s="3" t="n">
-        <v>2182992970.75483</v>
+        <v>1109974745.10026</v>
       </c>
       <c r="S15" s="3" t="n">
-        <v>2557355389.70086</v>
+        <v>1325340662.84486</v>
       </c>
       <c r="T15" s="3" t="n">
-        <v>2893825752.0624</v>
+        <v>929709084.856146</v>
       </c>
       <c r="U15" s="3" t="n">
-        <v>2383359291.1133</v>
+        <v>1201644234.98612</v>
       </c>
       <c r="V15" s="3" t="n">
-        <v>3451831895.67887</v>
+        <v>1292895138.14582</v>
       </c>
       <c r="W15" s="3" t="n">
-        <v>3249393504.81727</v>
+        <v>1373921411.24054</v>
       </c>
       <c r="X15" s="3" t="n">
-        <v>3398833238.68468</v>
+        <v>1641818143.09058</v>
       </c>
       <c r="Y15" s="3" t="n">
-        <v>3087297746.07198</v>
+        <v>1350120560.37393</v>
       </c>
       <c r="Z15" s="3" t="n">
-        <v>2398141852.24858</v>
+        <v>1396481831.4792</v>
       </c>
       <c r="AA15" s="3" t="n">
-        <v>1821936528.92471</v>
+        <v>1466778800.2895</v>
       </c>
       <c r="AB15" s="3" t="n">
-        <v>1368601381.41759</v>
+        <v>1293098645.83112</v>
       </c>
       <c r="AC15" s="3" t="n">
-        <v>508393687.599138</v>
+        <v>1546888031.87515</v>
       </c>
       <c r="AD15" s="3" t="n">
-        <v>282950897.045921</v>
+        <v>1495181279.00056</v>
       </c>
       <c r="AE15" s="3" t="n">
-        <v>194794786.281193</v>
+        <v>1503359792.78335</v>
       </c>
       <c r="AF15" s="3" t="n">
-        <v>258503812.276638</v>
+        <v>1557815046.25598</v>
       </c>
       <c r="AG15" s="3" t="n">
-        <v>405569726.06773</v>
+        <v>1597891648.74513</v>
       </c>
       <c r="AH15" s="3" t="n">
-        <v>360740503.915684</v>
+        <v>1999580557.34148</v>
       </c>
       <c r="AI15" s="3" t="n">
-        <v>442296977.980862</v>
+        <v>2048360853.44286</v>
       </c>
       <c r="AJ15" s="3" t="n">
-        <v>557999118.687007</v>
+        <v>1404995617.20437</v>
       </c>
       <c r="AK15" s="3" t="n">
-        <v>458875960.028186</v>
+        <v>1254881146.32632</v>
       </c>
       <c r="AL15" s="3" t="n">
-        <v>609913329.192553</v>
+        <v>1213588753.03846</v>
       </c>
       <c r="AM15" s="3" t="n">
-        <v>752940203.2038</v>
+        <v>679414620.99</v>
       </c>
       <c r="AN15" s="3" t="n">
-        <v>710168485.342466</v>
+        <v>814298405.523666</v>
       </c>
       <c r="AO15" s="3" t="n">
-        <v>324017288.4268</v>
+        <v>403975196.55972</v>
       </c>
       <c r="AP15" s="3"/>
     </row>
@@ -6319,84 +4582,88 @@
         <f>O16</f>
       </c>
       <c r="N16" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="O16" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="P16" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q16" s="3"/>
+        <v>26813108.3906972</v>
+      </c>
+      <c r="Q16" s="3" t="n">
+        <v>5873219.87405304</v>
+      </c>
       <c r="R16" s="3" t="n">
-        <v>8062049.64508366</v>
+        <v>34398683.3898882</v>
       </c>
       <c r="S16" s="3" t="n">
-        <v>1030496.57890462</v>
+        <v>43864164.4255786</v>
       </c>
       <c r="T16" s="3" t="n">
-        <v>240766370.855835</v>
+        <v>600882.696574249</v>
       </c>
       <c r="U16" s="3" t="n">
-        <v>100288591.354166</v>
+        <v>8046364.24876323</v>
       </c>
       <c r="V16" s="3" t="n">
-        <v>146248304.592014</v>
+        <v>7752009.01659559</v>
       </c>
       <c r="W16" s="3" t="n">
-        <v>1346194013.30734</v>
+        <v>3429964.13129778</v>
       </c>
       <c r="X16" s="3" t="n">
-        <v>2483976351.09776</v>
+        <v>60040020.2575172</v>
       </c>
       <c r="Y16" s="3" t="n">
-        <v>3561346334.94463</v>
+        <v>40026719.0742517</v>
       </c>
       <c r="Z16" s="3" t="n">
-        <v>18552256.1026258</v>
+        <v>225245696.146174</v>
       </c>
       <c r="AA16" s="3" t="n">
-        <v>5099245.87641255</v>
+        <v>1931427437.63762</v>
       </c>
       <c r="AB16" s="3" t="n">
-        <v>-9039299.54084576</v>
+        <v>4588868851.52299</v>
       </c>
       <c r="AC16" s="3" t="n">
-        <v>-6230858.3331258</v>
+        <v>6101420339.44821</v>
       </c>
       <c r="AD16" s="3" t="n">
-        <v>-2642713.23987768</v>
+        <v>5785057453.92523</v>
       </c>
       <c r="AE16" s="3" t="n">
-        <v>-133919.260824959</v>
+        <v>6921403517.99096</v>
       </c>
       <c r="AF16" s="3" t="n">
-        <v>0</v>
+        <v>6972758970.40445</v>
       </c>
       <c r="AG16" s="3" t="n">
-        <v>-277818.740007449</v>
+        <v>8828928722.13656</v>
       </c>
       <c r="AH16" s="3" t="n">
-        <v>-139809.823179969</v>
+        <v>11411072528.7232</v>
       </c>
       <c r="AI16" s="3" t="n">
-        <v>0</v>
+        <v>10042547923.6234</v>
       </c>
       <c r="AJ16" s="3" t="n">
-        <v>0</v>
+        <v>8128310900.5723</v>
       </c>
       <c r="AK16" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL16" s="3"/>
+        <v>9278993824.8279</v>
+      </c>
+      <c r="AL16" s="3" t="n">
+        <v>9650870166.20285</v>
+      </c>
       <c r="AM16" s="3" t="n">
-        <v>-30000</v>
+        <v>9276520909.1715</v>
       </c>
       <c r="AN16" s="3" t="n">
-        <v>0</v>
+        <v>8680909428.16241</v>
       </c>
       <c r="AO16" s="3" t="n">
-        <v>0</v>
+        <v>3294644096.93774</v>
       </c>
       <c r="AP16" s="3"/>
     </row>
@@ -6408,88 +4675,88 @@
         <f>O17</f>
       </c>
       <c r="N17" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="O17" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="P17" s="3" t="n">
-        <v>12466650091.8661</v>
+        <v>207749581.247868</v>
       </c>
       <c r="Q17" s="3" t="n">
-        <v>10439938388.873</v>
+        <v>126971375.660125</v>
       </c>
       <c r="R17" s="3" t="n">
-        <v>8239426010.2477</v>
+        <v>231145754.821671</v>
       </c>
       <c r="S17" s="3" t="n">
-        <v>9612302594.50121</v>
+        <v>319538974.642443</v>
       </c>
       <c r="T17" s="3" t="n">
-        <v>7935541785.07485</v>
+        <v>373338398.088778</v>
       </c>
       <c r="U17" s="3" t="n">
-        <v>5821021827.07731</v>
+        <v>374716669.465099</v>
       </c>
       <c r="V17" s="3" t="n">
-        <v>6611513661.15396</v>
+        <v>223712081.301791</v>
       </c>
       <c r="W17" s="3" t="n">
-        <v>10605944940.1082</v>
+        <v>300094651.846279</v>
       </c>
       <c r="X17" s="3" t="n">
-        <v>6316176545.18962</v>
+        <v>361504076.897354</v>
       </c>
       <c r="Y17" s="3" t="n">
-        <v>8103383401.16909</v>
+        <v>259616684.162657</v>
       </c>
       <c r="Z17" s="3" t="n">
-        <v>9339579227.22152</v>
+        <v>296497042.865685</v>
       </c>
       <c r="AA17" s="3" t="n">
-        <v>5022146309.8227</v>
+        <v>358577595.923902</v>
       </c>
       <c r="AB17" s="3" t="n">
-        <v>15597672198.3724</v>
+        <v>296710288.870477</v>
       </c>
       <c r="AC17" s="3" t="n">
-        <v>13080878039.1469</v>
+        <v>212982651.141541</v>
       </c>
       <c r="AD17" s="3" t="n">
-        <v>4186232502.30435</v>
+        <v>171029983.696462</v>
       </c>
       <c r="AE17" s="3" t="n">
-        <v>6889506941.35239</v>
+        <v>145833930.419294</v>
       </c>
       <c r="AF17" s="3" t="n">
-        <v>18610831806.8261</v>
+        <v>200133519.22341</v>
       </c>
       <c r="AG17" s="3" t="n">
-        <v>32581150309.0387</v>
+        <v>137101675.580061</v>
       </c>
       <c r="AH17" s="3" t="n">
-        <v>24893688148.6473</v>
+        <v>169696861.015211</v>
       </c>
       <c r="AI17" s="3" t="n">
-        <v>17923487354.8889</v>
+        <v>240401980.847396</v>
       </c>
       <c r="AJ17" s="3" t="n">
-        <v>42868742719.209</v>
+        <v>195236055.481987</v>
       </c>
       <c r="AK17" s="3" t="n">
-        <v>12434291289.4107</v>
+        <v>187152143.344557</v>
       </c>
       <c r="AL17" s="3" t="n">
-        <v>19773777091.6491</v>
+        <v>129670668.490102</v>
       </c>
       <c r="AM17" s="3" t="n">
-        <v>15383277994.4694</v>
+        <v>84002534.7091</v>
       </c>
       <c r="AN17" s="3" t="n">
-        <v>13785087503.7557</v>
+        <v>142002676.222825</v>
       </c>
       <c r="AO17" s="3" t="n">
-        <v>14382849697.3305</v>
+        <v>23898093.6003672</v>
       </c>
       <c r="AP17" s="3"/>
     </row>
@@ -6501,86 +4768,88 @@
         <f>O18</f>
       </c>
       <c r="N18" t="s">
-        <v>65</v>
-      </c>
-      <c r="O18"/>
+        <v>52</v>
+      </c>
+      <c r="O18" t="s">
+        <v>55</v>
+      </c>
       <c r="P18" s="3" t="n">
-        <v>1961678244.3166</v>
+        <v>1826065962.32081</v>
       </c>
       <c r="Q18" s="3" t="n">
-        <v>135965365.735639</v>
+        <v>1476748806.95738</v>
       </c>
       <c r="R18" s="3" t="n">
-        <v>214123677.277662</v>
+        <v>1550346044.75602</v>
       </c>
       <c r="S18" s="3" t="n">
-        <v>274874260.220245</v>
+        <v>2597169188.6354</v>
       </c>
       <c r="T18" s="3" t="n">
-        <v>297958960.225106</v>
+        <v>2596868151.07615</v>
       </c>
       <c r="U18" s="3" t="n">
-        <v>289487857.682374</v>
+        <v>2767641670.85523</v>
       </c>
       <c r="V18" s="3" t="n">
-        <v>469468181.2101</v>
+        <v>3689371514.35873</v>
       </c>
       <c r="W18" s="3" t="n">
-        <v>360863984.400083</v>
+        <v>3650768461.20846</v>
       </c>
       <c r="X18" s="3" t="n">
-        <v>2056413038.40183</v>
+        <v>3294076075.26215</v>
       </c>
       <c r="Y18" s="3" t="n">
-        <v>2670380079.17237</v>
+        <v>3859868947.87378</v>
       </c>
       <c r="Z18" s="3" t="n">
-        <v>1391150380.6513</v>
+        <v>3778274422.4686</v>
       </c>
       <c r="AA18" s="3" t="n">
-        <v>2044653769.80022</v>
+        <v>3269751918.71836</v>
       </c>
       <c r="AB18" s="3" t="n">
-        <v>4109516527.20449</v>
+        <v>2600699929.388</v>
       </c>
       <c r="AC18" s="3" t="n">
-        <v>-12132313.8414576</v>
+        <v>2113651059.77182</v>
       </c>
       <c r="AD18" s="3" t="n">
-        <v>30385.0245950002</v>
+        <v>2059884551.69524</v>
       </c>
       <c r="AE18" s="3" t="n">
-        <v>77369742.8952301</v>
+        <v>2095180912.26795</v>
       </c>
       <c r="AF18" s="3" t="n">
-        <v>372877995.868592</v>
+        <v>2544268888.33053</v>
       </c>
       <c r="AG18" s="3" t="n">
-        <v>16704427.3224071</v>
+        <v>2468727230.80017</v>
       </c>
       <c r="AH18" s="3" t="n">
-        <v>222029.041186222</v>
+        <v>2244082419.61665</v>
       </c>
       <c r="AI18" s="3" t="n">
-        <v>-6465.52414250946</v>
+        <v>2623258243.47768</v>
       </c>
       <c r="AJ18" s="3" t="n">
-        <v>0</v>
+        <v>2879887896.91054</v>
       </c>
       <c r="AK18" s="3" t="n">
-        <v>0</v>
+        <v>2654935301.59013</v>
       </c>
       <c r="AL18" s="3" t="n">
-        <v>0</v>
+        <v>2660131597.38531</v>
       </c>
       <c r="AM18" s="3" t="n">
-        <v>-39324.9492</v>
+        <v>2900505982.4097</v>
       </c>
       <c r="AN18" s="3" t="n">
-        <v>0</v>
+        <v>3145620803.73296</v>
       </c>
       <c r="AO18" s="3" t="n">
-        <v>0</v>
+        <v>1359699835.50267</v>
       </c>
       <c r="AP18" s="3"/>
     </row>
@@ -6592,88 +4861,88 @@
         <f>O19</f>
       </c>
       <c r="N19" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="O19" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="P19" s="3" t="n">
-        <v>31380839064.7676</v>
+        <v>15684016318.5316</v>
       </c>
       <c r="Q19" s="3" t="n">
-        <v>33620364445.1642</v>
+        <v>17655391737.0195</v>
       </c>
       <c r="R19" s="3" t="n">
-        <v>38301445021.377</v>
+        <v>18479684439.8471</v>
       </c>
       <c r="S19" s="3" t="n">
-        <v>42602784756.6875</v>
+        <v>22376077087.8133</v>
       </c>
       <c r="T19" s="3" t="n">
-        <v>38213132942.0917</v>
+        <v>22450736123.7216</v>
       </c>
       <c r="U19" s="3" t="n">
-        <v>30579093903.3368</v>
+        <v>23126334983.4507</v>
       </c>
       <c r="V19" s="3" t="n">
-        <v>39502456894.1538</v>
+        <v>24205492736.0404</v>
       </c>
       <c r="W19" s="3" t="n">
-        <v>41775006589.8634</v>
+        <v>26727503709.2742</v>
       </c>
       <c r="X19" s="3" t="n">
-        <v>41333767703.9683</v>
+        <v>28758613908.2458</v>
       </c>
       <c r="Y19" s="3" t="n">
-        <v>42581327454.3777</v>
+        <v>30946978405.4201</v>
       </c>
       <c r="Z19" s="3" t="n">
-        <v>44000621304.3423</v>
+        <v>33196936107.6344</v>
       </c>
       <c r="AA19" s="3" t="n">
-        <v>47129175911.4272</v>
+        <v>29535082303.1878</v>
       </c>
       <c r="AB19" s="3" t="n">
-        <v>45920674315.1506</v>
+        <v>31020979567.106</v>
       </c>
       <c r="AC19" s="3" t="n">
-        <v>42715862468.0316</v>
+        <v>22049516464.803</v>
       </c>
       <c r="AD19" s="3" t="n">
-        <v>34821677523.6389</v>
+        <v>19668604612.5615</v>
       </c>
       <c r="AE19" s="3" t="n">
-        <v>34213149689.2136</v>
+        <v>18682153735.3473</v>
       </c>
       <c r="AF19" s="3" t="n">
-        <v>40505113604.3721</v>
+        <v>19885088360.3754</v>
       </c>
       <c r="AG19" s="3" t="n">
-        <v>40988463073.8378</v>
+        <v>23297735817.2783</v>
       </c>
       <c r="AH19" s="3" t="n">
-        <v>42724351429.0462</v>
+        <v>27925487138.3422</v>
       </c>
       <c r="AI19" s="3" t="n">
-        <v>50295711034.3523</v>
+        <v>30337382815.0468</v>
       </c>
       <c r="AJ19" s="3" t="n">
-        <v>50007701253.8418</v>
+        <v>38427209482.5666</v>
       </c>
       <c r="AK19" s="3" t="n">
-        <v>39145930000.6527</v>
+        <v>30245689170.404</v>
       </c>
       <c r="AL19" s="3" t="n">
-        <v>33804392992.0689</v>
+        <v>27347446664.7342</v>
       </c>
       <c r="AM19" s="3" t="n">
-        <v>39681121088.8237</v>
+        <v>30777027189.8927</v>
       </c>
       <c r="AN19" s="3" t="n">
-        <v>30848870164.961</v>
+        <v>27722582763.3529</v>
       </c>
       <c r="AO19" s="3" t="n">
-        <v>13051172664.1017</v>
+        <v>12283958448.59</v>
       </c>
       <c r="AP19" s="3"/>
     </row>
@@ -6685,89 +4954,71 @@
         <f>O20</f>
       </c>
       <c r="N20" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="O20" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="P20" s="3" t="n">
-        <v>1374740786.38933</v>
+        <v>172937629.710576</v>
       </c>
       <c r="Q20" s="3" t="n">
-        <v>2786905309.65927</v>
+        <v>235834465.22392</v>
       </c>
       <c r="R20" s="3" t="n">
-        <v>3021858436.9238</v>
+        <v>138196433.137222</v>
       </c>
       <c r="S20" s="3" t="n">
-        <v>2811717550.66379</v>
+        <v>26632861.2519069</v>
       </c>
       <c r="T20" s="3" t="n">
-        <v>3826339902.28556</v>
+        <v>84413686.489484</v>
       </c>
       <c r="U20" s="3" t="n">
-        <v>11494580787.3033</v>
+        <v>8323585.83023936</v>
       </c>
       <c r="V20" s="3" t="n">
-        <v>5542519880.41824</v>
+        <v>2553011.17012511</v>
       </c>
       <c r="W20" s="3" t="n">
-        <v>5303109148.37376</v>
+        <v>3085727.48668454</v>
       </c>
       <c r="X20" s="3" t="n">
-        <v>10608686076.2386</v>
+        <v>-17042.5867402221</v>
       </c>
       <c r="Y20" s="3" t="n">
-        <v>5553685109.13818</v>
+        <v>-2256.61312096531</v>
       </c>
       <c r="Z20" s="3" t="n">
-        <v>2965783056.80324</v>
-      </c>
-      <c r="AA20" s="3" t="n">
-        <v>1625447233.72967</v>
-      </c>
-      <c r="AB20" s="3" t="n">
-        <v>728472441.00733</v>
-      </c>
+        <v>34719.170077105</v>
+      </c>
+      <c r="AA20" s="3"/>
+      <c r="AB20" s="3"/>
       <c r="AC20" s="3" t="n">
-        <v>647419814.630108</v>
+        <v>29831.9874115</v>
       </c>
       <c r="AD20" s="3" t="n">
-        <v>472022089.521847</v>
-      </c>
-      <c r="AE20" s="3" t="n">
-        <v>223243668.780392</v>
-      </c>
-      <c r="AF20" s="3" t="n">
-        <v>225827228.459164</v>
-      </c>
+        <v>58813.5687252362</v>
+      </c>
+      <c r="AE20" s="3"/>
+      <c r="AF20" s="3"/>
       <c r="AG20" s="3" t="n">
-        <v>277848619.196467</v>
+        <v>10038.6708360684</v>
       </c>
       <c r="AH20" s="3" t="n">
-        <v>199222463.859374</v>
-      </c>
-      <c r="AI20" s="3" t="n">
-        <v>271988820.320174</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="AI20" s="3"/>
       <c r="AJ20" s="3" t="n">
-        <v>517890310.499252</v>
-      </c>
-      <c r="AK20" s="3" t="n">
-        <v>503228482.189855</v>
-      </c>
+        <v>2299.20297491268</v>
+      </c>
+      <c r="AK20" s="3"/>
       <c r="AL20" s="3" t="n">
-        <v>362782671.538248</v>
-      </c>
-      <c r="AM20" s="3" t="n">
-        <v>445506149.2168</v>
-      </c>
-      <c r="AN20" s="3" t="n">
-        <v>348952492.970169</v>
-      </c>
-      <c r="AO20" s="3" t="n">
-        <v>236635117.156692</v>
-      </c>
+        <v>888.884605510837</v>
+      </c>
+      <c r="AM20" s="3"/>
+      <c r="AN20" s="3"/>
+      <c r="AO20" s="3"/>
       <c r="AP20" s="3"/>
     </row>
     <row r="21">
@@ -6777,89 +5028,51 @@
       <c r="B21" t="str">
         <f>O21</f>
       </c>
-      <c r="N21" t="s">
-        <v>71</v>
-      </c>
-      <c r="O21" t="s">
-        <v>71</v>
-      </c>
-      <c r="P21" s="3" t="n">
-        <v>2463263694.21683</v>
-      </c>
+      <c r="N21"/>
+      <c r="O21"/>
+      <c r="P21" s="3"/>
       <c r="Q21" s="3" t="n">
-        <v>2591276423.61655</v>
+        <v>0</v>
       </c>
       <c r="R21" s="3" t="n">
-        <v>2012175449.90212</v>
+        <v>0</v>
       </c>
       <c r="S21" s="3" t="n">
-        <v>3529994695.30569</v>
-      </c>
-      <c r="T21" s="3" t="n">
-        <v>3171551868.49641</v>
-      </c>
-      <c r="U21" s="3" t="n">
-        <v>3229471314.81394</v>
-      </c>
-      <c r="V21" s="3" t="n">
-        <v>3595413100.84349</v>
-      </c>
-      <c r="W21" s="3" t="n">
-        <v>5266848796.49145</v>
-      </c>
-      <c r="X21" s="3" t="n">
-        <v>10088892364.3372</v>
-      </c>
-      <c r="Y21" s="3" t="n">
-        <v>10099626324.0038</v>
-      </c>
-      <c r="Z21" s="3" t="n">
-        <v>11930116472.8723</v>
-      </c>
-      <c r="AA21" s="3" t="n">
-        <v>23120709529.9303</v>
-      </c>
-      <c r="AB21" s="3" t="n">
-        <v>20616844442.2261</v>
-      </c>
-      <c r="AC21" s="3" t="n">
-        <v>24456617002.3798</v>
-      </c>
-      <c r="AD21" s="3" t="n">
-        <v>20317420045.8228</v>
-      </c>
-      <c r="AE21" s="3" t="n">
-        <v>23015169384.9532</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="T21" s="3"/>
+      <c r="U21" s="3"/>
+      <c r="V21" s="3"/>
+      <c r="W21" s="3"/>
+      <c r="X21" s="3"/>
+      <c r="Y21" s="3"/>
+      <c r="Z21" s="3"/>
+      <c r="AA21" s="3"/>
+      <c r="AB21" s="3"/>
+      <c r="AC21" s="3"/>
+      <c r="AD21" s="3"/>
+      <c r="AE21" s="3"/>
       <c r="AF21" s="3" t="n">
-        <v>20797539425.0917</v>
-      </c>
-      <c r="AG21" s="3" t="n">
-        <v>17171748704.1057</v>
-      </c>
-      <c r="AH21" s="3" t="n">
-        <v>20444835558.1945</v>
-      </c>
-      <c r="AI21" s="3" t="n">
-        <v>23038951005.42</v>
-      </c>
-      <c r="AJ21" s="3" t="n">
-        <v>19292117094.6546</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="AG21" s="3"/>
+      <c r="AH21" s="3"/>
+      <c r="AI21" s="3"/>
+      <c r="AJ21" s="3"/>
       <c r="AK21" s="3" t="n">
-        <v>19721112369.3831</v>
+        <v>0</v>
       </c>
       <c r="AL21" s="3" t="n">
-        <v>15234156010.0341</v>
+        <v>0</v>
       </c>
       <c r="AM21" s="3" t="n">
-        <v>33360045896.3436</v>
+        <v>0</v>
       </c>
       <c r="AN21" s="3" t="n">
-        <v>16667850316.0342</v>
+        <v>0</v>
       </c>
       <c r="AO21" s="3" t="n">
-        <v>7908013937.95031</v>
+        <v>-7773.53730666113</v>
       </c>
       <c r="AP21" s="3"/>
     </row>
@@ -6902,4 +5115,2745 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false">
+      <pane ySplit="1" xSplit="2" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <f>N1</f>
+      </c>
+      <c r="B1" t="str">
+        <f>O1</f>
+      </c>
+      <c r="N1" t="s">
+        <v>60</v>
+      </c>
+      <c r="O1" t="s">
+        <v>61</v>
+      </c>
+      <c r="P1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>24</v>
+      </c>
+      <c r="R1" t="s">
+        <v>25</v>
+      </c>
+      <c r="S1" t="s">
+        <v>26</v>
+      </c>
+      <c r="T1" t="s">
+        <v>27</v>
+      </c>
+      <c r="U1" t="s">
+        <v>28</v>
+      </c>
+      <c r="V1" t="s">
+        <v>29</v>
+      </c>
+      <c r="W1" t="s">
+        <v>30</v>
+      </c>
+      <c r="X1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <f>N2</f>
+      </c>
+      <c r="B2" t="str">
+        <f>O2</f>
+      </c>
+      <c r="N2" t="s">
+        <v>62</v>
+      </c>
+      <c r="O2" t="s">
+        <v>63</v>
+      </c>
+      <c r="P2" s="4" t="n">
+        <v>4893879577</v>
+      </c>
+      <c r="Q2" s="4" t="n">
+        <v>5247642300</v>
+      </c>
+      <c r="R2" s="4" t="n">
+        <v>6034529157.5</v>
+      </c>
+      <c r="S2" s="4" t="n">
+        <v>11036590394.19</v>
+      </c>
+      <c r="T2" s="4" t="n">
+        <v>11814229205.265</v>
+      </c>
+      <c r="U2" s="4" t="n">
+        <v>12012830425.11</v>
+      </c>
+      <c r="V2" s="4" t="n">
+        <v>14160856969.0703</v>
+      </c>
+      <c r="W2" s="4" t="n">
+        <v>13522026849.1259</v>
+      </c>
+      <c r="X2" s="4" t="n">
+        <v>13076178556.5312</v>
+      </c>
+      <c r="Y2" s="4" t="n">
+        <v>12166737110.5226</v>
+      </c>
+      <c r="Z2" s="4" t="n">
+        <v>12719116876.0065</v>
+      </c>
+      <c r="AA2" s="4" t="n">
+        <v>11731028731.6661</v>
+      </c>
+      <c r="AB2" s="4" t="n">
+        <v>12386982695.817</v>
+      </c>
+      <c r="AC2" s="4" t="n">
+        <v>11654929430.9434</v>
+      </c>
+      <c r="AD2" s="4" t="n">
+        <v>11609096598.1114</v>
+      </c>
+      <c r="AE2" s="4" t="n">
+        <v>11356943354.2953</v>
+      </c>
+      <c r="AF2" s="4" t="n">
+        <v>11552405193.8073</v>
+      </c>
+      <c r="AG2" s="4" t="n">
+        <v>12704173142.4661</v>
+      </c>
+      <c r="AH2" s="4" t="n">
+        <v>11438769325.7464</v>
+      </c>
+      <c r="AI2" s="4" t="n">
+        <v>13191192427.3741</v>
+      </c>
+      <c r="AJ2" s="4" t="n">
+        <v>9281246848.5405</v>
+      </c>
+      <c r="AK2" s="4" t="n">
+        <v>10168413662.15</v>
+      </c>
+      <c r="AL2" s="4" t="n">
+        <v>10609983284.8786</v>
+      </c>
+      <c r="AM2" s="4" t="n">
+        <v>9689399758.3349</v>
+      </c>
+      <c r="AN2" s="4" t="n">
+        <v>9830946550.71</v>
+      </c>
+      <c r="AO2" s="4" t="n">
+        <v>4624596000.9</v>
+      </c>
+      <c r="AP2" s="4"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <f>N3</f>
+      </c>
+      <c r="B3" t="str">
+        <f>O3</f>
+      </c>
+      <c r="N3" t="s">
+        <v>62</v>
+      </c>
+      <c r="O3" t="s">
+        <v>64</v>
+      </c>
+      <c r="P3" s="4" t="n">
+        <v>1388311540</v>
+      </c>
+      <c r="Q3" s="4" t="n">
+        <v>1205653273</v>
+      </c>
+      <c r="R3" s="4" t="n">
+        <v>1350891201.4375</v>
+      </c>
+      <c r="S3" s="4" t="n">
+        <v>1612933493.7125</v>
+      </c>
+      <c r="T3" s="4" t="n">
+        <v>1869714402.0256</v>
+      </c>
+      <c r="U3" s="4" t="n">
+        <v>1586758494.9955</v>
+      </c>
+      <c r="V3" s="4" t="n">
+        <v>2372763287.3138</v>
+      </c>
+      <c r="W3" s="4" t="n">
+        <v>2295098778.7194</v>
+      </c>
+      <c r="X3" s="4" t="n">
+        <v>2450489993.0999</v>
+      </c>
+      <c r="Y3" s="4" t="n">
+        <v>2248641294.0162</v>
+      </c>
+      <c r="Z3" s="4" t="n">
+        <v>1761819950.7535</v>
+      </c>
+      <c r="AA3" s="4" t="n">
+        <v>1365370308.5064</v>
+      </c>
+      <c r="AB3" s="4" t="n">
+        <v>1044249468.4721</v>
+      </c>
+      <c r="AC3" s="4" t="n">
+        <v>394945305.2471</v>
+      </c>
+      <c r="AD3" s="4" t="n">
+        <v>223820255.7404</v>
+      </c>
+      <c r="AE3" s="4" t="n">
+        <v>155682635.782</v>
+      </c>
+      <c r="AF3" s="4" t="n">
+        <v>208251535.0898</v>
+      </c>
+      <c r="AG3" s="4" t="n">
+        <v>332243570.0744</v>
+      </c>
+      <c r="AH3" s="4" t="n">
+        <v>302079907.6173</v>
+      </c>
+      <c r="AI3" s="4" t="n">
+        <v>377222399.9235</v>
+      </c>
+      <c r="AJ3" s="4" t="n">
+        <v>482118186.7506</v>
+      </c>
+      <c r="AK3" s="4" t="n">
+        <v>410120154.3307</v>
+      </c>
+      <c r="AL3" s="4" t="n">
+        <v>583232431.521</v>
+      </c>
+      <c r="AM3" s="4" t="n">
+        <v>752940203.2038</v>
+      </c>
+      <c r="AN3" s="4" t="n">
+        <v>729134236.39</v>
+      </c>
+      <c r="AO3" s="4" t="n">
+        <v>339969970.51</v>
+      </c>
+      <c r="AP3" s="4"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <f>N4</f>
+      </c>
+      <c r="B4" t="str">
+        <f>O4</f>
+      </c>
+      <c r="N4" t="s">
+        <v>65</v>
+      </c>
+      <c r="O4" t="s">
+        <v>66</v>
+      </c>
+      <c r="P4" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="4"/>
+      <c r="R4" s="4" t="n">
+        <v>4989000</v>
+      </c>
+      <c r="S4" s="4" t="n">
+        <v>649938</v>
+      </c>
+      <c r="T4" s="4" t="n">
+        <v>155560282.3673</v>
+      </c>
+      <c r="U4" s="4" t="n">
+        <v>66768688.5799</v>
+      </c>
+      <c r="V4" s="4" t="n">
+        <v>100529984.7893</v>
+      </c>
+      <c r="W4" s="4" t="n">
+        <v>950838435.3205</v>
+      </c>
+      <c r="X4" s="4" t="n">
+        <v>1790896688.364</v>
+      </c>
+      <c r="Y4" s="4" t="n">
+        <v>2593915809.1372</v>
+      </c>
+      <c r="Z4" s="4" t="n">
+        <v>13629608.6499</v>
+      </c>
+      <c r="AA4" s="4" t="n">
+        <v>3821405.853</v>
+      </c>
+      <c r="AB4" s="4" t="n">
+        <v>-6897029.2366</v>
+      </c>
+      <c r="AC4" s="4" t="n">
+        <v>-4840438.2398</v>
+      </c>
+      <c r="AD4" s="4" t="n">
+        <v>-2090443.11</v>
+      </c>
+      <c r="AE4" s="4" t="n">
+        <v>-107030.09</v>
+      </c>
+      <c r="AF4" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG4" s="4" t="n">
+        <v>-227589.6944</v>
+      </c>
+      <c r="AH4" s="4" t="n">
+        <v>-117075.1219</v>
+      </c>
+      <c r="AI4" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ4" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK4" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL4" s="4"/>
+      <c r="AM4" s="4" t="n">
+        <v>-30000</v>
+      </c>
+      <c r="AN4" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO4" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP4" s="4"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <f>N5</f>
+      </c>
+      <c r="B5" t="str">
+        <f>O5</f>
+      </c>
+      <c r="N5" t="s">
+        <v>65</v>
+      </c>
+      <c r="O5" t="s">
+        <v>67</v>
+      </c>
+      <c r="P5" s="4" t="n">
+        <v>7415445757</v>
+      </c>
+      <c r="Q5" s="4" t="n">
+        <v>6360434328</v>
+      </c>
+      <c r="R5" s="4" t="n">
+        <v>5098764976</v>
+      </c>
+      <c r="S5" s="4" t="n">
+        <v>6062514763.81</v>
+      </c>
+      <c r="T5" s="4" t="n">
+        <v>5127190796.77</v>
+      </c>
+      <c r="U5" s="4" t="n">
+        <v>3875435763.34</v>
+      </c>
+      <c r="V5" s="4" t="n">
+        <v>4544704772.0945</v>
+      </c>
+      <c r="W5" s="4" t="n">
+        <v>7491149115.4028</v>
+      </c>
+      <c r="X5" s="4" t="n">
+        <v>4553835487.5655</v>
+      </c>
+      <c r="Y5" s="4" t="n">
+        <v>5902120247.4876</v>
+      </c>
+      <c r="Z5" s="4" t="n">
+        <v>6861419393.825</v>
+      </c>
+      <c r="AA5" s="4" t="n">
+        <v>3763626969.1864</v>
+      </c>
+      <c r="AB5" s="4" t="n">
+        <v>11901099270.9079</v>
+      </c>
+      <c r="AC5" s="4" t="n">
+        <v>10161871589.0597</v>
+      </c>
+      <c r="AD5" s="4" t="n">
+        <v>3311400101.702</v>
+      </c>
+      <c r="AE5" s="4" t="n">
+        <v>5506187410.58</v>
+      </c>
+      <c r="AF5" s="4" t="n">
+        <v>14992948300.979</v>
+      </c>
+      <c r="AG5" s="4" t="n">
+        <v>26690546655.8367</v>
+      </c>
+      <c r="AH5" s="4" t="n">
+        <v>20845685290.5957</v>
+      </c>
+      <c r="AI5" s="4" t="n">
+        <v>15286428014.6681</v>
+      </c>
+      <c r="AJ5" s="4" t="n">
+        <v>37039127510.9809</v>
+      </c>
+      <c r="AK5" s="4" t="n">
+        <v>11113141473.5537</v>
+      </c>
+      <c r="AL5" s="4" t="n">
+        <v>18908765461.4543</v>
+      </c>
+      <c r="AM5" s="4" t="n">
+        <v>15383277994.4694</v>
+      </c>
+      <c r="AN5" s="4" t="n">
+        <v>14153231885.21</v>
+      </c>
+      <c r="AO5" s="4" t="n">
+        <v>15090975580.94</v>
+      </c>
+      <c r="AP5" s="4"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <f>N6</f>
+      </c>
+      <c r="B6" t="str">
+        <f>O6</f>
+      </c>
+      <c r="N6" t="s">
+        <v>65</v>
+      </c>
+      <c r="O6"/>
+      <c r="P6" s="4" t="n">
+        <v>1166850638</v>
+      </c>
+      <c r="Q6" s="4" t="n">
+        <v>82835621</v>
+      </c>
+      <c r="R6" s="4" t="n">
+        <v>132505141.12</v>
+      </c>
+      <c r="S6" s="4" t="n">
+        <v>173364211.5813</v>
+      </c>
+      <c r="T6" s="4" t="n">
+        <v>192512682.8208</v>
+      </c>
+      <c r="U6" s="4" t="n">
+        <v>192731041.0513</v>
+      </c>
+      <c r="V6" s="4" t="n">
+        <v>322708897.3631</v>
+      </c>
+      <c r="W6" s="4" t="n">
+        <v>254884023.327</v>
+      </c>
+      <c r="X6" s="4" t="n">
+        <v>1482632191.2263</v>
+      </c>
+      <c r="Y6" s="4" t="n">
+        <v>1944978233.5977</v>
+      </c>
+      <c r="Z6" s="4" t="n">
+        <v>1022023152.1466</v>
+      </c>
+      <c r="AA6" s="4" t="n">
+        <v>1532275962.4939</v>
+      </c>
+      <c r="AB6" s="4" t="n">
+        <v>3135580971.5504</v>
+      </c>
+      <c r="AC6" s="4" t="n">
+        <v>-9424980.1096</v>
+      </c>
+      <c r="AD6" s="4" t="n">
+        <v>24035.2091</v>
+      </c>
+      <c r="AE6" s="4" t="n">
+        <v>61834948.1198</v>
+      </c>
+      <c r="AF6" s="4" t="n">
+        <v>300391759.63</v>
+      </c>
+      <c r="AG6" s="4" t="n">
+        <v>13684301.8917</v>
+      </c>
+      <c r="AH6" s="4" t="n">
+        <v>185924.54</v>
+      </c>
+      <c r="AI6" s="4" t="n">
+        <v>-5514.26</v>
+      </c>
+      <c r="AJ6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM6" s="4" t="n">
+        <v>-39324.9492</v>
+      </c>
+      <c r="AN6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP6" s="4"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <f>N7</f>
+      </c>
+      <c r="B7" t="str">
+        <f>O7</f>
+      </c>
+      <c r="N7" t="s">
+        <v>68</v>
+      </c>
+      <c r="O7" t="s">
+        <v>69</v>
+      </c>
+      <c r="P7" s="4" t="n">
+        <v>18666033632.0627</v>
+      </c>
+      <c r="Q7" s="4" t="n">
+        <v>20482891006.7905</v>
+      </c>
+      <c r="R7" s="4" t="n">
+        <v>23701901826.9351</v>
+      </c>
+      <c r="S7" s="4" t="n">
+        <v>26869733763.3325</v>
+      </c>
+      <c r="T7" s="4" t="n">
+        <v>24689684566.3315</v>
+      </c>
+      <c r="U7" s="4" t="n">
+        <v>20358507087.5821</v>
+      </c>
+      <c r="V7" s="4" t="n">
+        <v>27153691810.5655</v>
+      </c>
+      <c r="W7" s="4" t="n">
+        <v>29506357559.7263</v>
+      </c>
+      <c r="X7" s="4" t="n">
+        <v>29800810167.1054</v>
+      </c>
+      <c r="Y7" s="4" t="n">
+        <v>31014219924.1275</v>
+      </c>
+      <c r="Z7" s="4" t="n">
+        <v>32325515851.7221</v>
+      </c>
+      <c r="AA7" s="4" t="n">
+        <v>35318890879.1547</v>
+      </c>
+      <c r="AB7" s="4" t="n">
+        <v>35037696437.0789</v>
+      </c>
+      <c r="AC7" s="4" t="n">
+        <v>33183789950.2639</v>
+      </c>
+      <c r="AD7" s="4" t="n">
+        <v>27544697154.2406</v>
+      </c>
+      <c r="AE7" s="4" t="n">
+        <v>27343613367.2082</v>
+      </c>
+      <c r="AF7" s="4" t="n">
+        <v>32631054887.7718</v>
+      </c>
+      <c r="AG7" s="4" t="n">
+        <v>33577834902.895</v>
+      </c>
+      <c r="AH7" s="4" t="n">
+        <v>35776875600.6171</v>
+      </c>
+      <c r="AI7" s="4" t="n">
+        <v>42895768605.1795</v>
+      </c>
+      <c r="AJ7" s="4" t="n">
+        <v>43207276579.2153</v>
+      </c>
+      <c r="AK7" s="4" t="n">
+        <v>34986654895.3672</v>
+      </c>
+      <c r="AL7" s="4" t="n">
+        <v>32325606569.3088</v>
+      </c>
+      <c r="AM7" s="4" t="n">
+        <v>39681121088.8237</v>
+      </c>
+      <c r="AN7" s="4" t="n">
+        <v>31672719721.4</v>
+      </c>
+      <c r="AO7" s="4" t="n">
+        <v>13693734699.4</v>
+      </c>
+      <c r="AP7" s="4"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <f>N8</f>
+      </c>
+      <c r="B8" t="str">
+        <f>O8</f>
+      </c>
+      <c r="N8" t="s">
+        <v>68</v>
+      </c>
+      <c r="O8" t="s">
+        <v>70</v>
+      </c>
+      <c r="P8" s="4" t="n">
+        <v>817726948</v>
+      </c>
+      <c r="Q8" s="4" t="n">
+        <v>1697895863</v>
+      </c>
+      <c r="R8" s="4" t="n">
+        <v>1870002345</v>
+      </c>
+      <c r="S8" s="4" t="n">
+        <v>1773360648.5</v>
+      </c>
+      <c r="T8" s="4" t="n">
+        <v>2472216171.7062</v>
+      </c>
+      <c r="U8" s="4" t="n">
+        <v>7652695830.9109</v>
+      </c>
+      <c r="V8" s="4" t="n">
+        <v>3809886486.05</v>
+      </c>
+      <c r="W8" s="4" t="n">
+        <v>3745671095.792</v>
+      </c>
+      <c r="X8" s="4" t="n">
+        <v>7648648004.814</v>
+      </c>
+      <c r="Y8" s="4" t="n">
+        <v>4045040905.5168</v>
+      </c>
+      <c r="Z8" s="4" t="n">
+        <v>2178843488.4214</v>
+      </c>
+      <c r="AA8" s="4" t="n">
+        <v>1218120036.4253</v>
+      </c>
+      <c r="AB8" s="4" t="n">
+        <v>555827993.1959</v>
+      </c>
+      <c r="AC8" s="4" t="n">
+        <v>502947661.5251</v>
+      </c>
+      <c r="AD8" s="4" t="n">
+        <v>373379642.5277</v>
+      </c>
+      <c r="AE8" s="4" t="n">
+        <v>178419368.6129</v>
+      </c>
+      <c r="AF8" s="4" t="n">
+        <v>181927169.9613</v>
+      </c>
+      <c r="AG8" s="4" t="n">
+        <v>227614171.4943</v>
+      </c>
+      <c r="AH8" s="4" t="n">
+        <v>166826577.0677</v>
+      </c>
+      <c r="AI8" s="4" t="n">
+        <v>231971459.5879</v>
+      </c>
+      <c r="AJ8" s="4" t="n">
+        <v>447463677.0415</v>
+      </c>
+      <c r="AK8" s="4" t="n">
+        <v>449760198.3042</v>
+      </c>
+      <c r="AL8" s="4" t="n">
+        <v>346912601.361</v>
+      </c>
+      <c r="AM8" s="4" t="n">
+        <v>445506149.2168</v>
+      </c>
+      <c r="AN8" s="4" t="n">
+        <v>358271614.06</v>
+      </c>
+      <c r="AO8" s="4" t="n">
+        <v>248285621.4</v>
+      </c>
+      <c r="AP8" s="4"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <f>N9</f>
+      </c>
+      <c r="B9" t="str">
+        <f>O9</f>
+      </c>
+      <c r="N9" t="s">
+        <v>71</v>
+      </c>
+      <c r="O9" t="s">
+        <v>71</v>
+      </c>
+      <c r="P9" s="4" t="n">
+        <v>1465205021</v>
+      </c>
+      <c r="Q9" s="4" t="n">
+        <v>1578710803.09</v>
+      </c>
+      <c r="R9" s="4" t="n">
+        <v>1245185004</v>
+      </c>
+      <c r="S9" s="4" t="n">
+        <v>2226380697.6597</v>
+      </c>
+      <c r="T9" s="4" t="n">
+        <v>2049154549.5</v>
+      </c>
+      <c r="U9" s="4" t="n">
+        <v>2150070726.7395</v>
+      </c>
+      <c r="V9" s="4" t="n">
+        <v>2471459928.0133</v>
+      </c>
+      <c r="W9" s="4" t="n">
+        <v>3720059827.3514</v>
+      </c>
+      <c r="X9" s="4" t="n">
+        <v>7273887256.039</v>
+      </c>
+      <c r="Y9" s="4" t="n">
+        <v>7356088940.6222</v>
+      </c>
+      <c r="Z9" s="4" t="n">
+        <v>8764584629.1417</v>
+      </c>
+      <c r="AA9" s="4" t="n">
+        <v>17326800249.4023</v>
+      </c>
+      <c r="AB9" s="4" t="n">
+        <v>15730751950.6277</v>
+      </c>
+      <c r="AC9" s="4" t="n">
+        <v>18999106997.0411</v>
+      </c>
+      <c r="AD9" s="4" t="n">
+        <v>16071516995.0607</v>
+      </c>
+      <c r="AE9" s="4" t="n">
+        <v>18394035596.2425</v>
+      </c>
+      <c r="AF9" s="4" t="n">
+        <v>16754567266.2306</v>
+      </c>
+      <c r="AG9" s="4" t="n">
+        <v>14067132547.5604</v>
+      </c>
+      <c r="AH9" s="4" t="n">
+        <v>17120267809.2222</v>
+      </c>
+      <c r="AI9" s="4" t="n">
+        <v>19649260163.7457</v>
+      </c>
+      <c r="AJ9" s="4" t="n">
+        <v>16668629395.2236</v>
+      </c>
+      <c r="AK9" s="4" t="n">
+        <v>17625734082.9266</v>
+      </c>
+      <c r="AL9" s="4" t="n">
+        <v>14567731883.586</v>
+      </c>
+      <c r="AM9" s="4" t="n">
+        <v>33360045896.3436</v>
+      </c>
+      <c r="AN9" s="4" t="n">
+        <v>17112981726.56</v>
+      </c>
+      <c r="AO9" s="4" t="n">
+        <v>8297357459.94</v>
+      </c>
+      <c r="AP9" s="4"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <f>N10</f>
+      </c>
+      <c r="B10" t="str">
+        <f>O10</f>
+      </c>
+      <c r="N10" t="s">
+        <v>58</v>
+      </c>
+      <c r="O10" t="s">
+        <v>59</v>
+      </c>
+      <c r="P10" s="4" t="str">
+        <f>Sum(P2:P9)</f>
+      </c>
+      <c r="Q10" s="4" t="str">
+        <f>Sum(Q2:Q9)</f>
+      </c>
+      <c r="R10" s="4" t="str">
+        <f>Sum(R2:R9)</f>
+      </c>
+      <c r="S10" s="4" t="str">
+        <f>Sum(S2:S9)</f>
+      </c>
+      <c r="T10" s="4" t="str">
+        <f>Sum(T2:T9)</f>
+      </c>
+      <c r="U10" s="4" t="str">
+        <f>Sum(U2:U9)</f>
+      </c>
+      <c r="V10" s="4" t="str">
+        <f>Sum(V2:V9)</f>
+      </c>
+      <c r="W10" s="4" t="str">
+        <f>Sum(W2:W9)</f>
+      </c>
+      <c r="X10" s="4" t="str">
+        <f>Sum(X2:X9)</f>
+      </c>
+      <c r="Y10" s="4" t="str">
+        <f>Sum(Y2:Y9)</f>
+      </c>
+      <c r="Z10" s="4" t="str">
+        <f>Sum(Z2:Z9)</f>
+      </c>
+      <c r="AA10" s="4" t="str">
+        <f>Sum(AA2:AA9)</f>
+      </c>
+      <c r="AB10" s="4" t="str">
+        <f>Sum(AB2:AB9)</f>
+      </c>
+      <c r="AC10" s="4" t="str">
+        <f>Sum(AC2:AC9)</f>
+      </c>
+      <c r="AD10" s="4" t="str">
+        <f>Sum(AD2:AD9)</f>
+      </c>
+      <c r="AE10" s="4" t="str">
+        <f>Sum(AE2:AE9)</f>
+      </c>
+      <c r="AF10" s="4" t="str">
+        <f>Sum(AF2:AF9)</f>
+      </c>
+      <c r="AG10" s="4" t="str">
+        <f>Sum(AG2:AG9)</f>
+      </c>
+      <c r="AH10" s="4" t="str">
+        <f>Sum(AH2:AH9)</f>
+      </c>
+      <c r="AI10" s="4" t="str">
+        <f>Sum(AI2:AI9)</f>
+      </c>
+      <c r="AJ10" s="4" t="str">
+        <f>Sum(AJ2:AJ9)</f>
+      </c>
+      <c r="AK10" s="4" t="str">
+        <f>Sum(AK2:AK9)</f>
+      </c>
+      <c r="AL10" s="4" t="str">
+        <f>Sum(AL2:AL9)</f>
+      </c>
+      <c r="AM10" s="4" t="str">
+        <f>Sum(AM2:AM9)</f>
+      </c>
+      <c r="AN10" s="4" t="str">
+        <f>Sum(AN2:AN9)</f>
+      </c>
+      <c r="AO10" s="4" t="str">
+        <f>Sum(AO2:AO9)</f>
+      </c>
+      <c r="AP10" s="4"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <f>N13</f>
+      </c>
+      <c r="B13" t="str">
+        <f>O13</f>
+      </c>
+      <c r="N13" t="s">
+        <v>60</v>
+      </c>
+      <c r="O13" t="s">
+        <v>61</v>
+      </c>
+      <c r="P13" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>24</v>
+      </c>
+      <c r="R13" t="s">
+        <v>25</v>
+      </c>
+      <c r="S13" t="s">
+        <v>26</v>
+      </c>
+      <c r="T13" t="s">
+        <v>27</v>
+      </c>
+      <c r="U13" t="s">
+        <v>28</v>
+      </c>
+      <c r="V13" t="s">
+        <v>29</v>
+      </c>
+      <c r="W13" t="s">
+        <v>30</v>
+      </c>
+      <c r="X13" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z13" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA13" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB13" t="s">
+        <v>35</v>
+      </c>
+      <c r="AC13" t="s">
+        <v>36</v>
+      </c>
+      <c r="AD13" t="s">
+        <v>37</v>
+      </c>
+      <c r="AE13" t="s">
+        <v>38</v>
+      </c>
+      <c r="AF13" t="s">
+        <v>39</v>
+      </c>
+      <c r="AG13" t="s">
+        <v>40</v>
+      </c>
+      <c r="AH13" t="s">
+        <v>41</v>
+      </c>
+      <c r="AI13" t="s">
+        <v>42</v>
+      </c>
+      <c r="AJ13" t="s">
+        <v>43</v>
+      </c>
+      <c r="AK13" t="s">
+        <v>44</v>
+      </c>
+      <c r="AL13" t="s">
+        <v>45</v>
+      </c>
+      <c r="AM13" t="s">
+        <v>46</v>
+      </c>
+      <c r="AN13" t="s">
+        <v>47</v>
+      </c>
+      <c r="AO13" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="str">
+        <f>N14</f>
+      </c>
+      <c r="B14" t="str">
+        <f>O14</f>
+      </c>
+      <c r="N14" t="s">
+        <v>62</v>
+      </c>
+      <c r="O14" t="s">
+        <v>63</v>
+      </c>
+      <c r="P14" s="4" t="n">
+        <v>8227460125.45457</v>
+      </c>
+      <c r="Q14" s="4" t="n">
+        <v>8613415291.10174</v>
+      </c>
+      <c r="R14" s="4" t="n">
+        <v>9751588224.58806</v>
+      </c>
+      <c r="S14" s="4" t="n">
+        <v>17498851650.441</v>
+      </c>
+      <c r="T14" s="4" t="n">
+        <v>18285317093.3084</v>
+      </c>
+      <c r="U14" s="4" t="n">
+        <v>18043634930.3021</v>
+      </c>
+      <c r="V14" s="4" t="n">
+        <v>20600831957.1234</v>
+      </c>
+      <c r="W14" s="4" t="n">
+        <v>19144442332.0336</v>
+      </c>
+      <c r="X14" s="4" t="n">
+        <v>18136678965.4555</v>
+      </c>
+      <c r="Y14" s="4" t="n">
+        <v>16704460670.6827</v>
+      </c>
+      <c r="Z14" s="4" t="n">
+        <v>17312919229.3158</v>
+      </c>
+      <c r="AA14" s="4" t="n">
+        <v>15653767798.3259</v>
+      </c>
+      <c r="AB14" s="4" t="n">
+        <v>16234474750.4594</v>
+      </c>
+      <c r="AC14" s="4" t="n">
+        <v>15002818044.3817</v>
+      </c>
+      <c r="AD14" s="4" t="n">
+        <v>14676081418.3783</v>
+      </c>
+      <c r="AE14" s="4" t="n">
+        <v>14210148372.6507</v>
+      </c>
+      <c r="AF14" s="4" t="n">
+        <v>14340066123.7665</v>
+      </c>
+      <c r="AG14" s="4" t="n">
+        <v>15507984157.9875</v>
+      </c>
+      <c r="AH14" s="4" t="n">
+        <v>13660052544.6821</v>
+      </c>
+      <c r="AI14" s="4" t="n">
+        <v>15466802999.4369</v>
+      </c>
+      <c r="AJ14" s="4" t="n">
+        <v>10742029037.9571</v>
+      </c>
+      <c r="AK14" s="4" t="n">
+        <v>11377252573.2065</v>
+      </c>
+      <c r="AL14" s="4" t="n">
+        <v>11095353890.1834</v>
+      </c>
+      <c r="AM14" s="4" t="n">
+        <v>9689399758.3349</v>
+      </c>
+      <c r="AN14" s="4" t="n">
+        <v>9575230558.32221</v>
+      </c>
+      <c r="AO14" s="4" t="n">
+        <v>4407592394.21402</v>
+      </c>
+      <c r="AP14" s="4"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="str">
+        <f>N15</f>
+      </c>
+      <c r="B15" t="str">
+        <f>O15</f>
+      </c>
+      <c r="N15" t="s">
+        <v>62</v>
+      </c>
+      <c r="O15" t="s">
+        <v>64</v>
+      </c>
+      <c r="P15" s="4" t="n">
+        <v>2333992419.9893</v>
+      </c>
+      <c r="Q15" s="4" t="n">
+        <v>1978944398.97801</v>
+      </c>
+      <c r="R15" s="4" t="n">
+        <v>2182992970.75483</v>
+      </c>
+      <c r="S15" s="4" t="n">
+        <v>2557355389.70086</v>
+      </c>
+      <c r="T15" s="4" t="n">
+        <v>2893825752.0624</v>
+      </c>
+      <c r="U15" s="4" t="n">
+        <v>2383359291.1133</v>
+      </c>
+      <c r="V15" s="4" t="n">
+        <v>3451831895.67887</v>
+      </c>
+      <c r="W15" s="4" t="n">
+        <v>3249393504.81727</v>
+      </c>
+      <c r="X15" s="4" t="n">
+        <v>3398833238.68468</v>
+      </c>
+      <c r="Y15" s="4" t="n">
+        <v>3087297746.07198</v>
+      </c>
+      <c r="Z15" s="4" t="n">
+        <v>2398141852.24858</v>
+      </c>
+      <c r="AA15" s="4" t="n">
+        <v>1821936528.92471</v>
+      </c>
+      <c r="AB15" s="4" t="n">
+        <v>1368601381.41759</v>
+      </c>
+      <c r="AC15" s="4" t="n">
+        <v>508393687.599138</v>
+      </c>
+      <c r="AD15" s="4" t="n">
+        <v>282950897.045921</v>
+      </c>
+      <c r="AE15" s="4" t="n">
+        <v>194794786.281193</v>
+      </c>
+      <c r="AF15" s="4" t="n">
+        <v>258503812.276638</v>
+      </c>
+      <c r="AG15" s="4" t="n">
+        <v>405569726.06773</v>
+      </c>
+      <c r="AH15" s="4" t="n">
+        <v>360740503.915684</v>
+      </c>
+      <c r="AI15" s="4" t="n">
+        <v>442296977.980862</v>
+      </c>
+      <c r="AJ15" s="4" t="n">
+        <v>557999118.687007</v>
+      </c>
+      <c r="AK15" s="4" t="n">
+        <v>458875960.028186</v>
+      </c>
+      <c r="AL15" s="4" t="n">
+        <v>609913329.192553</v>
+      </c>
+      <c r="AM15" s="4" t="n">
+        <v>752940203.2038</v>
+      </c>
+      <c r="AN15" s="4" t="n">
+        <v>710168485.342466</v>
+      </c>
+      <c r="AO15" s="4" t="n">
+        <v>324017288.4268</v>
+      </c>
+      <c r="AP15" s="4"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="str">
+        <f>N16</f>
+      </c>
+      <c r="B16" t="str">
+        <f>O16</f>
+      </c>
+      <c r="N16" t="s">
+        <v>65</v>
+      </c>
+      <c r="O16" t="s">
+        <v>66</v>
+      </c>
+      <c r="P16" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="4"/>
+      <c r="R16" s="4" t="n">
+        <v>8062049.64508366</v>
+      </c>
+      <c r="S16" s="4" t="n">
+        <v>1030496.57890462</v>
+      </c>
+      <c r="T16" s="4" t="n">
+        <v>240766370.855835</v>
+      </c>
+      <c r="U16" s="4" t="n">
+        <v>100288591.354166</v>
+      </c>
+      <c r="V16" s="4" t="n">
+        <v>146248304.592014</v>
+      </c>
+      <c r="W16" s="4" t="n">
+        <v>1346194013.30734</v>
+      </c>
+      <c r="X16" s="4" t="n">
+        <v>2483976351.09776</v>
+      </c>
+      <c r="Y16" s="4" t="n">
+        <v>3561346334.94463</v>
+      </c>
+      <c r="Z16" s="4" t="n">
+        <v>18552256.1026258</v>
+      </c>
+      <c r="AA16" s="4" t="n">
+        <v>5099245.87641255</v>
+      </c>
+      <c r="AB16" s="4" t="n">
+        <v>-9039299.54084576</v>
+      </c>
+      <c r="AC16" s="4" t="n">
+        <v>-6230858.3331258</v>
+      </c>
+      <c r="AD16" s="4" t="n">
+        <v>-2642713.23987768</v>
+      </c>
+      <c r="AE16" s="4" t="n">
+        <v>-133919.260824959</v>
+      </c>
+      <c r="AF16" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG16" s="4" t="n">
+        <v>-277818.740007449</v>
+      </c>
+      <c r="AH16" s="4" t="n">
+        <v>-139809.823179969</v>
+      </c>
+      <c r="AI16" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ16" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK16" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL16" s="4"/>
+      <c r="AM16" s="4" t="n">
+        <v>-30000</v>
+      </c>
+      <c r="AN16" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO16" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP16" s="4"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="str">
+        <f>N17</f>
+      </c>
+      <c r="B17" t="str">
+        <f>O17</f>
+      </c>
+      <c r="N17" t="s">
+        <v>65</v>
+      </c>
+      <c r="O17" t="s">
+        <v>67</v>
+      </c>
+      <c r="P17" s="4" t="n">
+        <v>12466650091.8661</v>
+      </c>
+      <c r="Q17" s="4" t="n">
+        <v>10439938388.873</v>
+      </c>
+      <c r="R17" s="4" t="n">
+        <v>8239426010.2477</v>
+      </c>
+      <c r="S17" s="4" t="n">
+        <v>9612302594.50121</v>
+      </c>
+      <c r="T17" s="4" t="n">
+        <v>7935541785.07485</v>
+      </c>
+      <c r="U17" s="4" t="n">
+        <v>5821021827.07731</v>
+      </c>
+      <c r="V17" s="4" t="n">
+        <v>6611513661.15396</v>
+      </c>
+      <c r="W17" s="4" t="n">
+        <v>10605944940.1082</v>
+      </c>
+      <c r="X17" s="4" t="n">
+        <v>6316176545.18962</v>
+      </c>
+      <c r="Y17" s="4" t="n">
+        <v>8103383401.16909</v>
+      </c>
+      <c r="Z17" s="4" t="n">
+        <v>9339579227.22152</v>
+      </c>
+      <c r="AA17" s="4" t="n">
+        <v>5022146309.8227</v>
+      </c>
+      <c r="AB17" s="4" t="n">
+        <v>15597672198.3724</v>
+      </c>
+      <c r="AC17" s="4" t="n">
+        <v>13080878039.1469</v>
+      </c>
+      <c r="AD17" s="4" t="n">
+        <v>4186232502.30435</v>
+      </c>
+      <c r="AE17" s="4" t="n">
+        <v>6889506941.35239</v>
+      </c>
+      <c r="AF17" s="4" t="n">
+        <v>18610831806.8261</v>
+      </c>
+      <c r="AG17" s="4" t="n">
+        <v>32581150309.0387</v>
+      </c>
+      <c r="AH17" s="4" t="n">
+        <v>24893688148.6473</v>
+      </c>
+      <c r="AI17" s="4" t="n">
+        <v>17923487354.8889</v>
+      </c>
+      <c r="AJ17" s="4" t="n">
+        <v>42868742719.209</v>
+      </c>
+      <c r="AK17" s="4" t="n">
+        <v>12434291289.4107</v>
+      </c>
+      <c r="AL17" s="4" t="n">
+        <v>19773777091.6491</v>
+      </c>
+      <c r="AM17" s="4" t="n">
+        <v>15383277994.4694</v>
+      </c>
+      <c r="AN17" s="4" t="n">
+        <v>13785087503.7557</v>
+      </c>
+      <c r="AO17" s="4" t="n">
+        <v>14382849697.3305</v>
+      </c>
+      <c r="AP17" s="4"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="str">
+        <f>N18</f>
+      </c>
+      <c r="B18" t="str">
+        <f>O18</f>
+      </c>
+      <c r="N18" t="s">
+        <v>65</v>
+      </c>
+      <c r="O18"/>
+      <c r="P18" s="4" t="n">
+        <v>1961678244.3166</v>
+      </c>
+      <c r="Q18" s="4" t="n">
+        <v>135965365.735639</v>
+      </c>
+      <c r="R18" s="4" t="n">
+        <v>214123677.277662</v>
+      </c>
+      <c r="S18" s="4" t="n">
+        <v>274874260.220245</v>
+      </c>
+      <c r="T18" s="4" t="n">
+        <v>297958960.225106</v>
+      </c>
+      <c r="U18" s="4" t="n">
+        <v>289487857.682374</v>
+      </c>
+      <c r="V18" s="4" t="n">
+        <v>469468181.2101</v>
+      </c>
+      <c r="W18" s="4" t="n">
+        <v>360863984.400083</v>
+      </c>
+      <c r="X18" s="4" t="n">
+        <v>2056413038.40183</v>
+      </c>
+      <c r="Y18" s="4" t="n">
+        <v>2670380079.17237</v>
+      </c>
+      <c r="Z18" s="4" t="n">
+        <v>1391150380.6513</v>
+      </c>
+      <c r="AA18" s="4" t="n">
+        <v>2044653769.80022</v>
+      </c>
+      <c r="AB18" s="4" t="n">
+        <v>4109516527.20449</v>
+      </c>
+      <c r="AC18" s="4" t="n">
+        <v>-12132313.8414576</v>
+      </c>
+      <c r="AD18" s="4" t="n">
+        <v>30385.0245950002</v>
+      </c>
+      <c r="AE18" s="4" t="n">
+        <v>77369742.8952301</v>
+      </c>
+      <c r="AF18" s="4" t="n">
+        <v>372877995.868592</v>
+      </c>
+      <c r="AG18" s="4" t="n">
+        <v>16704427.3224071</v>
+      </c>
+      <c r="AH18" s="4" t="n">
+        <v>222029.041186222</v>
+      </c>
+      <c r="AI18" s="4" t="n">
+        <v>-6465.52414250946</v>
+      </c>
+      <c r="AJ18" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK18" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL18" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM18" s="4" t="n">
+        <v>-39324.9492</v>
+      </c>
+      <c r="AN18" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO18" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP18" s="4"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="str">
+        <f>N19</f>
+      </c>
+      <c r="B19" t="str">
+        <f>O19</f>
+      </c>
+      <c r="N19" t="s">
+        <v>68</v>
+      </c>
+      <c r="O19" t="s">
+        <v>69</v>
+      </c>
+      <c r="P19" s="4" t="n">
+        <v>31380839064.7676</v>
+      </c>
+      <c r="Q19" s="4" t="n">
+        <v>33620364445.1642</v>
+      </c>
+      <c r="R19" s="4" t="n">
+        <v>38301445021.377</v>
+      </c>
+      <c r="S19" s="4" t="n">
+        <v>42602784756.6875</v>
+      </c>
+      <c r="T19" s="4" t="n">
+        <v>38213132942.0917</v>
+      </c>
+      <c r="U19" s="4" t="n">
+        <v>30579093903.3368</v>
+      </c>
+      <c r="V19" s="4" t="n">
+        <v>39502456894.1538</v>
+      </c>
+      <c r="W19" s="4" t="n">
+        <v>41775006589.8634</v>
+      </c>
+      <c r="X19" s="4" t="n">
+        <v>41333767703.9683</v>
+      </c>
+      <c r="Y19" s="4" t="n">
+        <v>42581327454.3777</v>
+      </c>
+      <c r="Z19" s="4" t="n">
+        <v>44000621304.3423</v>
+      </c>
+      <c r="AA19" s="4" t="n">
+        <v>47129175911.4272</v>
+      </c>
+      <c r="AB19" s="4" t="n">
+        <v>45920674315.1506</v>
+      </c>
+      <c r="AC19" s="4" t="n">
+        <v>42715862468.0316</v>
+      </c>
+      <c r="AD19" s="4" t="n">
+        <v>34821677523.6389</v>
+      </c>
+      <c r="AE19" s="4" t="n">
+        <v>34213149689.2136</v>
+      </c>
+      <c r="AF19" s="4" t="n">
+        <v>40505113604.3721</v>
+      </c>
+      <c r="AG19" s="4" t="n">
+        <v>40988463073.8378</v>
+      </c>
+      <c r="AH19" s="4" t="n">
+        <v>42724351429.0462</v>
+      </c>
+      <c r="AI19" s="4" t="n">
+        <v>50295711034.3523</v>
+      </c>
+      <c r="AJ19" s="4" t="n">
+        <v>50007701253.8418</v>
+      </c>
+      <c r="AK19" s="4" t="n">
+        <v>39145930000.6527</v>
+      </c>
+      <c r="AL19" s="4" t="n">
+        <v>33804392992.0689</v>
+      </c>
+      <c r="AM19" s="4" t="n">
+        <v>39681121088.8237</v>
+      </c>
+      <c r="AN19" s="4" t="n">
+        <v>30848870164.961</v>
+      </c>
+      <c r="AO19" s="4" t="n">
+        <v>13051172664.1017</v>
+      </c>
+      <c r="AP19" s="4"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="str">
+        <f>N20</f>
+      </c>
+      <c r="B20" t="str">
+        <f>O20</f>
+      </c>
+      <c r="N20" t="s">
+        <v>68</v>
+      </c>
+      <c r="O20" t="s">
+        <v>70</v>
+      </c>
+      <c r="P20" s="4" t="n">
+        <v>1374740786.38933</v>
+      </c>
+      <c r="Q20" s="4" t="n">
+        <v>2786905309.65927</v>
+      </c>
+      <c r="R20" s="4" t="n">
+        <v>3021858436.9238</v>
+      </c>
+      <c r="S20" s="4" t="n">
+        <v>2811717550.66379</v>
+      </c>
+      <c r="T20" s="4" t="n">
+        <v>3826339902.28556</v>
+      </c>
+      <c r="U20" s="4" t="n">
+        <v>11494580787.3033</v>
+      </c>
+      <c r="V20" s="4" t="n">
+        <v>5542519880.41824</v>
+      </c>
+      <c r="W20" s="4" t="n">
+        <v>5303109148.37376</v>
+      </c>
+      <c r="X20" s="4" t="n">
+        <v>10608686076.2386</v>
+      </c>
+      <c r="Y20" s="4" t="n">
+        <v>5553685109.13818</v>
+      </c>
+      <c r="Z20" s="4" t="n">
+        <v>2965783056.80324</v>
+      </c>
+      <c r="AA20" s="4" t="n">
+        <v>1625447233.72967</v>
+      </c>
+      <c r="AB20" s="4" t="n">
+        <v>728472441.00733</v>
+      </c>
+      <c r="AC20" s="4" t="n">
+        <v>647419814.630108</v>
+      </c>
+      <c r="AD20" s="4" t="n">
+        <v>472022089.521847</v>
+      </c>
+      <c r="AE20" s="4" t="n">
+        <v>223243668.780392</v>
+      </c>
+      <c r="AF20" s="4" t="n">
+        <v>225827228.459164</v>
+      </c>
+      <c r="AG20" s="4" t="n">
+        <v>277848619.196467</v>
+      </c>
+      <c r="AH20" s="4" t="n">
+        <v>199222463.859374</v>
+      </c>
+      <c r="AI20" s="4" t="n">
+        <v>271988820.320174</v>
+      </c>
+      <c r="AJ20" s="4" t="n">
+        <v>517890310.499252</v>
+      </c>
+      <c r="AK20" s="4" t="n">
+        <v>503228482.189855</v>
+      </c>
+      <c r="AL20" s="4" t="n">
+        <v>362782671.538248</v>
+      </c>
+      <c r="AM20" s="4" t="n">
+        <v>445506149.2168</v>
+      </c>
+      <c r="AN20" s="4" t="n">
+        <v>348952492.970169</v>
+      </c>
+      <c r="AO20" s="4" t="n">
+        <v>236635117.156692</v>
+      </c>
+      <c r="AP20" s="4"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="str">
+        <f>N21</f>
+      </c>
+      <c r="B21" t="str">
+        <f>O21</f>
+      </c>
+      <c r="N21" t="s">
+        <v>71</v>
+      </c>
+      <c r="O21" t="s">
+        <v>71</v>
+      </c>
+      <c r="P21" s="4" t="n">
+        <v>2463263694.21683</v>
+      </c>
+      <c r="Q21" s="4" t="n">
+        <v>2591276423.61655</v>
+      </c>
+      <c r="R21" s="4" t="n">
+        <v>2012175449.90212</v>
+      </c>
+      <c r="S21" s="4" t="n">
+        <v>3529994695.30569</v>
+      </c>
+      <c r="T21" s="4" t="n">
+        <v>3171551868.49641</v>
+      </c>
+      <c r="U21" s="4" t="n">
+        <v>3229471314.81394</v>
+      </c>
+      <c r="V21" s="4" t="n">
+        <v>3595413100.84349</v>
+      </c>
+      <c r="W21" s="4" t="n">
+        <v>5266848796.49145</v>
+      </c>
+      <c r="X21" s="4" t="n">
+        <v>10088892364.3372</v>
+      </c>
+      <c r="Y21" s="4" t="n">
+        <v>10099626324.0038</v>
+      </c>
+      <c r="Z21" s="4" t="n">
+        <v>11930116472.8723</v>
+      </c>
+      <c r="AA21" s="4" t="n">
+        <v>23120709529.9303</v>
+      </c>
+      <c r="AB21" s="4" t="n">
+        <v>20616844442.2261</v>
+      </c>
+      <c r="AC21" s="4" t="n">
+        <v>24456617002.3798</v>
+      </c>
+      <c r="AD21" s="4" t="n">
+        <v>20317420045.8228</v>
+      </c>
+      <c r="AE21" s="4" t="n">
+        <v>23015169384.9532</v>
+      </c>
+      <c r="AF21" s="4" t="n">
+        <v>20797539425.0917</v>
+      </c>
+      <c r="AG21" s="4" t="n">
+        <v>17171748704.1057</v>
+      </c>
+      <c r="AH21" s="4" t="n">
+        <v>20444835558.1945</v>
+      </c>
+      <c r="AI21" s="4" t="n">
+        <v>23038951005.42</v>
+      </c>
+      <c r="AJ21" s="4" t="n">
+        <v>19292117094.6546</v>
+      </c>
+      <c r="AK21" s="4" t="n">
+        <v>19721112369.3831</v>
+      </c>
+      <c r="AL21" s="4" t="n">
+        <v>15234156010.0341</v>
+      </c>
+      <c r="AM21" s="4" t="n">
+        <v>33360045896.3436</v>
+      </c>
+      <c r="AN21" s="4" t="n">
+        <v>16667850316.0342</v>
+      </c>
+      <c r="AO21" s="4" t="n">
+        <v>7908013937.95031</v>
+      </c>
+      <c r="AP21" s="4"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="str">
+        <f>N22</f>
+      </c>
+      <c r="B22" t="str">
+        <f>O22</f>
+      </c>
+      <c r="P22" s="4"/>
+      <c r="Q22" s="4"/>
+      <c r="R22" s="4"/>
+      <c r="S22" s="4"/>
+      <c r="T22" s="4"/>
+      <c r="U22" s="4"/>
+      <c r="V22" s="4"/>
+      <c r="W22" s="4"/>
+      <c r="X22" s="4"/>
+      <c r="Y22" s="4"/>
+      <c r="Z22" s="4"/>
+      <c r="AA22" s="4"/>
+      <c r="AB22" s="4"/>
+      <c r="AC22" s="4"/>
+      <c r="AD22" s="4"/>
+      <c r="AE22" s="4"/>
+      <c r="AF22" s="4"/>
+      <c r="AG22" s="4"/>
+      <c r="AH22" s="4"/>
+      <c r="AI22" s="4"/>
+      <c r="AJ22" s="4"/>
+      <c r="AK22" s="4"/>
+      <c r="AL22" s="4"/>
+      <c r="AM22" s="4"/>
+      <c r="AN22" s="4"/>
+      <c r="AO22" s="4"/>
+      <c r="AP22" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false">
+      <pane ySplit="1" xSplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <f>M1</f>
+      </c>
+      <c r="M1" t="s">
+        <v>72</v>
+      </c>
+      <c r="N1" t="s">
+        <v>23</v>
+      </c>
+      <c r="O1" t="s">
+        <v>24</v>
+      </c>
+      <c r="P1" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>26</v>
+      </c>
+      <c r="R1" t="s">
+        <v>27</v>
+      </c>
+      <c r="S1" t="s">
+        <v>28</v>
+      </c>
+      <c r="T1" t="s">
+        <v>29</v>
+      </c>
+      <c r="U1" t="s">
+        <v>30</v>
+      </c>
+      <c r="V1" t="s">
+        <v>31</v>
+      </c>
+      <c r="W1" t="s">
+        <v>32</v>
+      </c>
+      <c r="X1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <f>M2</f>
+      </c>
+      <c r="M2" t="s">
+        <v>73</v>
+      </c>
+      <c r="N2" s="5" t="n">
+        <v>26269738253.9141</v>
+      </c>
+      <c r="O2" s="5" t="n">
+        <v>27402512070.5877</v>
+      </c>
+      <c r="P2" s="5" t="n">
+        <v>28465084332.5</v>
+      </c>
+      <c r="Q2" s="5" t="n">
+        <v>33417000338.223</v>
+      </c>
+      <c r="R2" s="5" t="n">
+        <v>33013087242.078</v>
+      </c>
+      <c r="S2" s="5" t="n">
+        <v>31666541505.7127</v>
+      </c>
+      <c r="T2" s="5" t="n">
+        <v>36405009977.4251</v>
+      </c>
+      <c r="U2" s="5" t="n">
+        <v>42140803437.352</v>
+      </c>
+      <c r="V2" s="5" t="n">
+        <v>47477014347.6124</v>
+      </c>
+      <c r="W2" s="5" t="n">
+        <v>45170806060.2098</v>
+      </c>
+      <c r="X2" s="5" t="n">
+        <v>44140395976.4189</v>
+      </c>
+      <c r="Y2" s="5" t="n">
+        <v>51325134471.5834</v>
+      </c>
+      <c r="Z2" s="5" t="n">
+        <v>56280406365.9665</v>
+      </c>
+      <c r="AA2" s="5" t="n">
+        <v>55261432598.7871</v>
+      </c>
+      <c r="AB2" s="5" t="n">
+        <v>41172839212.3735</v>
+      </c>
+      <c r="AC2" s="5" t="n">
+        <v>44356897586.2231</v>
+      </c>
+      <c r="AD2" s="5" t="n">
+        <v>57349351521.4415</v>
+      </c>
+      <c r="AE2" s="5" t="n">
+        <v>66383177980.2887</v>
+      </c>
+      <c r="AF2" s="5" t="n">
+        <v>66145123111.0381</v>
+      </c>
+      <c r="AG2" s="5" t="n">
+        <v>70004648651.7854</v>
+      </c>
+      <c r="AH2" s="5" t="n">
+        <v>84539626916.5969</v>
+      </c>
+      <c r="AI2" s="5" t="n">
+        <v>53245222489.6788</v>
+      </c>
+      <c r="AJ2" s="5" t="n">
+        <v>55400754783.5541</v>
+      </c>
+      <c r="AK2" s="5" t="n">
+        <v>77710527619.9733</v>
+      </c>
+      <c r="AL2" s="5" t="n">
+        <v>54728429449.43</v>
+      </c>
+      <c r="AM2" s="5" t="n">
+        <v>33266993861.6</v>
+      </c>
+      <c r="AN2" s="5"/>
+      <c r="AO2" s="5"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <f>M3</f>
+      </c>
+      <c r="M3" t="s">
+        <v>74</v>
+      </c>
+      <c r="N3" s="5" t="n">
+        <v>3957545494.9786</v>
+      </c>
+      <c r="O3" s="5" t="n">
+        <v>4098732038.0937</v>
+      </c>
+      <c r="P3" s="5" t="n">
+        <v>5586956527.47</v>
+      </c>
+      <c r="Q3" s="5" t="n">
+        <v>8337866003.25</v>
+      </c>
+      <c r="R3" s="5" t="n">
+        <v>8953119109.8294</v>
+      </c>
+      <c r="S3" s="5" t="n">
+        <v>9347924288.35</v>
+      </c>
+      <c r="T3" s="5" t="n">
+        <v>9898784067.5338</v>
+      </c>
+      <c r="U3" s="5" t="n">
+        <v>9640680938.7039</v>
+      </c>
+      <c r="V3" s="5" t="n">
+        <v>8778529970.7126</v>
+      </c>
+      <c r="W3" s="5" t="n">
+        <v>9039273626.3181</v>
+      </c>
+      <c r="X3" s="5" t="n">
+        <v>8644663478.7857</v>
+      </c>
+      <c r="Y3" s="5" t="n">
+        <v>7327443051.1357</v>
+      </c>
+      <c r="Z3" s="5" t="n">
+        <v>6531938560.4489</v>
+      </c>
+      <c r="AA3" s="5" t="n">
+        <v>5699021247.0394</v>
+      </c>
+      <c r="AB3" s="5" t="n">
+        <v>3596392184.0802</v>
+      </c>
+      <c r="AC3" s="5" t="n">
+        <v>3988063219.5232</v>
+      </c>
+      <c r="AD3" s="5" t="n">
+        <v>4051684775.2015</v>
+      </c>
+      <c r="AE3" s="5" t="n">
+        <v>4133457181.4572</v>
+      </c>
+      <c r="AF3" s="5" t="n">
+        <v>3219094640.3845</v>
+      </c>
+      <c r="AG3" s="5" t="n">
+        <v>4462032553.6038</v>
+      </c>
+      <c r="AH3" s="5" t="n">
+        <v>4551162663.9099</v>
+      </c>
+      <c r="AI3" s="5" t="n">
+        <v>3824027399.8036</v>
+      </c>
+      <c r="AJ3" s="5" t="n">
+        <v>3685780372.7377</v>
+      </c>
+      <c r="AK3" s="5" t="n">
+        <v>4757967940.3977</v>
+      </c>
+      <c r="AL3" s="5" t="n">
+        <v>4035963931.83</v>
+      </c>
+      <c r="AM3" s="5" t="n">
+        <v>1162384612.62</v>
+      </c>
+      <c r="AN3" s="5"/>
+      <c r="AO3" s="5"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <f>M4</f>
+      </c>
+      <c r="M4" t="s">
+        <v>75</v>
+      </c>
+      <c r="N4" s="5" t="n">
+        <v>5586165557.64</v>
+      </c>
+      <c r="O4" s="5" t="n">
+        <v>5154819086.1991</v>
+      </c>
+      <c r="P4" s="5" t="n">
+        <v>5386718280.9026</v>
+      </c>
+      <c r="Q4" s="5" t="n">
+        <v>8000661569.313</v>
+      </c>
+      <c r="R4" s="5" t="n">
+        <v>6404056304.879</v>
+      </c>
+      <c r="S4" s="5" t="n">
+        <v>6881332264.2465</v>
+      </c>
+      <c r="T4" s="5" t="n">
+        <v>8632808090.3009</v>
+      </c>
+      <c r="U4" s="5" t="n">
+        <v>9704601308.7094</v>
+      </c>
+      <c r="V4" s="5" t="n">
+        <v>11821834026.4203</v>
+      </c>
+      <c r="W4" s="5" t="n">
+        <v>13061662778.4999</v>
+      </c>
+      <c r="X4" s="5" t="n">
+        <v>12861893495.4621</v>
+      </c>
+      <c r="Y4" s="5" t="n">
+        <v>13607357019.969</v>
+      </c>
+      <c r="Z4" s="5" t="n">
+        <v>16972946831.9979</v>
+      </c>
+      <c r="AA4" s="5" t="n">
+        <v>13922871669.9044</v>
+      </c>
+      <c r="AB4" s="5" t="n">
+        <v>14362612943.0282</v>
+      </c>
+      <c r="AC4" s="5" t="n">
+        <v>14651648845.0044</v>
+      </c>
+      <c r="AD4" s="5" t="n">
+        <v>15220509816.8268</v>
+      </c>
+      <c r="AE4" s="5" t="n">
+        <v>17096366540.7783</v>
+      </c>
+      <c r="AF4" s="5" t="n">
+        <v>16286355608.8619</v>
+      </c>
+      <c r="AG4" s="5" t="n">
+        <v>17165156350.8296</v>
+      </c>
+      <c r="AH4" s="5" t="n">
+        <v>18035072617.2456</v>
+      </c>
+      <c r="AI4" s="5" t="n">
+        <v>17684574577.15</v>
+      </c>
+      <c r="AJ4" s="5" t="n">
+        <v>18255697075.8179</v>
+      </c>
+      <c r="AK4" s="5" t="n">
+        <v>16843726205.072</v>
+      </c>
+      <c r="AL4" s="5" t="n">
+        <v>15092892353.07</v>
+      </c>
+      <c r="AM4" s="5" t="n">
+        <v>7865540858.87</v>
+      </c>
+      <c r="AN4" s="5"/>
+      <c r="AO4" s="5"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <f>M5</f>
+      </c>
+      <c r="M5" t="s">
+        <v>76</v>
+      </c>
+      <c r="N5" s="5" t="n">
+        <v>3806.53</v>
+      </c>
+      <c r="O5" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" s="5" t="n">
+        <v>9511.12</v>
+      </c>
+      <c r="Q5" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" s="5"/>
+      <c r="S5" s="5"/>
+      <c r="T5" s="5"/>
+      <c r="U5" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="V5" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" s="5"/>
+      <c r="X5" s="5"/>
+      <c r="Y5" s="5"/>
+      <c r="Z5" s="5"/>
+      <c r="AA5" s="5"/>
+      <c r="AB5" s="5"/>
+      <c r="AC5" s="5"/>
+      <c r="AD5" s="5"/>
+      <c r="AE5" s="5"/>
+      <c r="AF5" s="5"/>
+      <c r="AG5" s="5"/>
+      <c r="AH5" s="5"/>
+      <c r="AI5" s="5"/>
+      <c r="AJ5" s="5"/>
+      <c r="AK5" s="5"/>
+      <c r="AL5" s="5"/>
+      <c r="AM5" s="5"/>
+      <c r="AN5" s="5"/>
+      <c r="AO5" s="5"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <f>M6</f>
+      </c>
+      <c r="M6" t="s">
+        <v>58</v>
+      </c>
+      <c r="N6" s="5" t="str">
+        <f>Sum(N2:N5)</f>
+      </c>
+      <c r="O6" s="5" t="str">
+        <f>Sum(O2:O5)</f>
+      </c>
+      <c r="P6" s="5" t="str">
+        <f>Sum(P2:P5)</f>
+      </c>
+      <c r="Q6" s="5" t="str">
+        <f>Sum(Q2:Q5)</f>
+      </c>
+      <c r="R6" s="5" t="str">
+        <f>Sum(R2:R5)</f>
+      </c>
+      <c r="S6" s="5" t="str">
+        <f>Sum(S2:S5)</f>
+      </c>
+      <c r="T6" s="5" t="str">
+        <f>Sum(T2:T5)</f>
+      </c>
+      <c r="U6" s="5" t="str">
+        <f>Sum(U2:U5)</f>
+      </c>
+      <c r="V6" s="5" t="str">
+        <f>Sum(V2:V5)</f>
+      </c>
+      <c r="W6" s="5" t="str">
+        <f>Sum(W2:W5)</f>
+      </c>
+      <c r="X6" s="5" t="str">
+        <f>Sum(X2:X5)</f>
+      </c>
+      <c r="Y6" s="5" t="str">
+        <f>Sum(Y2:Y5)</f>
+      </c>
+      <c r="Z6" s="5" t="str">
+        <f>Sum(Z2:Z5)</f>
+      </c>
+      <c r="AA6" s="5" t="str">
+        <f>Sum(AA2:AA5)</f>
+      </c>
+      <c r="AB6" s="5" t="str">
+        <f>Sum(AB2:AB5)</f>
+      </c>
+      <c r="AC6" s="5" t="str">
+        <f>Sum(AC2:AC5)</f>
+      </c>
+      <c r="AD6" s="5" t="str">
+        <f>Sum(AD2:AD5)</f>
+      </c>
+      <c r="AE6" s="5" t="str">
+        <f>Sum(AE2:AE5)</f>
+      </c>
+      <c r="AF6" s="5" t="str">
+        <f>Sum(AF2:AF5)</f>
+      </c>
+      <c r="AG6" s="5" t="str">
+        <f>Sum(AG2:AG5)</f>
+      </c>
+      <c r="AH6" s="5" t="str">
+        <f>Sum(AH2:AH5)</f>
+      </c>
+      <c r="AI6" s="5" t="str">
+        <f>Sum(AI2:AI5)</f>
+      </c>
+      <c r="AJ6" s="5" t="str">
+        <f>Sum(AJ2:AJ5)</f>
+      </c>
+      <c r="AK6" s="5" t="str">
+        <f>Sum(AK2:AK5)</f>
+      </c>
+      <c r="AL6" s="5" t="str">
+        <f>Sum(AL2:AL5)</f>
+      </c>
+      <c r="AM6" s="5" t="str">
+        <f>Sum(AM2:AM5)</f>
+      </c>
+      <c r="AN6" s="5" t="str">
+        <f>Sum(AN2:AN5)</f>
+      </c>
+      <c r="AO6" s="5"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <f>M9</f>
+      </c>
+      <c r="M9" t="s">
+        <v>72</v>
+      </c>
+      <c r="N9" t="s">
+        <v>23</v>
+      </c>
+      <c r="O9" t="s">
+        <v>24</v>
+      </c>
+      <c r="P9" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>26</v>
+      </c>
+      <c r="R9" t="s">
+        <v>27</v>
+      </c>
+      <c r="S9" t="s">
+        <v>28</v>
+      </c>
+      <c r="T9" t="s">
+        <v>29</v>
+      </c>
+      <c r="U9" t="s">
+        <v>30</v>
+      </c>
+      <c r="V9" t="s">
+        <v>31</v>
+      </c>
+      <c r="W9" t="s">
+        <v>32</v>
+      </c>
+      <c r="X9" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>34</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA9" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB9" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC9" t="s">
+        <v>38</v>
+      </c>
+      <c r="AD9" t="s">
+        <v>39</v>
+      </c>
+      <c r="AE9" t="s">
+        <v>40</v>
+      </c>
+      <c r="AF9" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG9" t="s">
+        <v>42</v>
+      </c>
+      <c r="AH9" t="s">
+        <v>43</v>
+      </c>
+      <c r="AI9" t="s">
+        <v>44</v>
+      </c>
+      <c r="AJ9" t="s">
+        <v>45</v>
+      </c>
+      <c r="AK9" t="s">
+        <v>46</v>
+      </c>
+      <c r="AL9" t="s">
+        <v>47</v>
+      </c>
+      <c r="AM9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <f>M10</f>
+      </c>
+      <c r="M10" t="s">
+        <v>73</v>
+      </c>
+      <c r="N10" s="5" t="n">
+        <v>44163984950.9127</v>
+      </c>
+      <c r="O10" s="5" t="n">
+        <v>44978145039.2303</v>
+      </c>
+      <c r="P10" s="5" t="n">
+        <v>45998581487.2936</v>
+      </c>
+      <c r="Q10" s="5" t="n">
+        <v>52983676174.9477</v>
+      </c>
+      <c r="R10" s="5" t="n">
+        <v>51095569415.6867</v>
+      </c>
+      <c r="S10" s="5" t="n">
+        <v>47564103896.7807</v>
+      </c>
+      <c r="T10" s="5" t="n">
+        <v>52961024504.407</v>
+      </c>
+      <c r="U10" s="5" t="n">
+        <v>59662814623.3936</v>
+      </c>
+      <c r="V10" s="5" t="n">
+        <v>65850689002.0162</v>
+      </c>
+      <c r="W10" s="5" t="n">
+        <v>62017774070.5208</v>
+      </c>
+      <c r="X10" s="5" t="n">
+        <v>60082717828.5742</v>
+      </c>
+      <c r="Y10" s="5" t="n">
+        <v>68487747802.3115</v>
+      </c>
+      <c r="Z10" s="5" t="n">
+        <v>73761533258.8156</v>
+      </c>
+      <c r="AA10" s="5" t="n">
+        <v>71135327164.6844</v>
+      </c>
+      <c r="AB10" s="5" t="n">
+        <v>52050212124.5933</v>
+      </c>
+      <c r="AC10" s="5" t="n">
+        <v>55500681511.4836</v>
+      </c>
+      <c r="AD10" s="5" t="n">
+        <v>71188075485.22</v>
+      </c>
+      <c r="AE10" s="5" t="n">
+        <v>81033945376.105</v>
+      </c>
+      <c r="AF10" s="5" t="n">
+        <v>78989778667.6703</v>
+      </c>
+      <c r="AG10" s="5" t="n">
+        <v>82081139798.6331</v>
+      </c>
+      <c r="AH10" s="5" t="n">
+        <v>97845380261.4837</v>
+      </c>
+      <c r="AI10" s="5" t="n">
+        <v>59575108242.9474</v>
+      </c>
+      <c r="AJ10" s="5" t="n">
+        <v>57935150659.7436</v>
+      </c>
+      <c r="AK10" s="5" t="n">
+        <v>77710527619.9733</v>
+      </c>
+      <c r="AL10" s="5" t="n">
+        <v>53304870224.8632</v>
+      </c>
+      <c r="AM10" s="5" t="n">
+        <v>31705980175.1801</v>
+      </c>
+      <c r="AN10" s="5"/>
+      <c r="AO10" s="5"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <f>M11</f>
+      </c>
+      <c r="M11" t="s">
+        <v>74</v>
+      </c>
+      <c r="N11" s="5" t="n">
+        <v>6653320181.32101</v>
+      </c>
+      <c r="O11" s="5" t="n">
+        <v>6727608170.06237</v>
+      </c>
+      <c r="P11" s="5" t="n">
+        <v>9028326496.16904</v>
+      </c>
+      <c r="Q11" s="5" t="n">
+        <v>13219941581.6804</v>
+      </c>
+      <c r="R11" s="5" t="n">
+        <v>13857071760.9264</v>
+      </c>
+      <c r="S11" s="5" t="n">
+        <v>14040865245.4234</v>
+      </c>
+      <c r="T11" s="5" t="n">
+        <v>14400483501.8472</v>
+      </c>
+      <c r="U11" s="5" t="n">
+        <v>13649245215.3712</v>
+      </c>
+      <c r="V11" s="5" t="n">
+        <v>12175834031.2599</v>
+      </c>
+      <c r="W11" s="5" t="n">
+        <v>12410573961.6728</v>
+      </c>
+      <c r="X11" s="5" t="n">
+        <v>11766883033.7711</v>
+      </c>
+      <c r="Y11" s="5" t="n">
+        <v>9777666963.53869</v>
+      </c>
+      <c r="Z11" s="5" t="n">
+        <v>8560808893.91811</v>
+      </c>
+      <c r="AA11" s="5" t="n">
+        <v>7336070055.76496</v>
+      </c>
+      <c r="AB11" s="5" t="n">
+        <v>4546516092.78253</v>
+      </c>
+      <c r="AC11" s="5" t="n">
+        <v>4989984391.13482</v>
+      </c>
+      <c r="AD11" s="5" t="n">
+        <v>5029379303.64432</v>
+      </c>
+      <c r="AE11" s="5" t="n">
+        <v>5045711182.37409</v>
+      </c>
+      <c r="AF11" s="5" t="n">
+        <v>3844207421.42095</v>
+      </c>
+      <c r="AG11" s="5" t="n">
+        <v>5231777101.54916</v>
+      </c>
+      <c r="AH11" s="5" t="n">
+        <v>5267473464.50268</v>
+      </c>
+      <c r="AI11" s="5" t="n">
+        <v>4278634506.81339</v>
+      </c>
+      <c r="AJ11" s="5" t="n">
+        <v>3854392273.67122</v>
+      </c>
+      <c r="AK11" s="5" t="n">
+        <v>4757967940.3977</v>
+      </c>
+      <c r="AL11" s="5" t="n">
+        <v>3930983143.18003</v>
+      </c>
+      <c r="AM11" s="5" t="n">
+        <v>1107841112.33463</v>
+      </c>
+      <c r="AN11" s="5"/>
+      <c r="AO11" s="5"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <f>M12</f>
+      </c>
+      <c r="M12" t="s">
+        <v>75</v>
+      </c>
+      <c r="N12" s="5" t="n">
+        <v>9391312895.32971</v>
+      </c>
+      <c r="O12" s="5" t="n">
+        <v>8461056413.83568</v>
+      </c>
+      <c r="P12" s="5" t="n">
+        <v>8704748487.61604</v>
+      </c>
+      <c r="Q12" s="5" t="n">
+        <v>12685293637.4711</v>
+      </c>
+      <c r="R12" s="5" t="n">
+        <v>9911793497.78722</v>
+      </c>
+      <c r="S12" s="5" t="n">
+        <v>10335969360.7792</v>
+      </c>
+      <c r="T12" s="5" t="n">
+        <v>12558775868.9197</v>
+      </c>
+      <c r="U12" s="5" t="n">
+        <v>13739743470.6303</v>
+      </c>
+      <c r="V12" s="5" t="n">
+        <v>16396901250.0974</v>
+      </c>
+      <c r="W12" s="5" t="n">
+        <v>17933159087.3669</v>
+      </c>
+      <c r="X12" s="5" t="n">
+        <v>17507262917.2122</v>
+      </c>
+      <c r="Y12" s="5" t="n">
+        <v>18157521561.9869</v>
+      </c>
+      <c r="Z12" s="5" t="n">
+        <v>22244874603.5635</v>
+      </c>
+      <c r="AA12" s="5" t="n">
+        <v>17922228663.5454</v>
+      </c>
+      <c r="AB12" s="5" t="n">
+        <v>18157043931.121</v>
+      </c>
+      <c r="AC12" s="5" t="n">
+        <v>18332582764.2475</v>
+      </c>
+      <c r="AD12" s="5" t="n">
+        <v>18893305207.7964</v>
+      </c>
+      <c r="AE12" s="5" t="n">
+        <v>20869534640.3371</v>
+      </c>
+      <c r="AF12" s="5" t="n">
+        <v>19448986778.4718</v>
+      </c>
+      <c r="AG12" s="5" t="n">
+        <v>20126314826.6927</v>
+      </c>
+      <c r="AH12" s="5" t="n">
+        <v>20873625808.8623</v>
+      </c>
+      <c r="AI12" s="5" t="n">
+        <v>19786947925.1103</v>
+      </c>
+      <c r="AJ12" s="5" t="n">
+        <v>19090833051.2515</v>
+      </c>
+      <c r="AK12" s="5" t="n">
+        <v>16843726205.072</v>
+      </c>
+      <c r="AL12" s="5" t="n">
+        <v>14700306153.3425</v>
+      </c>
+      <c r="AM12" s="5" t="n">
+        <v>7496459811.66532</v>
+      </c>
+      <c r="AN12" s="5"/>
+      <c r="AO12" s="5"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <f>M13</f>
+      </c>
+      <c r="M13" t="s">
+        <v>76</v>
+      </c>
+      <c r="N13" s="5" t="n">
+        <v>6399.43694947739</v>
+      </c>
+      <c r="O13" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P13" s="5" t="n">
+        <v>15369.6375266282</v>
+      </c>
+      <c r="Q13" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R13" s="5"/>
+      <c r="S13" s="5"/>
+      <c r="T13" s="5"/>
+      <c r="U13" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="V13" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" s="5"/>
+      <c r="X13" s="5"/>
+      <c r="Y13" s="5"/>
+      <c r="Z13" s="5"/>
+      <c r="AA13" s="5"/>
+      <c r="AB13" s="5"/>
+      <c r="AC13" s="5"/>
+      <c r="AD13" s="5"/>
+      <c r="AE13" s="5"/>
+      <c r="AF13" s="5"/>
+      <c r="AG13" s="5"/>
+      <c r="AH13" s="5"/>
+      <c r="AI13" s="5"/>
+      <c r="AJ13" s="5"/>
+      <c r="AK13" s="5"/>
+      <c r="AL13" s="5"/>
+      <c r="AM13" s="5"/>
+      <c r="AN13" s="5"/>
+      <c r="AO13" s="5"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="str">
+        <f>M14</f>
+      </c>
+      <c r="N14" s="5"/>
+      <c r="O14" s="5"/>
+      <c r="P14" s="5"/>
+      <c r="Q14" s="5"/>
+      <c r="R14" s="5"/>
+      <c r="S14" s="5"/>
+      <c r="T14" s="5"/>
+      <c r="U14" s="5"/>
+      <c r="V14" s="5"/>
+      <c r="W14" s="5"/>
+      <c r="X14" s="5"/>
+      <c r="Y14" s="5"/>
+      <c r="Z14" s="5"/>
+      <c r="AA14" s="5"/>
+      <c r="AB14" s="5"/>
+      <c r="AC14" s="5"/>
+      <c r="AD14" s="5"/>
+      <c r="AE14" s="5"/>
+      <c r="AF14" s="5"/>
+      <c r="AG14" s="5"/>
+      <c r="AH14" s="5"/>
+      <c r="AI14" s="5"/>
+      <c r="AJ14" s="5"/>
+      <c r="AK14" s="5"/>
+      <c r="AL14" s="5"/>
+      <c r="AM14" s="5"/>
+      <c r="AN14" s="5"/>
+      <c r="AO14" s="5"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
 </file>